--- a/inst/extdata/IDX1.xlsx
+++ b/inst/extdata/IDX1.xlsx
@@ -397,10 +397,10 @@
         <v>45293</v>
       </c>
       <c r="B3">
-        <v>101.4752502956216</v>
+        <v>101.47525</v>
       </c>
       <c r="C3">
-        <v>101.476722519505</v>
+        <v>101.476723</v>
       </c>
     </row>
     <row r="4">
@@ -408,10 +408,10 @@
         <v>45294</v>
       </c>
       <c r="B4">
-        <v>100.3896097655779</v>
+        <v>100.38961</v>
       </c>
       <c r="C4">
-        <v>100.3920288974396</v>
+        <v>100.392029</v>
       </c>
     </row>
     <row r="5">
@@ -419,10 +419,10 @@
         <v>45295</v>
       </c>
       <c r="B5">
-        <v>100.736413985622</v>
+        <v>100.736414</v>
       </c>
       <c r="C5">
-        <v>100.7404974691417</v>
+        <v>100.740497</v>
       </c>
     </row>
     <row r="6">
@@ -430,10 +430,10 @@
         <v>45296</v>
       </c>
       <c r="B6">
-        <v>99.16649749731263</v>
+        <v>99.16649700000001</v>
       </c>
       <c r="C6">
-        <v>99.17179469496278</v>
+        <v>99.171795</v>
       </c>
     </row>
     <row r="7">
@@ -441,10 +441,10 @@
         <v>45297</v>
       </c>
       <c r="B7">
-        <v>100.0512297774583</v>
+        <v>100.05123</v>
       </c>
       <c r="C7">
-        <v>100.0582190141613</v>
+        <v>100.058219</v>
       </c>
     </row>
     <row r="8">
@@ -452,10 +452,10 @@
         <v>45298</v>
       </c>
       <c r="B8">
-        <v>100.8268969981454</v>
+        <v>100.826897</v>
       </c>
       <c r="C8">
-        <v>100.8355979781572</v>
+        <v>100.835598</v>
       </c>
     </row>
     <row r="9">
@@ -463,10 +463,10 @@
         <v>45299</v>
       </c>
       <c r="B9">
-        <v>101.1405036244662</v>
+        <v>101.140504</v>
       </c>
       <c r="C9">
-        <v>101.1508944083064</v>
+        <v>101.150894</v>
       </c>
     </row>
     <row r="10">
@@ -474,10 +474,10 @@
         <v>45300</v>
       </c>
       <c r="B10">
-        <v>101.6890896350379</v>
+        <v>101.68909</v>
       </c>
       <c r="C10">
-        <v>101.7012085654293</v>
+        <v>101.701209</v>
       </c>
     </row>
     <row r="11">
@@ -485,10 +485,10 @@
         <v>45301</v>
       </c>
       <c r="B11">
-        <v>101.8685392410645</v>
+        <v>101.868539</v>
       </c>
       <c r="C11">
-        <v>101.8823543222597</v>
+        <v>101.882354</v>
       </c>
     </row>
     <row r="12">
@@ -496,10 +496,10 @@
         <v>45302</v>
       </c>
       <c r="B12">
-        <v>101.4953398855195</v>
+        <v>101.49534</v>
       </c>
       <c r="C12">
-        <v>101.5107730111536</v>
+        <v>101.510773</v>
       </c>
     </row>
     <row r="13">
@@ -507,10 +507,10 @@
         <v>45303</v>
       </c>
       <c r="B13">
-        <v>101.2895585688532</v>
+        <v>101.289559</v>
       </c>
       <c r="C13">
-        <v>101.3066257046065</v>
+        <v>101.306626</v>
       </c>
     </row>
     <row r="14">
@@ -518,10 +518,10 @@
         <v>45304</v>
       </c>
       <c r="B14">
-        <v>101.1849536744484</v>
+        <v>101.184954</v>
       </c>
       <c r="C14">
-        <v>101.2036667926834</v>
+        <v>101.203667</v>
       </c>
     </row>
     <row r="15">
@@ -529,10 +529,10 @@
         <v>45305</v>
       </c>
       <c r="B15">
-        <v>101.0273277954679</v>
+        <v>101.027328</v>
       </c>
       <c r="C15">
-        <v>101.0476728063977</v>
+        <v>101.047673</v>
       </c>
     </row>
     <row r="16">
@@ -540,10 +540,10 @@
         <v>45306</v>
       </c>
       <c r="B16">
-        <v>101.3176903069134</v>
+        <v>101.31769</v>
       </c>
       <c r="C16">
-        <v>101.3397596367833</v>
+        <v>101.33976</v>
       </c>
     </row>
     <row r="17">
@@ -551,10 +551,10 @@
         <v>45307</v>
       </c>
       <c r="B17">
-        <v>100.3454802520871</v>
+        <v>100.34548</v>
       </c>
       <c r="C17">
-        <v>100.3689876997897</v>
+        <v>100.368988</v>
       </c>
     </row>
     <row r="18">
@@ -562,10 +562,10 @@
         <v>45308</v>
       </c>
       <c r="B18">
-        <v>100.5450856123683</v>
+        <v>100.545086</v>
       </c>
       <c r="C18">
-        <v>100.5702930173562</v>
+        <v>100.570293</v>
       </c>
     </row>
     <row r="19">
@@ -573,10 +573,10 @@
         <v>45309</v>
       </c>
       <c r="B19">
-        <v>101.8309683349844</v>
+        <v>101.830968</v>
       </c>
       <c r="C19">
-        <v>101.8581724875442</v>
+        <v>101.858172</v>
       </c>
     </row>
     <row r="20">
@@ -584,10 +584,10 @@
         <v>45310</v>
       </c>
       <c r="B20">
-        <v>101.0786977732239</v>
+        <v>101.078698</v>
       </c>
       <c r="C20">
-        <v>101.1073629818169</v>
+        <v>101.107363</v>
       </c>
     </row>
     <row r="21">
@@ -595,10 +595,10 @@
         <v>45311</v>
       </c>
       <c r="B21">
-        <v>100.877428828311</v>
+        <v>100.877429</v>
       </c>
       <c r="C21">
-        <v>100.9076957014533</v>
+        <v>100.907696</v>
       </c>
     </row>
     <row r="22">
@@ -606,10 +606,10 @@
         <v>45312</v>
       </c>
       <c r="B22">
-        <v>102.0798432939609</v>
+        <v>102.079843</v>
       </c>
       <c r="C22">
-        <v>102.1121494769693</v>
+        <v>102.112149</v>
       </c>
     </row>
     <row r="23">
@@ -617,10 +617,10 @@
         <v>45313</v>
       </c>
       <c r="B23">
-        <v>102.3388989469516</v>
+        <v>102.338899</v>
       </c>
       <c r="C23">
-        <v>102.3729699452868</v>
+        <v>102.37297</v>
       </c>
     </row>
     <row r="24">
@@ -628,10 +628,10 @@
         <v>45314</v>
       </c>
       <c r="B24">
-        <v>101.1482822597263</v>
+        <v>101.148282</v>
       </c>
       <c r="C24">
-        <v>101.1836201528056</v>
+        <v>101.18362</v>
       </c>
     </row>
     <row r="25">
@@ -639,10 +639,10 @@
         <v>45315</v>
       </c>
       <c r="B25">
-        <v>101.2325251776157</v>
+        <v>101.232525</v>
       </c>
       <c r="C25">
-        <v>101.2695571937754</v>
+        <v>101.269557</v>
       </c>
     </row>
     <row r="26">
@@ -650,10 +650,10 @@
         <v>45316</v>
       </c>
       <c r="B26">
-        <v>101.3602960192133</v>
+        <v>101.360296</v>
       </c>
       <c r="C26">
-        <v>101.3990415952696</v>
+        <v>101.399042</v>
       </c>
     </row>
     <row r="27">
@@ -661,10 +661,10 @@
         <v>45317</v>
       </c>
       <c r="B27">
-        <v>101.4418873969654</v>
+        <v>101.441887</v>
       </c>
       <c r="C27">
-        <v>101.4823323508235</v>
+        <v>101.482332</v>
       </c>
     </row>
     <row r="28">
@@ -672,10 +672,10 @@
         <v>45318</v>
       </c>
       <c r="B28">
-        <v>102.6322695428437</v>
+        <v>102.63227</v>
       </c>
       <c r="C28">
-        <v>102.6748768952474</v>
+        <v>102.674877</v>
       </c>
     </row>
     <row r="29">
@@ -683,10 +683,10 @@
         <v>45319</v>
       </c>
       <c r="B29">
-        <v>101.506381778918</v>
+        <v>101.506382</v>
       </c>
       <c r="C29">
-        <v>101.5501910282691</v>
+        <v>101.550191</v>
       </c>
     </row>
     <row r="30">
@@ -694,10 +694,10 @@
         <v>45320</v>
       </c>
       <c r="B30">
-        <v>102.1151141374344</v>
+        <v>102.115114</v>
       </c>
       <c r="C30">
-        <v>102.1608654531336</v>
+        <v>102.160865</v>
       </c>
     </row>
     <row r="31">
@@ -705,10 +705,10 @@
         <v>45321</v>
       </c>
       <c r="B31">
-        <v>101.9287960108677</v>
+        <v>101.928796</v>
       </c>
       <c r="C31">
-        <v>101.9761401555482</v>
+        <v>101.97614</v>
       </c>
     </row>
     <row r="32">
@@ -716,10 +716,10 @@
         <v>45322</v>
       </c>
       <c r="B32">
-        <v>101.0658812693506</v>
+        <v>101.065881</v>
       </c>
       <c r="C32">
-        <v>101.1144867474969</v>
+        <v>101.114487</v>
       </c>
     </row>
     <row r="33">
@@ -727,10 +727,10 @@
         <v>45323</v>
       </c>
       <c r="B33">
-        <v>101.1464994456301</v>
+        <v>101.146499</v>
       </c>
       <c r="C33">
-        <v>101.196807190854</v>
+        <v>101.196807</v>
       </c>
     </row>
     <row r="34">
@@ -738,10 +738,10 @@
         <v>45324</v>
       </c>
       <c r="B34">
-        <v>101.1649345866959</v>
+        <v>101.164935</v>
       </c>
       <c r="C34">
-        <v>101.2169153271278</v>
+        <v>101.216915</v>
       </c>
     </row>
     <row r="35">
@@ -749,10 +749,10 @@
         <v>45325</v>
       </c>
       <c r="B35">
-        <v>101.8650461946686</v>
+        <v>101.865046</v>
       </c>
       <c r="C35">
-        <v>101.9190620357207</v>
+        <v>101.919062</v>
       </c>
     </row>
     <row r="36">
@@ -760,10 +760,10 @@
         <v>45326</v>
       </c>
       <c r="B36">
-        <v>102.2483069712202</v>
+        <v>102.248307</v>
       </c>
       <c r="C36">
-        <v>102.3042077426306</v>
+        <v>102.304208</v>
       </c>
     </row>
     <row r="37">
@@ -771,10 +771,10 @@
         <v>45327</v>
       </c>
       <c r="B37">
-        <v>101.0245579841776</v>
+        <v>101.024558</v>
       </c>
       <c r="C37">
-        <v>101.0814513118455</v>
+        <v>101.081451</v>
       </c>
     </row>
     <row r="38">
@@ -782,10 +782,10 @@
         <v>45328</v>
       </c>
       <c r="B38">
-        <v>100.1900129165142</v>
+        <v>100.190013</v>
       </c>
       <c r="C38">
-        <v>100.2480841591608</v>
+        <v>100.248084</v>
       </c>
     </row>
     <row r="39">
@@ -793,10 +793,10 @@
         <v>45329</v>
       </c>
       <c r="B39">
-        <v>100.2423472386255</v>
+        <v>100.242347</v>
       </c>
       <c r="C39">
-        <v>100.3020976028782</v>
+        <v>100.302098</v>
       </c>
     </row>
     <row r="40">
@@ -804,10 +804,10 @@
         <v>45330</v>
       </c>
       <c r="B40">
-        <v>100.2916207027161</v>
+        <v>100.291621</v>
       </c>
       <c r="C40">
-        <v>100.3530500624865</v>
+        <v>100.35305</v>
       </c>
     </row>
     <row r="41">
@@ -815,10 +815,10 @@
         <v>45331</v>
       </c>
       <c r="B41">
-        <v>99.54477681023704</v>
+        <v>99.544777</v>
       </c>
       <c r="C41">
-        <v>99.60738609082846</v>
+        <v>99.60738600000001</v>
       </c>
     </row>
     <row r="42">
@@ -826,10 +826,10 @@
         <v>45332</v>
       </c>
       <c r="B42">
-        <v>99.99250479186301</v>
+        <v>99.99250499999999</v>
       </c>
       <c r="C42">
-        <v>100.0570404333854</v>
+        <v>100.05704</v>
       </c>
     </row>
     <row r="43">
@@ -837,10 +837,10 @@
         <v>45333</v>
       </c>
       <c r="B43">
-        <v>99.5622463221064</v>
+        <v>99.562246</v>
       </c>
       <c r="C43">
-        <v>99.62814198217286</v>
+        <v>99.628142</v>
       </c>
     </row>
     <row r="44">
@@ -848,10 +848,10 @@
         <v>45334</v>
       </c>
       <c r="B44">
-        <v>100.1636504804545</v>
+        <v>100.16365</v>
       </c>
       <c r="C44">
-        <v>100.2315918112658</v>
+        <v>100.231592</v>
       </c>
     </row>
     <row r="45">
@@ -859,10 +859,10 @@
         <v>45335</v>
       </c>
       <c r="B45">
-        <v>98.9936531427122</v>
+        <v>98.99365299999999</v>
       </c>
       <c r="C45">
-        <v>99.06242927062392</v>
+        <v>99.06242899999999</v>
       </c>
     </row>
     <row r="46">
@@ -870,10 +870,10 @@
         <v>45336</v>
       </c>
       <c r="B46">
-        <v>98.70078336306797</v>
+        <v>98.700783</v>
       </c>
       <c r="C46">
-        <v>98.77097963804718</v>
+        <v>98.77097999999999</v>
       </c>
     </row>
     <row r="47">
@@ -881,10 +881,10 @@
         <v>45337</v>
       </c>
       <c r="B47">
-        <v>98.72240477748888</v>
+        <v>98.72240499999999</v>
       </c>
       <c r="C47">
-        <v>98.79424043124209</v>
+        <v>98.79424</v>
       </c>
     </row>
     <row r="48">
@@ -892,10 +892,10 @@
         <v>45338</v>
       </c>
       <c r="B48">
-        <v>97.44947538159188</v>
+        <v>97.44947500000001</v>
       </c>
       <c r="C48">
-        <v>97.52198787244902</v>
+        <v>97.52198799999999</v>
       </c>
     </row>
     <row r="49">
@@ -903,10 +903,10 @@
         <v>45339</v>
       </c>
       <c r="B49">
-        <v>96.41404277566214</v>
+        <v>96.41404300000001</v>
       </c>
       <c r="C49">
-        <v>96.48737087827625</v>
+        <v>96.487371</v>
       </c>
     </row>
     <row r="50">
@@ -914,10 +914,10 @@
         <v>45340</v>
       </c>
       <c r="B50">
-        <v>95.38669773964395</v>
+        <v>95.386698</v>
       </c>
       <c r="C50">
-        <v>95.46081369666099</v>
+        <v>95.460814</v>
       </c>
     </row>
     <row r="51">
@@ -925,10 +925,10 @@
         <v>45341</v>
       </c>
       <c r="B51">
-        <v>95.4549207654558</v>
+        <v>95.454921</v>
       </c>
       <c r="C51">
-        <v>95.53066008622446</v>
+        <v>95.53066</v>
       </c>
     </row>
     <row r="52">
@@ -936,10 +936,10 @@
         <v>45342</v>
       </c>
       <c r="B52">
-        <v>96.19392430193038</v>
+        <v>96.193924</v>
       </c>
       <c r="C52">
-        <v>96.27183252747221</v>
+        <v>96.271833</v>
       </c>
     </row>
     <row r="53">
@@ -947,10 +947,10 @@
         <v>45343</v>
       </c>
       <c r="B53">
-        <v>95.96587057821809</v>
+        <v>95.96587100000001</v>
       </c>
       <c r="C53">
-        <v>96.04517291301612</v>
+        <v>96.04517300000001</v>
       </c>
     </row>
     <row r="54">
@@ -958,10 +958,10 @@
         <v>45344</v>
       </c>
       <c r="B54">
-        <v>96.35986594379381</v>
+        <v>96.359866</v>
       </c>
       <c r="C54">
-        <v>96.44107918029016</v>
+        <v>96.441079</v>
       </c>
     </row>
     <row r="55">
@@ -969,10 +969,10 @@
         <v>45345</v>
       </c>
       <c r="B55">
-        <v>98.32594805470714</v>
+        <v>98.325948</v>
       </c>
       <c r="C55">
-        <v>98.41043602099825</v>
+        <v>98.410436</v>
       </c>
     </row>
     <row r="56">
@@ -980,10 +980,10 @@
         <v>45346</v>
       </c>
       <c r="B56">
-        <v>98.52700374940113</v>
+        <v>98.52700400000001</v>
       </c>
       <c r="C56">
-        <v>98.61328550263734</v>
+        <v>98.613286</v>
       </c>
     </row>
     <row r="57">
@@ -991,10 +991,10 @@
         <v>45347</v>
       </c>
       <c r="B57">
-        <v>99.49702166814231</v>
+        <v>99.497022</v>
       </c>
       <c r="C57">
-        <v>99.5857898956024</v>
+        <v>99.58579</v>
       </c>
     </row>
     <row r="58">
@@ -1002,10 +1002,10 @@
         <v>45348</v>
       </c>
       <c r="B58">
-        <v>100.3004752188627</v>
+        <v>100.300475</v>
       </c>
       <c r="C58">
-        <v>100.3916105227178</v>
+        <v>100.391611</v>
       </c>
     </row>
     <row r="59">
@@ -1013,10 +1013,10 @@
         <v>45349</v>
       </c>
       <c r="B59">
-        <v>100.8601030113387</v>
+        <v>100.860103</v>
       </c>
       <c r="C59">
-        <v>100.9534063002038</v>
+        <v>100.953406</v>
       </c>
     </row>
     <row r="60">
@@ -1024,10 +1024,10 @@
         <v>45350</v>
       </c>
       <c r="B60">
-        <v>101.2524577213558</v>
+        <v>101.252458</v>
       </c>
       <c r="C60">
-        <v>101.347789945631</v>
+        <v>101.34779</v>
       </c>
     </row>
     <row r="61">
@@ -1035,10 +1035,10 @@
         <v>45351</v>
       </c>
       <c r="B61">
-        <v>101.8776903943336</v>
+        <v>101.87769</v>
       </c>
       <c r="C61">
-        <v>101.975287586233</v>
+        <v>101.975288</v>
       </c>
     </row>
     <row r="62">
@@ -1046,10 +1046,10 @@
         <v>45352</v>
       </c>
       <c r="B62">
-        <v>102.1381782242088</v>
+        <v>102.138178</v>
       </c>
       <c r="C62">
-        <v>102.2377055652717</v>
+        <v>102.237706</v>
       </c>
     </row>
     <row r="63">
@@ -1057,10 +1057,10 @@
         <v>45353</v>
       </c>
       <c r="B63">
-        <v>102.06452387825</v>
+        <v>102.064524</v>
       </c>
       <c r="C63">
-        <v>102.1656588693905</v>
+        <v>102.165659</v>
       </c>
     </row>
     <row r="64">
@@ -1068,10 +1068,10 @@
         <v>45354</v>
       </c>
       <c r="B64">
-        <v>102.199304583367</v>
+        <v>102.199305</v>
       </c>
       <c r="C64">
-        <v>102.3022547948024</v>
+        <v>102.302255</v>
       </c>
     </row>
     <row r="65">
@@ -1079,10 +1079,10 @@
         <v>45355</v>
       </c>
       <c r="B65">
-        <v>103.0563313160687</v>
+        <v>103.056331</v>
       </c>
       <c r="C65">
-        <v>103.1618406483605</v>
+        <v>103.161841</v>
       </c>
     </row>
     <row r="66">
@@ -1090,10 +1090,10 @@
         <v>45356</v>
       </c>
       <c r="B66">
-        <v>103.2601404190496</v>
+        <v>103.26014</v>
       </c>
       <c r="C66">
-        <v>103.3675575903774</v>
+        <v>103.367558</v>
       </c>
     </row>
     <row r="67">
@@ -1101,10 +1101,10 @@
         <v>45357</v>
       </c>
       <c r="B67">
-        <v>101.3256568016115</v>
+        <v>101.325657</v>
       </c>
       <c r="C67">
-        <v>101.4327289847981</v>
+        <v>101.432729</v>
       </c>
     </row>
     <row r="68">
@@ -1112,10 +1112,10 @@
         <v>45358</v>
       </c>
       <c r="B68">
-        <v>101.8030301606402</v>
+        <v>101.80303</v>
       </c>
       <c r="C68">
-        <v>101.912282047291</v>
+        <v>101.912282</v>
       </c>
     </row>
     <row r="69">
@@ -1123,10 +1123,10 @@
         <v>45359</v>
       </c>
       <c r="B69">
-        <v>101.5613699918773</v>
+        <v>101.56137</v>
       </c>
       <c r="C69">
-        <v>101.6720338436213</v>
+        <v>101.672034</v>
       </c>
     </row>
     <row r="70">
@@ -1134,10 +1134,10 @@
         <v>45360</v>
       </c>
       <c r="B70">
-        <v>102.1610430128388</v>
+        <v>102.161043</v>
       </c>
       <c r="C70">
-        <v>102.2740414868601</v>
+        <v>102.274041</v>
       </c>
     </row>
     <row r="71">
@@ -1145,10 +1145,10 @@
         <v>45361</v>
       </c>
       <c r="B71">
-        <v>103.5275290765281</v>
+        <v>103.527529</v>
       </c>
       <c r="C71">
-        <v>103.6437427147173</v>
+        <v>103.643743</v>
       </c>
     </row>
     <row r="72">
@@ -1156,10 +1156,10 @@
         <v>45362</v>
       </c>
       <c r="B72">
-        <v>103.6785130728261</v>
+        <v>103.678513</v>
       </c>
       <c r="C72">
-        <v>103.7966024278609</v>
+        <v>103.796602</v>
       </c>
     </row>
     <row r="73">
@@ -1167,10 +1167,10 @@
         <v>45363</v>
       </c>
       <c r="B73">
-        <v>105.3106087769758</v>
+        <v>105.310609</v>
       </c>
       <c r="C73">
-        <v>105.4322902008903</v>
+        <v>105.43229</v>
       </c>
     </row>
     <row r="74">
@@ -1178,10 +1178,10 @@
         <v>45364</v>
       </c>
       <c r="B74">
-        <v>105.5959799175832</v>
+        <v>105.59598</v>
       </c>
       <c r="C74">
-        <v>105.7197289186175</v>
+        <v>105.719729</v>
       </c>
     </row>
     <row r="75">
@@ -1189,10 +1189,10 @@
         <v>45365</v>
       </c>
       <c r="B75">
-        <v>106.9699387105313</v>
+        <v>106.969939</v>
       </c>
       <c r="C75">
-        <v>107.0970583529451</v>
+        <v>107.097058</v>
       </c>
     </row>
     <row r="76">
@@ -1200,10 +1200,10 @@
         <v>45366</v>
       </c>
       <c r="B76">
-        <v>106.8540004029865</v>
+        <v>106.854</v>
       </c>
       <c r="C76">
-        <v>106.9827408739798</v>
+        <v>106.982741</v>
       </c>
     </row>
     <row r="77">
@@ -1211,10 +1211,10 @@
         <v>45367</v>
       </c>
       <c r="B77">
-        <v>106.3568470590015</v>
+        <v>106.356847</v>
       </c>
       <c r="C77">
-        <v>106.4867389993072</v>
+        <v>106.486739</v>
       </c>
     </row>
     <row r="78">
@@ -1222,10 +1222,10 @@
         <v>45368</v>
       </c>
       <c r="B78">
-        <v>104.4561188435641</v>
+        <v>104.456119</v>
       </c>
       <c r="C78">
-        <v>104.5854086525371</v>
+        <v>104.585409</v>
       </c>
     </row>
     <row r="79">
@@ -1233,10 +1233,10 @@
         <v>45369</v>
       </c>
       <c r="B79">
-        <v>103.4892393625712</v>
+        <v>103.489239</v>
       </c>
       <c r="C79">
-        <v>103.6190357360435</v>
+        <v>103.619036</v>
       </c>
     </row>
     <row r="80">
@@ -1244,10 +1244,10 @@
         <v>45370</v>
       </c>
       <c r="B80">
-        <v>101.7425909748389</v>
+        <v>101.742591</v>
       </c>
       <c r="C80">
-        <v>101.8718712913828</v>
+        <v>101.871871</v>
       </c>
     </row>
     <row r="81">
@@ -1255,10 +1255,10 @@
         <v>45371</v>
       </c>
       <c r="B81">
-        <v>101.6807582085877</v>
+        <v>101.680758</v>
       </c>
       <c r="C81">
-        <v>101.811633558801</v>
+        <v>101.811634</v>
       </c>
     </row>
     <row r="82">
@@ -1266,10 +1266,10 @@
         <v>45372</v>
       </c>
       <c r="B82">
-        <v>101.0638039155937</v>
+        <v>101.063804</v>
       </c>
       <c r="C82">
-        <v>101.1955486463189</v>
+        <v>101.195549</v>
       </c>
     </row>
     <row r="83">
@@ -1277,10 +1277,10 @@
         <v>45373</v>
       </c>
       <c r="B83">
-        <v>102.9814666287771</v>
+        <v>102.981467</v>
       </c>
       <c r="C83">
-        <v>103.1174062525482</v>
+        <v>103.117406</v>
       </c>
     </row>
     <row r="84">
@@ -1288,10 +1288,10 @@
         <v>45374</v>
       </c>
       <c r="B84">
-        <v>103.7574158767676</v>
+        <v>103.757416</v>
       </c>
       <c r="C84">
-        <v>103.8960876512027</v>
+        <v>103.896088</v>
       </c>
     </row>
     <row r="85">
@@ -1299,10 +1299,10 @@
         <v>45375</v>
       </c>
       <c r="B85">
-        <v>102.7736998922447</v>
+        <v>102.7737</v>
       </c>
       <c r="C85">
-        <v>102.9127486328906</v>
+        <v>102.912749</v>
       </c>
     </row>
     <row r="86">
@@ -1310,10 +1310,10 @@
         <v>45376</v>
       </c>
       <c r="B86">
-        <v>103.0801492240099</v>
+        <v>103.080149</v>
       </c>
       <c r="C86">
-        <v>103.2213093531508</v>
+        <v>103.221309</v>
       </c>
     </row>
     <row r="87">
@@ -1321,10 +1321,10 @@
         <v>45377</v>
       </c>
       <c r="B87">
-        <v>100.7367240903836</v>
+        <v>100.736724</v>
       </c>
       <c r="C87">
-        <v>100.8763333112165</v>
+        <v>100.876333</v>
       </c>
     </row>
     <row r="88">
@@ -1332,10 +1332,10 @@
         <v>45378</v>
       </c>
       <c r="B88">
-        <v>101.3264697246415</v>
+        <v>101.32647</v>
       </c>
       <c r="C88">
-        <v>101.4685642260702</v>
+        <v>101.468564</v>
       </c>
     </row>
     <row r="89">
@@ -1343,10 +1343,10 @@
         <v>45379</v>
       </c>
       <c r="B89">
-        <v>101.675811950118</v>
+        <v>101.675812</v>
       </c>
       <c r="C89">
-        <v>101.8200700901149</v>
+        <v>101.82007</v>
       </c>
     </row>
     <row r="90">
@@ -1354,10 +1354,10 @@
         <v>45380</v>
       </c>
       <c r="B90">
-        <v>102.3811806499558</v>
+        <v>102.381181</v>
       </c>
       <c r="C90">
-        <v>102.5281249505013</v>
+        <v>102.528125</v>
       </c>
     </row>
     <row r="91">
@@ -1365,10 +1365,10 @@
         <v>45381</v>
       </c>
       <c r="B91">
-        <v>102.0227272698174</v>
+        <v>102.022727</v>
       </c>
       <c r="C91">
-        <v>102.1708366009559</v>
+        <v>102.170837</v>
       </c>
     </row>
     <row r="92">
@@ -1376,10 +1376,10 @@
         <v>45382</v>
       </c>
       <c r="B92">
-        <v>102.3425178201323</v>
+        <v>102.342518</v>
       </c>
       <c r="C92">
-        <v>102.4927761993335</v>
+        <v>102.492776</v>
       </c>
     </row>
     <row r="93">
@@ -1387,10 +1387,10 @@
         <v>45383</v>
       </c>
       <c r="B93">
-        <v>102.5639092454876</v>
+        <v>102.563909</v>
       </c>
       <c r="C93">
-        <v>102.7161811409123</v>
+        <v>102.716181</v>
       </c>
     </row>
     <row r="94">
@@ -1398,10 +1398,10 @@
         <v>45384</v>
       </c>
       <c r="B94">
-        <v>102.6265370183508</v>
+        <v>102.626537</v>
       </c>
       <c r="C94">
-        <v>102.7805914244173</v>
+        <v>102.780591</v>
       </c>
     </row>
     <row r="95">
@@ -1409,10 +1409,10 @@
         <v>45385</v>
       </c>
       <c r="B95">
-        <v>103.3675974935521</v>
+        <v>103.367597</v>
       </c>
       <c r="C95">
-        <v>103.5244660759134</v>
+        <v>103.524466</v>
       </c>
     </row>
     <row r="96">
@@ -1420,10 +1420,10 @@
         <v>45386</v>
       </c>
       <c r="B96">
-        <v>102.6457887879522</v>
+        <v>102.645789</v>
       </c>
       <c r="C96">
-        <v>102.803251870551</v>
+        <v>102.803252</v>
       </c>
     </row>
     <row r="97">
@@ -1431,10 +1431,10 @@
         <v>45387</v>
       </c>
       <c r="B97">
-        <v>102.5514360920746</v>
+        <v>102.551436</v>
       </c>
       <c r="C97">
-        <v>102.7104428105178</v>
+        <v>102.710443</v>
       </c>
     </row>
     <row r="98">
@@ -1442,10 +1442,10 @@
         <v>45388</v>
       </c>
       <c r="B98">
-        <v>101.2051192321314</v>
+        <v>101.205119</v>
       </c>
       <c r="C98">
-        <v>101.3637047158582</v>
+        <v>101.363705</v>
       </c>
     </row>
     <row r="99">
@@ -1453,10 +1453,10 @@
         <v>45389</v>
       </c>
       <c r="B99">
-        <v>101.3949580207117</v>
+        <v>101.394958</v>
       </c>
       <c r="C99">
-        <v>101.5555103682378</v>
+        <v>101.55551</v>
       </c>
     </row>
     <row r="100">
@@ -1464,10 +1464,10 @@
         <v>45390</v>
       </c>
       <c r="B100">
-        <v>101.742929507686</v>
+        <v>101.74293</v>
       </c>
       <c r="C100">
-        <v>101.9057079940745</v>
+        <v>101.905708</v>
       </c>
     </row>
     <row r="101">
@@ -1475,10 +1475,10 @@
         <v>45391</v>
       </c>
       <c r="B101">
-        <v>99.87885137764162</v>
+        <v>99.878851</v>
       </c>
       <c r="C101">
-        <v>100.0402920103505</v>
+        <v>100.040292</v>
       </c>
     </row>
     <row r="102">
@@ -1486,10 +1486,10 @@
         <v>45392</v>
       </c>
       <c r="B102">
-        <v>99.09551685671708</v>
+        <v>99.095517</v>
       </c>
       <c r="C102">
-        <v>99.25732294910685</v>
+        <v>99.257323</v>
       </c>
     </row>
     <row r="103">
@@ -1497,10 +1497,10 @@
         <v>45393</v>
       </c>
       <c r="B103">
-        <v>100.47224310868</v>
+        <v>100.472243</v>
       </c>
       <c r="C103">
-        <v>100.6379514693273</v>
+        <v>100.637951</v>
       </c>
     </row>
     <row r="104">
@@ -1508,10 +1508,10 @@
         <v>45394</v>
       </c>
       <c r="B104">
-        <v>101.003347766717</v>
+        <v>101.003348</v>
       </c>
       <c r="C104">
-        <v>101.1715951566271</v>
+        <v>101.171595</v>
       </c>
     </row>
     <row r="105">
@@ -1519,10 +1519,10 @@
         <v>45395</v>
       </c>
       <c r="B105">
-        <v>102.0762077374663</v>
+        <v>102.076208</v>
       </c>
       <c r="C105">
-        <v>102.247923029129</v>
+        <v>102.247923</v>
       </c>
     </row>
     <row r="106">
@@ -1530,10 +1530,10 @@
         <v>45396</v>
       </c>
       <c r="B106">
-        <v>101.9203423803964</v>
+        <v>101.920342</v>
       </c>
       <c r="C106">
-        <v>102.0934737063293</v>
+        <v>102.093474</v>
       </c>
     </row>
     <row r="107">
@@ -1541,10 +1541,10 @@
         <v>45397</v>
       </c>
       <c r="B107">
-        <v>102.975841693315</v>
+        <v>102.975842</v>
       </c>
       <c r="C107">
-        <v>103.1524616310303</v>
+        <v>103.152462</v>
       </c>
     </row>
     <row r="108">
@@ -1552,10 +1552,10 @@
         <v>45398</v>
       </c>
       <c r="B108">
-        <v>102.6655896913141</v>
+        <v>102.66559</v>
       </c>
       <c r="C108">
-        <v>102.8433680595461</v>
+        <v>102.843368</v>
       </c>
     </row>
     <row r="109">
@@ -1563,10 +1563,10 @@
         <v>45399</v>
       </c>
       <c r="B109">
-        <v>101.9470997185762</v>
+        <v>101.9471</v>
       </c>
       <c r="C109">
-        <v>102.1253126896091</v>
+        <v>102.125313</v>
       </c>
     </row>
     <row r="110">
@@ -1574,10 +1574,10 @@
         <v>45400</v>
       </c>
       <c r="B110">
-        <v>101.4530749907637</v>
+        <v>101.453075</v>
       </c>
       <c r="C110">
-        <v>101.6320950116678</v>
+        <v>101.632095</v>
       </c>
     </row>
     <row r="111">
@@ -1585,10 +1585,10 @@
         <v>45401</v>
       </c>
       <c r="B111">
-        <v>100.2669745962701</v>
+        <v>100.266975</v>
       </c>
       <c r="C111">
-        <v>100.4455528182633</v>
+        <v>100.445553</v>
       </c>
     </row>
     <row r="112">
@@ -1596,10 +1596,10 @@
         <v>45402</v>
       </c>
       <c r="B112">
-        <v>101.2813301272861</v>
+        <v>101.28133</v>
       </c>
       <c r="C112">
-        <v>101.4633828217177</v>
+        <v>101.463383</v>
       </c>
     </row>
     <row r="113">
@@ -1607,10 +1607,10 @@
         <v>45403</v>
       </c>
       <c r="B113">
-        <v>102.0905433790908</v>
+        <v>102.090543</v>
       </c>
       <c r="C113">
-        <v>102.2757318614646</v>
+        <v>102.275732</v>
       </c>
     </row>
     <row r="114">
@@ -1618,10 +1618,10 @@
         <v>45404</v>
       </c>
       <c r="B114">
-        <v>101.1880741514559</v>
+        <v>101.188074</v>
       </c>
       <c r="C114">
-        <v>101.3732919845009</v>
+        <v>101.373292</v>
       </c>
     </row>
     <row r="115">
@@ -1629,10 +1629,10 @@
         <v>45405</v>
       </c>
       <c r="B115">
-        <v>101.8188743300581</v>
+        <v>101.818874</v>
       </c>
       <c r="C115">
-        <v>102.0069236119466</v>
+        <v>102.006924</v>
       </c>
     </row>
     <row r="116">
@@ -1640,10 +1640,10 @@
         <v>45406</v>
       </c>
       <c r="B116">
-        <v>101.6127699879128</v>
+        <v>101.61277</v>
       </c>
       <c r="C116">
-        <v>101.8021120613079</v>
+        <v>101.802112</v>
       </c>
     </row>
     <row r="117">
@@ -1651,10 +1651,10 @@
         <v>45407</v>
       </c>
       <c r="B117">
-        <v>101.4159516829388</v>
+        <v>101.415952</v>
       </c>
       <c r="C117">
-        <v>101.6065972429357</v>
+        <v>101.606597</v>
       </c>
     </row>
     <row r="118">
@@ -1662,10 +1662,10 @@
         <v>45408</v>
       </c>
       <c r="B118">
-        <v>102.3519757351929</v>
+        <v>102.351976</v>
       </c>
       <c r="C118">
-        <v>102.5460665436843</v>
+        <v>102.546067</v>
       </c>
     </row>
     <row r="119">
@@ -1673,10 +1673,10 @@
         <v>45409</v>
       </c>
       <c r="B119">
-        <v>102.9486548678084</v>
+        <v>102.948655</v>
       </c>
       <c r="C119">
-        <v>103.1455726930762</v>
+        <v>103.145573</v>
       </c>
     </row>
     <row r="120">
@@ -1684,10 +1684,10 @@
         <v>45410</v>
       </c>
       <c r="B120">
-        <v>103.7243344743765</v>
+        <v>103.724334</v>
       </c>
       <c r="C120">
-        <v>103.9244443347898</v>
+        <v>103.924444</v>
       </c>
     </row>
     <row r="121">
@@ -1695,10 +1695,10 @@
         <v>45411</v>
       </c>
       <c r="B121">
-        <v>102.5529056785666</v>
+        <v>102.552906</v>
       </c>
       <c r="C121">
-        <v>102.7524446308966</v>
+        <v>102.752445</v>
       </c>
     </row>
     <row r="122">
@@ -1706,10 +1706,10 @@
         <v>45412</v>
       </c>
       <c r="B122">
-        <v>102.7671549323139</v>
+        <v>102.767155</v>
       </c>
       <c r="C122">
-        <v>102.9688033770535</v>
+        <v>102.968803</v>
       </c>
     </row>
     <row r="123">
@@ -1717,10 +1717,10 @@
         <v>45413</v>
       </c>
       <c r="B123">
-        <v>102.0217421370474</v>
+        <v>102.021742</v>
       </c>
       <c r="C123">
-        <v>102.2236083162583</v>
+        <v>102.223608</v>
       </c>
     </row>
     <row r="124">
@@ -1728,10 +1728,10 @@
         <v>45414</v>
       </c>
       <c r="B124">
-        <v>102.5748945834581</v>
+        <v>102.574895</v>
       </c>
       <c r="C124">
-        <v>102.7795447752922</v>
+        <v>102.779545</v>
       </c>
     </row>
     <row r="125">
@@ -1739,10 +1739,10 @@
         <v>45415</v>
       </c>
       <c r="B125">
-        <v>102.9910938667244</v>
+        <v>102.991094</v>
       </c>
       <c r="C125">
-        <v>103.1982708259892</v>
+        <v>103.198271</v>
       </c>
     </row>
     <row r="126">
@@ -1750,10 +1750,10 @@
         <v>45416</v>
       </c>
       <c r="B126">
-        <v>103.9333659421546</v>
+        <v>103.933366</v>
       </c>
       <c r="C126">
-        <v>104.1441503211757</v>
+        <v>104.14415</v>
       </c>
     </row>
     <row r="127">
@@ -1761,10 +1761,10 @@
         <v>45417</v>
       </c>
       <c r="B127">
-        <v>103.1580715675904</v>
+        <v>103.158072</v>
       </c>
       <c r="C127">
-        <v>103.3689827957667</v>
+        <v>103.368983</v>
       </c>
     </row>
     <row r="128">
@@ -1772,10 +1772,10 @@
         <v>45418</v>
       </c>
       <c r="B128">
-        <v>104.0090429210018</v>
+        <v>104.009043</v>
       </c>
       <c r="C128">
-        <v>104.2234072450585</v>
+        <v>104.223407</v>
       </c>
     </row>
     <row r="129">
@@ -1783,10 +1783,10 @@
         <v>45419</v>
       </c>
       <c r="B129">
-        <v>104.4635878193219</v>
+        <v>104.463588</v>
       </c>
       <c r="C129">
-        <v>104.6806097307879</v>
+        <v>104.68061</v>
       </c>
     </row>
     <row r="130">
@@ -1794,10 +1794,10 @@
         <v>45420</v>
       </c>
       <c r="B130">
-        <v>104.9746646301773</v>
+        <v>104.974665</v>
       </c>
       <c r="C130">
-        <v>105.19447750796</v>
+        <v>105.194478</v>
       </c>
     </row>
     <row r="131">
@@ -1805,10 +1805,10 @@
         <v>45421</v>
       </c>
       <c r="B131">
-        <v>103.951341887771</v>
+        <v>103.951342</v>
       </c>
       <c r="C131">
-        <v>104.1707243488005</v>
+        <v>104.170724</v>
       </c>
     </row>
     <row r="132">
@@ -1816,10 +1816,10 @@
         <v>45422</v>
       </c>
       <c r="B132">
-        <v>103.0877246901483</v>
+        <v>103.087725</v>
       </c>
       <c r="C132">
-        <v>103.3069827269769</v>
+        <v>103.306983</v>
       </c>
     </row>
     <row r="133">
@@ -1827,10 +1827,10 @@
         <v>45423</v>
       </c>
       <c r="B133">
-        <v>101.5355995748654</v>
+        <v>101.5356</v>
       </c>
       <c r="C133">
-        <v>101.7532290274878</v>
+        <v>101.753229</v>
       </c>
     </row>
     <row r="134">
@@ -1838,10 +1838,10 @@
         <v>45424</v>
       </c>
       <c r="B134">
-        <v>101.902380032405</v>
+        <v>101.90238</v>
       </c>
       <c r="C134">
-        <v>102.1224743470186</v>
+        <v>102.122474</v>
       </c>
     </row>
     <row r="135">
@@ -1849,10 +1849,10 @@
         <v>45425</v>
       </c>
       <c r="B135">
-        <v>103.0606182069164</v>
+        <v>103.060618</v>
       </c>
       <c r="C135">
-        <v>103.2849119676841</v>
+        <v>103.284912</v>
       </c>
     </row>
     <row r="136">
@@ -1860,10 +1860,10 @@
         <v>45426</v>
       </c>
       <c r="B136">
-        <v>103.2407079098866</v>
+        <v>103.240708</v>
       </c>
       <c r="C136">
-        <v>103.4670944199777</v>
+        <v>103.467094</v>
       </c>
     </row>
     <row r="137">
@@ -1871,10 +1871,10 @@
         <v>45427</v>
       </c>
       <c r="B137">
-        <v>102.0085606576388</v>
+        <v>102.008561</v>
       </c>
       <c r="C137">
-        <v>102.233925855697</v>
+        <v>102.233926</v>
       </c>
     </row>
     <row r="138">
@@ -1882,10 +1882,10 @@
         <v>45428</v>
       </c>
       <c r="B138">
-        <v>101.7381418454044</v>
+        <v>101.738142</v>
       </c>
       <c r="C138">
-        <v>101.9638873445359</v>
+        <v>101.963887</v>
       </c>
     </row>
     <row r="139">
@@ -1893,10 +1893,10 @@
         <v>45429</v>
       </c>
       <c r="B139">
-        <v>101.7197044078506</v>
+        <v>101.719704</v>
       </c>
       <c r="C139">
-        <v>101.9463865597843</v>
+        <v>101.946387</v>
       </c>
     </row>
     <row r="140">
@@ -1904,10 +1904,10 @@
         <v>45430</v>
       </c>
       <c r="B140">
-        <v>102.0992436530947</v>
+        <v>102.099244</v>
       </c>
       <c r="C140">
-        <v>102.3277528277779</v>
+        <v>102.327753</v>
       </c>
     </row>
     <row r="141">
@@ -1915,10 +1915,10 @@
         <v>45431</v>
       </c>
       <c r="B141">
-        <v>101.832342930599</v>
+        <v>101.832343</v>
       </c>
       <c r="C141">
-        <v>102.061932469141</v>
+        <v>102.061932</v>
       </c>
     </row>
     <row r="142">
@@ -1926,10 +1926,10 @@
         <v>45432</v>
       </c>
       <c r="B142">
-        <v>103.3556233958136</v>
+        <v>103.355623</v>
       </c>
       <c r="C142">
-        <v>103.5898184196825</v>
+        <v>103.589818</v>
       </c>
     </row>
     <row r="143">
@@ -1937,10 +1937,10 @@
         <v>45433</v>
       </c>
       <c r="B143">
-        <v>103.2622078515626</v>
+        <v>103.262208</v>
       </c>
       <c r="C143">
-        <v>103.4971836377679</v>
+        <v>103.497184</v>
       </c>
     </row>
     <row r="144">
@@ -1948,10 +1948,10 @@
         <v>45434</v>
       </c>
       <c r="B144">
-        <v>104.0329794779526</v>
+        <v>104.032979</v>
       </c>
       <c r="C144">
-        <v>104.2707090259614</v>
+        <v>104.270709</v>
       </c>
     </row>
     <row r="145">
@@ -1959,10 +1959,10 @@
         <v>45435</v>
       </c>
       <c r="B145">
-        <v>106.0070726840584</v>
+        <v>106.007073</v>
       </c>
       <c r="C145">
-        <v>106.2503321382223</v>
+        <v>106.250332</v>
       </c>
     </row>
     <row r="146">
@@ -1970,10 +1970,10 @@
         <v>45436</v>
       </c>
       <c r="B146">
-        <v>106.6846472274345</v>
+        <v>106.684647</v>
       </c>
       <c r="C146">
-        <v>106.9304868999356</v>
+        <v>106.930487</v>
       </c>
     </row>
     <row r="147">
@@ -1981,10 +1981,10 @@
         <v>45437</v>
       </c>
       <c r="B147">
-        <v>107.8674907517098</v>
+        <v>107.867491</v>
       </c>
       <c r="C147">
-        <v>108.1170928540033</v>
+        <v>108.117093</v>
       </c>
     </row>
     <row r="148">
@@ -1992,10 +1992,10 @@
         <v>45438</v>
       </c>
       <c r="B148">
-        <v>108.2401722227726</v>
+        <v>108.240172</v>
       </c>
       <c r="C148">
-        <v>108.4916770248496</v>
+        <v>108.491677</v>
       </c>
     </row>
     <row r="149">
@@ -2003,10 +2003,10 @@
         <v>45439</v>
       </c>
       <c r="B149">
-        <v>108.4710784654922</v>
+        <v>108.471078</v>
       </c>
       <c r="C149">
-        <v>108.724162352378</v>
+        <v>108.724162</v>
       </c>
     </row>
     <row r="150">
@@ -2014,10 +2014,10 @@
         <v>45440</v>
       </c>
       <c r="B150">
-        <v>109.0041060832166</v>
+        <v>109.004106</v>
       </c>
       <c r="C150">
-        <v>109.2594813146781</v>
+        <v>109.259481</v>
       </c>
     </row>
     <row r="151">
@@ -2025,10 +2025,10 @@
         <v>45441</v>
       </c>
       <c r="B151">
-        <v>109.5178863129285</v>
+        <v>109.517886</v>
       </c>
       <c r="C151">
-        <v>109.775517867558</v>
+        <v>109.775518</v>
       </c>
     </row>
     <row r="152">
@@ -2036,10 +2036,10 @@
         <v>45442</v>
       </c>
       <c r="B152">
-        <v>107.7921028624146</v>
+        <v>107.792103</v>
       </c>
       <c r="C152">
-        <v>108.0467107169815</v>
+        <v>108.046711</v>
       </c>
     </row>
     <row r="153">
@@ -2047,10 +2047,10 @@
         <v>45443</v>
       </c>
       <c r="B153">
-        <v>107.1111769840142</v>
+        <v>107.111177</v>
       </c>
       <c r="C153">
-        <v>107.3652059977253</v>
+        <v>107.365206</v>
       </c>
     </row>
     <row r="154">
@@ -2058,10 +2058,10 @@
         <v>45444</v>
       </c>
       <c r="B154">
-        <v>107.5934405217262</v>
+        <v>107.593441</v>
       </c>
       <c r="C154">
-        <v>107.8496474600556</v>
+        <v>107.849647</v>
       </c>
     </row>
     <row r="155">
@@ -2069,10 +2069,10 @@
         <v>45445</v>
       </c>
       <c r="B155">
-        <v>107.2968333117504</v>
+        <v>107.296833</v>
       </c>
       <c r="C155">
-        <v>107.5533652826959</v>
+        <v>107.553365</v>
       </c>
     </row>
     <row r="156">
@@ -2080,10 +2080,10 @@
         <v>45446</v>
       </c>
       <c r="B156">
-        <v>106.4188840109857</v>
+        <v>106.418884</v>
       </c>
       <c r="C156">
-        <v>106.6743398256295</v>
+        <v>106.67434</v>
       </c>
     </row>
     <row r="157">
@@ -2091,10 +2091,10 @@
         <v>45447</v>
       </c>
       <c r="B157">
-        <v>106.4760027431759</v>
+        <v>106.476003</v>
       </c>
       <c r="C157">
-        <v>106.7326191284424</v>
+        <v>106.732619</v>
       </c>
     </row>
     <row r="158">
@@ -2102,10 +2102,10 @@
         <v>45448</v>
       </c>
       <c r="B158">
-        <v>107.0197273911362</v>
+        <v>107.019727</v>
       </c>
       <c r="C158">
-        <v>107.2786828946467</v>
+        <v>107.278683</v>
       </c>
     </row>
     <row r="159">
@@ -2113,10 +2113,10 @@
         <v>45449</v>
       </c>
       <c r="B159">
-        <v>105.2318657457078</v>
+        <v>105.231866</v>
       </c>
       <c r="C159">
-        <v>105.4875066817679</v>
+        <v>105.487507</v>
       </c>
     </row>
     <row r="160">
@@ -2124,10 +2124,10 @@
         <v>45450</v>
       </c>
       <c r="B160">
-        <v>104.8322679217443</v>
+        <v>104.832268</v>
       </c>
       <c r="C160">
-        <v>105.0879457981878</v>
+        <v>105.087946</v>
       </c>
     </row>
     <row r="161">
@@ -2135,10 +2135,10 @@
         <v>45451</v>
       </c>
       <c r="B161">
-        <v>105.2933801215472</v>
+        <v>105.29338</v>
       </c>
       <c r="C161">
-        <v>105.5511947452388</v>
+        <v>105.551195</v>
       </c>
     </row>
     <row r="162">
@@ -2146,10 +2146,10 @@
         <v>45452</v>
       </c>
       <c r="B162">
-        <v>102.8094920913598</v>
+        <v>102.809492</v>
       </c>
       <c r="C162">
-        <v>103.062213089039</v>
+        <v>103.062213</v>
       </c>
     </row>
     <row r="163">
@@ -2157,10 +2157,10 @@
         <v>45453</v>
       </c>
       <c r="B163">
-        <v>101.1923116918864</v>
+        <v>101.192312</v>
       </c>
       <c r="C163">
-        <v>101.442724957947</v>
+        <v>101.442725</v>
       </c>
     </row>
     <row r="164">
@@ -2168,10 +2168,10 @@
         <v>45454</v>
       </c>
       <c r="B164">
-        <v>102.7353012600854</v>
+        <v>102.735301</v>
       </c>
       <c r="C164">
-        <v>102.9912258429293</v>
+        <v>102.991226</v>
       </c>
     </row>
     <row r="165">
@@ -2179,10 +2179,10 @@
         <v>45455</v>
       </c>
       <c r="B165">
-        <v>103.3406325837982</v>
+        <v>103.340633</v>
       </c>
       <c r="C165">
-        <v>103.5997681073627</v>
+        <v>103.599768</v>
       </c>
     </row>
     <row r="166">
@@ -2190,10 +2190,10 @@
         <v>45456</v>
       </c>
       <c r="B166">
-        <v>103.672795659005</v>
+        <v>103.672796</v>
       </c>
       <c r="C166">
-        <v>103.9344726078828</v>
+        <v>103.934473</v>
       </c>
     </row>
     <row r="167">
@@ -2201,10 +2201,10 @@
         <v>45457</v>
       </c>
       <c r="B167">
-        <v>102.7144694314418</v>
+        <v>102.714469</v>
       </c>
       <c r="C167">
-        <v>102.975420234668</v>
+        <v>102.97542</v>
       </c>
     </row>
     <row r="168">
@@ -2212,10 +2212,10 @@
         <v>45458</v>
       </c>
       <c r="B168">
-        <v>102.4552092840294</v>
+        <v>102.455209</v>
       </c>
       <c r="C168">
-        <v>102.7171899128779</v>
+        <v>102.71719</v>
       </c>
     </row>
     <row r="169">
@@ -2223,10 +2223,10 @@
         <v>45459</v>
       </c>
       <c r="B169">
-        <v>100.7905412075558</v>
+        <v>100.790541</v>
       </c>
       <c r="C169">
-        <v>101.0499263179611</v>
+        <v>101.049926</v>
       </c>
     </row>
     <row r="170">
@@ -2234,10 +2234,10 @@
         <v>45460</v>
       </c>
       <c r="B170">
-        <v>99.45179380608263</v>
+        <v>99.45179400000001</v>
       </c>
       <c r="C170">
-        <v>99.70937268609154</v>
+        <v>99.709373</v>
       </c>
     </row>
     <row r="171">
@@ -2245,10 +2245,10 @@
         <v>45461</v>
       </c>
       <c r="B171">
-        <v>98.83201195001523</v>
+        <v>98.83201200000001</v>
       </c>
       <c r="C171">
-        <v>99.08961445989308</v>
+        <v>99.089614</v>
       </c>
     </row>
     <row r="172">
@@ -2256,10 +2256,10 @@
         <v>45462</v>
       </c>
       <c r="B172">
-        <v>98.4785150198004</v>
+        <v>98.478515</v>
       </c>
       <c r="C172">
-        <v>98.73681920878269</v>
+        <v>98.736819</v>
       </c>
     </row>
     <row r="173">
@@ -2267,10 +2267,10 @@
         <v>45463</v>
       </c>
       <c r="B173">
-        <v>98.50237213790311</v>
+        <v>98.50237199999999</v>
       </c>
       <c r="C173">
-        <v>98.76236238045034</v>
+        <v>98.762362</v>
       </c>
     </row>
     <row r="174">
@@ -2278,10 +2278,10 @@
         <v>45464</v>
       </c>
       <c r="B174">
-        <v>97.98675498577717</v>
+        <v>97.986755</v>
       </c>
       <c r="C174">
-        <v>98.24699929817511</v>
+        <v>98.246999</v>
       </c>
     </row>
     <row r="175">
@@ -2289,10 +2289,10 @@
         <v>45465</v>
       </c>
       <c r="B175">
-        <v>97.78066807063179</v>
+        <v>97.78066800000001</v>
       </c>
       <c r="C175">
-        <v>98.04197666976421</v>
+        <v>98.041977</v>
       </c>
     </row>
     <row r="176">
@@ -2300,10 +2300,10 @@
         <v>45466</v>
       </c>
       <c r="B176">
-        <v>97.57428923820393</v>
+        <v>97.57428899999999</v>
       </c>
       <c r="C176">
-        <v>97.83665457206688</v>
+        <v>97.83665499999999</v>
       </c>
     </row>
     <row r="177">
@@ -2311,10 +2311,10 @@
         <v>45467</v>
       </c>
       <c r="B177">
-        <v>98.86371961509606</v>
+        <v>98.86372</v>
       </c>
       <c r="C177">
-        <v>99.13118160986734</v>
+        <v>99.131182</v>
       </c>
     </row>
     <row r="178">
@@ -2322,10 +2322,10 @@
         <v>45468</v>
       </c>
       <c r="B178">
-        <v>98.60553416391139</v>
+        <v>98.60553400000001</v>
       </c>
       <c r="C178">
-        <v>98.87392298538269</v>
+        <v>98.873923</v>
       </c>
     </row>
     <row r="179">
@@ -2333,10 +2333,10 @@
         <v>45469</v>
       </c>
       <c r="B179">
-        <v>100.087540252809</v>
+        <v>100.08754</v>
       </c>
       <c r="C179">
-        <v>100.3616126291325</v>
+        <v>100.361613</v>
       </c>
     </row>
     <row r="180">
@@ -2344,10 +2344,10 @@
         <v>45470</v>
       </c>
       <c r="B180">
-        <v>98.97904073161851</v>
+        <v>98.979041</v>
       </c>
       <c r="C180">
-        <v>99.25170919572504</v>
+        <v>99.25170900000001</v>
       </c>
     </row>
     <row r="181">
@@ -2355,10 +2355,10 @@
         <v>45471</v>
       </c>
       <c r="B181">
-        <v>98.40931624609875</v>
+        <v>98.409316</v>
       </c>
       <c r="C181">
-        <v>98.68203738456573</v>
+        <v>98.68203699999999</v>
       </c>
     </row>
     <row r="182">
@@ -2366,10 +2366,10 @@
         <v>45472</v>
       </c>
       <c r="B182">
-        <v>100.066278401525</v>
+        <v>100.066278</v>
       </c>
       <c r="C182">
-        <v>100.3452409663697</v>
+        <v>100.345241</v>
       </c>
     </row>
     <row r="183">
@@ -2377,10 +2377,10 @@
         <v>45473</v>
       </c>
       <c r="B183">
-        <v>99.51589759246608</v>
+        <v>99.51589800000001</v>
       </c>
       <c r="C183">
-        <v>99.79496626954081</v>
+        <v>99.794966</v>
       </c>
     </row>
     <row r="184">
@@ -2388,10 +2388,10 @@
         <v>45474</v>
       </c>
       <c r="B184">
-        <v>98.8390917074212</v>
+        <v>98.83909199999999</v>
       </c>
       <c r="C184">
-        <v>99.11789176510247</v>
+        <v>99.117892</v>
       </c>
     </row>
     <row r="185">
@@ -2399,10 +2399,10 @@
         <v>45475</v>
       </c>
       <c r="B185">
-        <v>99.40776776618088</v>
+        <v>99.407768</v>
       </c>
       <c r="C185">
-        <v>99.68981063821408</v>
+        <v>99.68981100000001</v>
       </c>
     </row>
     <row r="186">
@@ -2410,10 +2410,10 @@
         <v>45476</v>
       </c>
       <c r="B186">
-        <v>99.16553475854839</v>
+        <v>99.16553500000001</v>
       </c>
       <c r="C186">
-        <v>99.44852511624791</v>
+        <v>99.448525</v>
       </c>
     </row>
     <row r="187">
@@ -2421,10 +2421,10 @@
         <v>45477</v>
       </c>
       <c r="B187">
-        <v>101.008987303138</v>
+        <v>101.008987</v>
       </c>
       <c r="C187">
-        <v>101.2989035261991</v>
+        <v>101.298904</v>
       </c>
     </row>
     <row r="188">
@@ -2432,10 +2432,10 @@
         <v>45478</v>
       </c>
       <c r="B188">
-        <v>101.6472132530597</v>
+        <v>101.647213</v>
       </c>
       <c r="C188">
-        <v>101.9406370364071</v>
+        <v>101.940637</v>
       </c>
     </row>
     <row r="189">
@@ -2443,10 +2443,10 @@
         <v>45479</v>
       </c>
       <c r="B189">
-        <v>101.7752617059105</v>
+        <v>101.775262</v>
       </c>
       <c r="C189">
-        <v>102.070732986453</v>
+        <v>102.070733</v>
       </c>
     </row>
     <row r="190">
@@ -2454,10 +2454,10 @@
         <v>45480</v>
       </c>
       <c r="B190">
-        <v>101.453270484948</v>
+        <v>101.45327</v>
       </c>
       <c r="C190">
-        <v>101.7494795494281</v>
+        <v>101.74948</v>
       </c>
     </row>
     <row r="191">
@@ -2465,10 +2465,10 @@
         <v>45481</v>
       </c>
       <c r="B191">
-        <v>100.6220047020231</v>
+        <v>100.622005</v>
       </c>
       <c r="C191">
-        <v>100.9174456562555</v>
+        <v>100.917446</v>
       </c>
     </row>
     <row r="192">
@@ -2476,10 +2476,10 @@
         <v>45482</v>
       </c>
       <c r="B192">
-        <v>100.4426306226356</v>
+        <v>100.442631</v>
       </c>
       <c r="C192">
-        <v>100.7392008815327</v>
+        <v>100.739201</v>
       </c>
     </row>
     <row r="193">
@@ -2487,10 +2487,10 @@
         <v>45483</v>
       </c>
       <c r="B193">
-        <v>100.9824482500284</v>
+        <v>100.982448</v>
       </c>
       <c r="C193">
-        <v>101.2822772929072</v>
+        <v>101.282277</v>
       </c>
     </row>
     <row r="194">
@@ -2498,10 +2498,10 @@
         <v>45484</v>
       </c>
       <c r="B194">
-        <v>100.0654061237134</v>
+        <v>100.065406</v>
       </c>
       <c r="C194">
-        <v>100.3641621664298</v>
+        <v>100.364162</v>
       </c>
     </row>
     <row r="195">
@@ -2509,10 +2509,10 @@
         <v>45485</v>
       </c>
       <c r="B195">
-        <v>98.63508864752117</v>
+        <v>98.63508899999999</v>
       </c>
       <c r="C195">
-        <v>98.9312005763731</v>
+        <v>98.931201</v>
       </c>
     </row>
     <row r="196">
@@ -2520,10 +2520,10 @@
         <v>45486</v>
       </c>
       <c r="B196">
-        <v>98.92892611788626</v>
+        <v>98.928926</v>
       </c>
       <c r="C196">
-        <v>99.22755129922855</v>
+        <v>99.22755100000001</v>
       </c>
     </row>
     <row r="197">
@@ -2531,10 +2531,10 @@
         <v>45487</v>
       </c>
       <c r="B197">
-        <v>99.89696927670772</v>
+        <v>99.896969</v>
       </c>
       <c r="C197">
-        <v>100.2001636891791</v>
+        <v>100.200164</v>
       </c>
     </row>
     <row r="198">
@@ -2542,10 +2542,10 @@
         <v>45488</v>
       </c>
       <c r="B198">
-        <v>99.30481386300674</v>
+        <v>99.30481399999999</v>
       </c>
       <c r="C198">
-        <v>99.60784841747873</v>
+        <v>99.607848</v>
       </c>
     </row>
     <row r="199">
@@ -2553,10 +2553,10 @@
         <v>45489</v>
       </c>
       <c r="B199">
-        <v>98.48711398789858</v>
+        <v>98.48711400000001</v>
       </c>
       <c r="C199">
-        <v>98.78927720247296</v>
+        <v>98.789277</v>
       </c>
     </row>
     <row r="200">
@@ -2564,10 +2564,10 @@
         <v>45490</v>
       </c>
       <c r="B200">
-        <v>98.33491829557994</v>
+        <v>98.334918</v>
       </c>
       <c r="C200">
-        <v>98.63823600355963</v>
+        <v>98.63823600000001</v>
       </c>
     </row>
     <row r="201">
@@ -2575,10 +2575,10 @@
         <v>45491</v>
       </c>
       <c r="B201">
-        <v>98.38856475808025</v>
+        <v>98.388565</v>
       </c>
       <c r="C201">
-        <v>98.69303868905637</v>
+        <v>98.693039</v>
       </c>
     </row>
     <row r="202">
@@ -2586,10 +2586,10 @@
         <v>45492</v>
       </c>
       <c r="B202">
-        <v>98.34761404569625</v>
+        <v>98.34761399999999</v>
       </c>
       <c r="C202">
-        <v>98.65297168451166</v>
+        <v>98.65297200000001</v>
       </c>
     </row>
     <row r="203">
@@ -2597,10 +2597,10 @@
         <v>45493</v>
       </c>
       <c r="B203">
-        <v>97.64587306426962</v>
+        <v>97.64587299999999</v>
       </c>
       <c r="C203">
-        <v>97.95066201547554</v>
+        <v>97.95066199999999</v>
       </c>
     </row>
     <row r="204">
@@ -2608,10 +2608,10 @@
         <v>45494</v>
       </c>
       <c r="B204">
-        <v>97.12714037159951</v>
+        <v>97.12714</v>
       </c>
       <c r="C204">
-        <v>97.43124443358965</v>
+        <v>97.43124400000001</v>
       </c>
     </row>
     <row r="205">
@@ -2619,10 +2619,10 @@
         <v>45495</v>
       </c>
       <c r="B205">
-        <v>98.58583376890783</v>
+        <v>98.58583400000001</v>
       </c>
       <c r="C205">
-        <v>98.89613066114592</v>
+        <v>98.896131</v>
       </c>
     </row>
     <row r="206">
@@ -2630,10 +2630,10 @@
         <v>45496</v>
       </c>
       <c r="B206">
-        <v>99.82106485899024</v>
+        <v>99.821065</v>
       </c>
       <c r="C206">
-        <v>100.1368956882075</v>
+        <v>100.136896</v>
       </c>
     </row>
     <row r="207">
@@ -2641,10 +2641,10 @@
         <v>45497</v>
       </c>
       <c r="B207">
-        <v>98.1702294546958</v>
+        <v>98.17022900000001</v>
       </c>
       <c r="C207">
-        <v>98.48245596701972</v>
+        <v>98.482456</v>
       </c>
     </row>
     <row r="208">
@@ -2652,10 +2652,10 @@
         <v>45498</v>
       </c>
       <c r="B208">
-        <v>97.32319500947236</v>
+        <v>97.323195</v>
       </c>
       <c r="C208">
-        <v>97.63433249715467</v>
+        <v>97.634332</v>
       </c>
     </row>
     <row r="209">
@@ -2663,10 +2663,10 @@
         <v>45499</v>
       </c>
       <c r="B209">
-        <v>96.54967580257664</v>
+        <v>96.54967600000001</v>
       </c>
       <c r="C209">
-        <v>96.8592691703</v>
+        <v>96.859269</v>
       </c>
     </row>
     <row r="210">
@@ -2674,10 +2674,10 @@
         <v>45500</v>
       </c>
       <c r="B210">
-        <v>97.53267734495655</v>
+        <v>97.53267700000001</v>
       </c>
       <c r="C210">
-        <v>97.84636102496538</v>
+        <v>97.846361</v>
       </c>
     </row>
     <row r="211">
@@ -2685,10 +2685,10 @@
         <v>45501</v>
       </c>
       <c r="B211">
-        <v>97.87446511784105</v>
+        <v>97.874465</v>
       </c>
       <c r="C211">
-        <v>98.19018959772102</v>
+        <v>98.19019</v>
       </c>
     </row>
     <row r="212">
@@ -2696,10 +2696,10 @@
         <v>45502</v>
       </c>
       <c r="B212">
-        <v>97.2277009470418</v>
+        <v>97.227701</v>
       </c>
       <c r="C212">
-        <v>97.54227442064477</v>
+        <v>97.54227400000001</v>
       </c>
     </row>
     <row r="213">
@@ -2707,10 +2707,10 @@
         <v>45503</v>
       </c>
       <c r="B213">
-        <v>97.80269330161018</v>
+        <v>97.802693</v>
       </c>
       <c r="C213">
-        <v>98.12006799589439</v>
+        <v>98.120068</v>
       </c>
     </row>
     <row r="214">
@@ -2718,10 +2718,10 @@
         <v>45504</v>
       </c>
       <c r="B214">
-        <v>96.00590874190988</v>
+        <v>96.005909</v>
       </c>
       <c r="C214">
-        <v>96.31837637571691</v>
+        <v>96.318376</v>
       </c>
     </row>
     <row r="215">
@@ -2729,10 +2729,10 @@
         <v>45505</v>
       </c>
       <c r="B215">
-        <v>96.19714781049289</v>
+        <v>96.197148</v>
       </c>
       <c r="C215">
-        <v>96.51116330959833</v>
+        <v>96.511163</v>
       </c>
     </row>
     <row r="216">
@@ -2740,10 +2740,10 @@
         <v>45506</v>
       </c>
       <c r="B216">
-        <v>94.79038863055229</v>
+        <v>94.790389</v>
       </c>
       <c r="C216">
-        <v>95.10072397848224</v>
+        <v>95.100724</v>
       </c>
     </row>
     <row r="217">
@@ -2751,10 +2751,10 @@
         <v>45507</v>
       </c>
       <c r="B217">
-        <v>95.12334900121446</v>
+        <v>95.123349</v>
       </c>
       <c r="C217">
-        <v>95.43568956430842</v>
+        <v>95.43568999999999</v>
       </c>
     </row>
     <row r="218">
@@ -2762,10 +2762,10 @@
         <v>45508</v>
       </c>
       <c r="B218">
-        <v>95.57948335403535</v>
+        <v>95.579483</v>
       </c>
       <c r="C218">
-        <v>95.89424117829685</v>
+        <v>95.89424099999999</v>
       </c>
     </row>
     <row r="219">
@@ -2773,10 +2773,10 @@
         <v>45509</v>
       </c>
       <c r="B219">
-        <v>94.23882007611056</v>
+        <v>94.23882</v>
       </c>
       <c r="C219">
-        <v>94.55006953176601</v>
+        <v>94.55007000000001</v>
       </c>
     </row>
     <row r="220">
@@ -2784,10 +2784,10 @@
         <v>45510</v>
       </c>
       <c r="B220">
-        <v>94.05932301370414</v>
+        <v>94.05932300000001</v>
       </c>
       <c r="C220">
-        <v>94.37088455321194</v>
+        <v>94.370885</v>
       </c>
     </row>
     <row r="221">
@@ -2795,10 +2795,10 @@
         <v>45511</v>
       </c>
       <c r="B221">
-        <v>94.36242393320865</v>
+        <v>94.362424</v>
       </c>
       <c r="C221">
-        <v>94.67589730910845</v>
+        <v>94.67589700000001</v>
       </c>
     </row>
     <row r="222">
@@ -2806,10 +2806,10 @@
         <v>45512</v>
       </c>
       <c r="B222">
-        <v>93.49844149931221</v>
+        <v>93.498441</v>
       </c>
       <c r="C222">
-        <v>93.80994425581309</v>
+        <v>93.809944</v>
       </c>
     </row>
     <row r="223">
@@ -2817,10 +2817,10 @@
         <v>45513</v>
       </c>
       <c r="B223">
-        <v>93.47896894384222</v>
+        <v>93.47896900000001</v>
       </c>
       <c r="C223">
-        <v>93.79130618925733</v>
+        <v>93.79130600000001</v>
       </c>
     </row>
     <row r="224">
@@ -2828,10 +2828,10 @@
         <v>45514</v>
       </c>
       <c r="B224">
-        <v>94.44670025344189</v>
+        <v>94.44670000000001</v>
       </c>
       <c r="C224">
-        <v>94.76317962139224</v>
+        <v>94.76318000000001</v>
       </c>
     </row>
     <row r="225">
@@ -2839,10 +2839,10 @@
         <v>45515</v>
       </c>
       <c r="B225">
-        <v>93.94433950490135</v>
+        <v>93.94434</v>
       </c>
       <c r="C225">
-        <v>94.2600393823403</v>
+        <v>94.26003900000001</v>
       </c>
     </row>
     <row r="226">
@@ -2850,10 +2850,10 @@
         <v>45516</v>
       </c>
       <c r="B226">
-        <v>95.17208630269231</v>
+        <v>95.17208599999999</v>
       </c>
       <c r="C226">
-        <v>95.49282770251791</v>
+        <v>95.492828</v>
       </c>
     </row>
     <row r="227">
@@ -2861,10 +2861,10 @@
         <v>45517</v>
       </c>
       <c r="B227">
-        <v>95.83474954290456</v>
+        <v>95.83475</v>
       </c>
       <c r="C227">
-        <v>96.15864626249568</v>
+        <v>96.158646</v>
       </c>
     </row>
     <row r="228">
@@ -2872,10 +2872,10 @@
         <v>45518</v>
       </c>
       <c r="B228">
-        <v>96.20847160665666</v>
+        <v>96.208472</v>
       </c>
       <c r="C228">
-        <v>96.53455707976669</v>
+        <v>96.53455700000001</v>
       </c>
     </row>
     <row r="229">
@@ -2883,10 +2883,10 @@
         <v>45519</v>
       </c>
       <c r="B229">
-        <v>97.58516065792038</v>
+        <v>97.585161</v>
       </c>
       <c r="C229">
-        <v>97.91685115473165</v>
+        <v>97.91685099999999</v>
       </c>
     </row>
     <row r="230">
@@ -2894,10 +2894,10 @@
         <v>45520</v>
       </c>
       <c r="B230">
-        <v>97.36107310389852</v>
+        <v>97.361073</v>
       </c>
       <c r="C230">
-        <v>97.69293870758872</v>
+        <v>97.692939</v>
       </c>
     </row>
     <row r="231">
@@ -2905,10 +2905,10 @@
         <v>45521</v>
       </c>
       <c r="B231">
-        <v>97.16479381504323</v>
+        <v>97.164794</v>
       </c>
       <c r="C231">
-        <v>97.49692527738006</v>
+        <v>97.496925</v>
       </c>
     </row>
     <row r="232">
@@ -2916,10 +2916,10 @@
         <v>45522</v>
       </c>
       <c r="B232">
-        <v>97.17077774274789</v>
+        <v>97.170778</v>
       </c>
       <c r="C232">
-        <v>97.5038646235988</v>
+        <v>97.503865</v>
       </c>
     </row>
     <row r="233">
@@ -2927,10 +2927,10 @@
         <v>45523</v>
       </c>
       <c r="B233">
-        <v>96.92363291718308</v>
+        <v>96.923633</v>
       </c>
       <c r="C233">
-        <v>97.25680521759718</v>
+        <v>97.256805</v>
       </c>
     </row>
     <row r="234">
@@ -2938,10 +2938,10 @@
         <v>45524</v>
       </c>
       <c r="B234">
-        <v>97.19082622233901</v>
+        <v>97.190826</v>
       </c>
       <c r="C234">
-        <v>97.5258521672508</v>
+        <v>97.525852</v>
       </c>
     </row>
     <row r="235">
@@ -2949,10 +2949,10 @@
         <v>45525</v>
       </c>
       <c r="B235">
-        <v>97.61985563992501</v>
+        <v>97.619856</v>
       </c>
       <c r="C235">
-        <v>97.95729980177464</v>
+        <v>97.9573</v>
       </c>
     </row>
     <row r="236">
@@ -2960,10 +2960,10 @@
         <v>45526</v>
       </c>
       <c r="B236">
-        <v>98.1694566080819</v>
+        <v>98.16945699999999</v>
       </c>
       <c r="C236">
-        <v>98.50974519411085</v>
+        <v>98.509745</v>
       </c>
     </row>
     <row r="237">
@@ -2971,10 +2971,10 @@
         <v>45527</v>
       </c>
       <c r="B237">
-        <v>97.7019992806447</v>
+        <v>97.701999</v>
       </c>
       <c r="C237">
-        <v>98.04160762174882</v>
+        <v>98.041608</v>
       </c>
     </row>
     <row r="238">
@@ -2982,10 +2982,10 @@
         <v>45528</v>
       </c>
       <c r="B238">
-        <v>97.60212953825226</v>
+        <v>97.60213</v>
       </c>
       <c r="C238">
-        <v>97.94232990454834</v>
+        <v>97.94233</v>
       </c>
     </row>
     <row r="239">
@@ -2993,10 +2993,10 @@
         <v>45529</v>
       </c>
       <c r="B239">
-        <v>96.95148058767377</v>
+        <v>96.951481</v>
       </c>
       <c r="C239">
-        <v>97.29034597941626</v>
+        <v>97.290346</v>
       </c>
     </row>
     <row r="240">
@@ -3004,10 +3004,10 @@
         <v>45530</v>
       </c>
       <c r="B240">
-        <v>97.29660967436764</v>
+        <v>97.29661</v>
       </c>
       <c r="C240">
-        <v>97.63761760998614</v>
+        <v>97.637618</v>
       </c>
     </row>
     <row r="241">
@@ -3015,10 +3015,10 @@
         <v>45531</v>
       </c>
       <c r="B241">
-        <v>96.62398846708147</v>
+        <v>96.623988</v>
       </c>
       <c r="C241">
-        <v>96.96356876387567</v>
+        <v>96.96356900000001</v>
       </c>
     </row>
     <row r="242">
@@ -3026,10 +3026,10 @@
         <v>45532</v>
       </c>
       <c r="B242">
-        <v>96.22237497900208</v>
+        <v>96.222375</v>
       </c>
       <c r="C242">
-        <v>96.56146975223449</v>
+        <v>96.56147</v>
       </c>
     </row>
     <row r="243">
@@ -3037,10 +3037,10 @@
         <v>45533</v>
       </c>
       <c r="B243">
-        <v>95.50107298912864</v>
+        <v>95.50107300000001</v>
       </c>
       <c r="C243">
-        <v>95.83854483608611</v>
+        <v>95.838545</v>
       </c>
     </row>
     <row r="244">
@@ -3048,10 +3048,10 @@
         <v>45534</v>
       </c>
       <c r="B244">
-        <v>95.08107307550314</v>
+        <v>95.081073</v>
       </c>
       <c r="C244">
-        <v>95.41797573256549</v>
+        <v>95.417976</v>
       </c>
     </row>
     <row r="245">
@@ -3059,10 +3059,10 @@
         <v>45535</v>
       </c>
       <c r="B245">
-        <v>95.33560082912092</v>
+        <v>95.335601</v>
       </c>
       <c r="C245">
-        <v>95.67432278004871</v>
+        <v>95.674323</v>
       </c>
     </row>
     <row r="246">
@@ -3070,10 +3070,10 @@
         <v>45536</v>
       </c>
       <c r="B246">
-        <v>96.13593389769161</v>
+        <v>96.13593400000001</v>
       </c>
       <c r="C246">
-        <v>96.47842451749568</v>
+        <v>96.478425</v>
       </c>
     </row>
     <row r="247">
@@ -3081,10 +3081,10 @@
         <v>45537</v>
       </c>
       <c r="B247">
-        <v>95.31059470253939</v>
+        <v>95.31059500000001</v>
       </c>
       <c r="C247">
-        <v>95.65106219446844</v>
+        <v>95.651062</v>
       </c>
     </row>
     <row r="248">
@@ -3092,10 +3092,10 @@
         <v>45538</v>
       </c>
       <c r="B248">
-        <v>95.61102508014002</v>
+        <v>95.611025</v>
       </c>
       <c r="C248">
-        <v>95.95348586377402</v>
+        <v>95.953486</v>
       </c>
     </row>
     <row r="249">
@@ -3103,10 +3103,10 @@
         <v>45539</v>
       </c>
       <c r="B249">
-        <v>95.81117374854148</v>
+        <v>95.81117399999999</v>
       </c>
       <c r="C249">
-        <v>96.15527345966539</v>
+        <v>96.15527299999999</v>
       </c>
     </row>
     <row r="250">
@@ -3114,10 +3114,10 @@
         <v>45540</v>
       </c>
       <c r="B250">
-        <v>96.33005435884462</v>
+        <v>96.330054</v>
       </c>
       <c r="C250">
-        <v>96.67760680441164</v>
+        <v>96.67760699999999</v>
       </c>
     </row>
     <row r="251">
@@ -3125,10 +3125,10 @@
         <v>45541</v>
       </c>
       <c r="B251">
-        <v>96.08712671400662</v>
+        <v>96.087127</v>
       </c>
       <c r="C251">
-        <v>96.4353879189711</v>
+        <v>96.435388</v>
       </c>
     </row>
     <row r="252">
@@ -3136,10 +3136,10 @@
         <v>45542</v>
       </c>
       <c r="B252">
-        <v>96.76618443953501</v>
+        <v>96.766184</v>
       </c>
       <c r="C252">
-        <v>97.11783810515885</v>
+        <v>97.11783800000001</v>
       </c>
     </row>
     <row r="253">
@@ -3147,10 +3147,10 @@
         <v>45543</v>
       </c>
       <c r="B253">
-        <v>98.08028613728946</v>
+        <v>98.080286</v>
       </c>
       <c r="C253">
-        <v>98.43832489191691</v>
+        <v>98.43832500000001</v>
       </c>
     </row>
     <row r="254">
@@ -3158,10 +3158,10 @@
         <v>45544</v>
       </c>
       <c r="B254">
-        <v>98.48063580471489</v>
+        <v>98.480636</v>
       </c>
       <c r="C254">
-        <v>98.84147795788503</v>
+        <v>98.841478</v>
       </c>
     </row>
     <row r="255">
@@ -3169,10 +3169,10 @@
         <v>45545</v>
       </c>
       <c r="B255">
-        <v>98.5330060211318</v>
+        <v>98.533006</v>
       </c>
       <c r="C255">
-        <v>98.89566573243073</v>
+        <v>98.89566600000001</v>
       </c>
     </row>
     <row r="256">
@@ -3180,10 +3180,10 @@
         <v>45546</v>
       </c>
       <c r="B256">
-        <v>97.78796270819645</v>
+        <v>97.787963</v>
       </c>
       <c r="C256">
-        <v>98.14949362273383</v>
+        <v>98.149494</v>
       </c>
     </row>
     <row r="257">
@@ -3191,10 +3191,10 @@
         <v>45547</v>
       </c>
       <c r="B257">
-        <v>97.24338347075026</v>
+        <v>97.24338299999999</v>
       </c>
       <c r="C257">
-        <v>97.60450547118535</v>
+        <v>97.604505</v>
       </c>
     </row>
     <row r="258">
@@ -3202,10 +3202,10 @@
         <v>45548</v>
       </c>
       <c r="B258">
-        <v>97.8112589472463</v>
+        <v>97.81125900000001</v>
       </c>
       <c r="C258">
-        <v>98.17610364453925</v>
+        <v>98.176104</v>
       </c>
     </row>
     <row r="259">
@@ -3213,10 +3213,10 @@
         <v>45549</v>
       </c>
       <c r="B259">
-        <v>97.78143637554713</v>
+        <v>97.781436</v>
       </c>
       <c r="C259">
-        <v>98.14778320695105</v>
+        <v>98.147783</v>
       </c>
     </row>
     <row r="260">
@@ -3224,10 +3224,10 @@
         <v>45550</v>
       </c>
       <c r="B260">
-        <v>97.56417417267816</v>
+        <v>97.56417399999999</v>
       </c>
       <c r="C260">
-        <v>97.93131682858701</v>
+        <v>97.93131700000001</v>
       </c>
     </row>
     <row r="261">
@@ -3235,10 +3235,10 @@
         <v>45551</v>
       </c>
       <c r="B261">
-        <v>97.88331746247002</v>
+        <v>97.88331700000001</v>
       </c>
       <c r="C261">
-        <v>98.25327619200742</v>
+        <v>98.253276</v>
       </c>
     </row>
     <row r="262">
@@ -3246,10 +3246,10 @@
         <v>45552</v>
       </c>
       <c r="B262">
-        <v>97.62412450000377</v>
+        <v>97.62412500000001</v>
       </c>
       <c r="C262">
-        <v>97.99471444539783</v>
+        <v>97.994714</v>
       </c>
     </row>
     <row r="263">
@@ -3257,10 +3257,10 @@
         <v>45553</v>
       </c>
       <c r="B263">
-        <v>97.23438375906662</v>
+        <v>97.23438400000001</v>
       </c>
       <c r="C263">
-        <v>97.60509866778884</v>
+        <v>97.605099</v>
       </c>
     </row>
     <row r="264">
@@ -3268,10 +3268,10 @@
         <v>45554</v>
       </c>
       <c r="B264">
-        <v>97.10672989706474</v>
+        <v>97.10673</v>
       </c>
       <c r="C264">
-        <v>97.47856048798337</v>
+        <v>97.47856</v>
       </c>
     </row>
     <row r="265">
@@ -3279,10 +3279,10 @@
         <v>45555</v>
       </c>
       <c r="B265">
-        <v>97.99974839848564</v>
+        <v>97.999748</v>
       </c>
       <c r="C265">
-        <v>98.37594176572217</v>
+        <v>98.37594199999999</v>
       </c>
     </row>
     <row r="266">
@@ -3290,10 +3290,10 @@
         <v>45556</v>
       </c>
       <c r="B266">
-        <v>97.53306447993508</v>
+        <v>97.533064</v>
       </c>
       <c r="C266">
-        <v>97.90840522258048</v>
+        <v>97.908405</v>
       </c>
     </row>
     <row r="267">
@@ -3301,10 +3301,10 @@
         <v>45557</v>
       </c>
       <c r="B267">
-        <v>98.41126648946052</v>
+        <v>98.411266</v>
       </c>
       <c r="C267">
-        <v>98.79093416095796</v>
+        <v>98.79093399999999</v>
       </c>
     </row>
     <row r="268">
@@ -3312,10 +3312,10 @@
         <v>45558</v>
       </c>
       <c r="B268">
-        <v>97.46253328939173</v>
+        <v>97.46253299999999</v>
       </c>
       <c r="C268">
-        <v>97.83947895935931</v>
+        <v>97.839479</v>
       </c>
     </row>
     <row r="269">
@@ -3323,10 +3323,10 @@
         <v>45559</v>
       </c>
       <c r="B269">
-        <v>98.27719899355554</v>
+        <v>98.277199</v>
       </c>
       <c r="C269">
-        <v>98.65824149445461</v>
+        <v>98.658241</v>
       </c>
     </row>
     <row r="270">
@@ -3334,10 +3334,10 @@
         <v>45560</v>
       </c>
       <c r="B270">
-        <v>99.03498133205666</v>
+        <v>99.034981</v>
       </c>
       <c r="C270">
-        <v>99.41991526026001</v>
+        <v>99.419915</v>
       </c>
     </row>
     <row r="271">
@@ -3345,10 +3345,10 @@
         <v>45561</v>
       </c>
       <c r="B271">
-        <v>99.53570936511744</v>
+        <v>99.535709</v>
       </c>
       <c r="C271">
-        <v>99.92354771353207</v>
+        <v>99.923548</v>
       </c>
     </row>
     <row r="272">
@@ -3356,10 +3356,10 @@
         <v>45562</v>
       </c>
       <c r="B272">
-        <v>98.85660541605516</v>
+        <v>98.856605</v>
       </c>
       <c r="C272">
-        <v>99.24274929152209</v>
+        <v>99.242749</v>
       </c>
     </row>
     <row r="273">
@@ -3367,10 +3367,10 @@
         <v>45563</v>
       </c>
       <c r="B273">
-        <v>97.57502875503346</v>
+        <v>97.575029</v>
       </c>
       <c r="C273">
-        <v>97.95710597296156</v>
+        <v>97.957106</v>
       </c>
     </row>
     <row r="274">
@@ -3378,10 +3378,10 @@
         <v>45564</v>
       </c>
       <c r="B274">
-        <v>98.25044725321887</v>
+        <v>98.25044699999999</v>
       </c>
       <c r="C274">
-        <v>98.63611504712235</v>
+        <v>98.636115</v>
       </c>
     </row>
     <row r="275">
@@ -3389,10 +3389,10 @@
         <v>45565</v>
       </c>
       <c r="B275">
-        <v>97.74524805263282</v>
+        <v>97.745248</v>
       </c>
       <c r="C275">
-        <v>98.12987372767391</v>
+        <v>98.129874</v>
       </c>
     </row>
     <row r="276">
@@ -3400,10 +3400,10 @@
         <v>45566</v>
       </c>
       <c r="B276">
-        <v>97.21716030148421</v>
+        <v>97.21716000000001</v>
       </c>
       <c r="C276">
-        <v>97.60064385345798</v>
+        <v>97.600644</v>
       </c>
     </row>
     <row r="277">
@@ -3411,10 +3411,10 @@
         <v>45567</v>
       </c>
       <c r="B277">
-        <v>97.17195790856181</v>
+        <v>97.171958</v>
       </c>
       <c r="C277">
-        <v>97.55619862074431</v>
+        <v>97.55619900000001</v>
       </c>
     </row>
     <row r="278">
@@ -3422,10 +3422,10 @@
         <v>45568</v>
       </c>
       <c r="B278">
-        <v>98.30849688848473</v>
+        <v>98.308497</v>
       </c>
       <c r="C278">
-        <v>98.69817815870536</v>
+        <v>98.698178</v>
       </c>
     </row>
     <row r="279">
@@ -3433,10 +3433,10 @@
         <v>45569</v>
       </c>
       <c r="B279">
-        <v>99.45906564163344</v>
+        <v>99.45906600000001</v>
       </c>
       <c r="C279">
-        <v>99.85426510914888</v>
+        <v>99.854265</v>
       </c>
     </row>
     <row r="280">
@@ -3444,10 +3444,10 @@
         <v>45570</v>
       </c>
       <c r="B280">
-        <v>100.5258716591447</v>
+        <v>100.525872</v>
       </c>
       <c r="C280">
-        <v>100.9262778498381</v>
+        <v>100.926278</v>
       </c>
     </row>
     <row r="281">
@@ -3455,10 +3455,10 @@
         <v>45571</v>
       </c>
       <c r="B281">
-        <v>99.54879828031031</v>
+        <v>99.54879800000001</v>
       </c>
       <c r="C281">
-        <v>99.94627105886738</v>
+        <v>99.946271</v>
       </c>
     </row>
     <row r="282">
@@ -3466,10 +3466,10 @@
         <v>45572</v>
       </c>
       <c r="B282">
-        <v>100.0321914388579</v>
+        <v>100.032191</v>
       </c>
       <c r="C282">
-        <v>100.432557329421</v>
+        <v>100.432557</v>
       </c>
     </row>
     <row r="283">
@@ -3477,10 +3477,10 @@
         <v>45573</v>
       </c>
       <c r="B283">
-        <v>100.4147167990959</v>
+        <v>100.414717</v>
       </c>
       <c r="C283">
-        <v>100.8175804371574</v>
+        <v>100.81758</v>
       </c>
     </row>
     <row r="284">
@@ -3488,10 +3488,10 @@
         <v>45574</v>
       </c>
       <c r="B284">
-        <v>98.50157221882883</v>
+        <v>98.501572</v>
       </c>
       <c r="C284">
-        <v>98.89770865439996</v>
+        <v>98.89770900000001</v>
       </c>
     </row>
     <row r="285">
@@ -3499,10 +3499,10 @@
         <v>45575</v>
       </c>
       <c r="B285">
-        <v>95.90652825039548</v>
+        <v>95.90652799999999</v>
       </c>
       <c r="C285">
-        <v>96.29315174550692</v>
+        <v>96.29315200000001</v>
       </c>
     </row>
     <row r="286">
@@ -3510,10 +3510,10 @@
         <v>45576</v>
       </c>
       <c r="B286">
-        <v>96.81642057443142</v>
+        <v>96.81642100000001</v>
       </c>
       <c r="C286">
-        <v>97.20764419947569</v>
+        <v>97.207644</v>
       </c>
     </row>
     <row r="287">
@@ -3521,10 +3521,10 @@
         <v>45577</v>
       </c>
       <c r="B287">
-        <v>97.0964082672992</v>
+        <v>97.096408</v>
       </c>
       <c r="C287">
-        <v>97.48969811750442</v>
+        <v>97.489698</v>
       </c>
     </row>
     <row r="288">
@@ -3532,10 +3532,10 @@
         <v>45578</v>
       </c>
       <c r="B288">
-        <v>97.34677111893157</v>
+        <v>97.346771</v>
       </c>
       <c r="C288">
-        <v>97.74201231373445</v>
+        <v>97.742012</v>
       </c>
     </row>
     <row r="289">
@@ -3543,10 +3543,10 @@
         <v>45579</v>
       </c>
       <c r="B289">
-        <v>96.72422051213407</v>
+        <v>96.724221</v>
       </c>
       <c r="C289">
-        <v>97.11786532912824</v>
+        <v>97.11786499999999</v>
       </c>
     </row>
     <row r="290">
@@ -3554,10 +3554,10 @@
         <v>45580</v>
       </c>
       <c r="B290">
-        <v>96.59943610561015</v>
+        <v>96.599436</v>
       </c>
       <c r="C290">
-        <v>96.99350314966169</v>
+        <v>96.993503</v>
       </c>
     </row>
     <row r="291">
@@ -3565,10 +3565,10 @@
         <v>45581</v>
       </c>
       <c r="B291">
-        <v>95.49679562374509</v>
+        <v>95.496796</v>
       </c>
       <c r="C291">
-        <v>95.88728402685356</v>
+        <v>95.88728399999999</v>
       </c>
     </row>
     <row r="292">
@@ -3576,10 +3576,10 @@
         <v>45582</v>
       </c>
       <c r="B292">
-        <v>95.3819857939844</v>
+        <v>95.381986</v>
       </c>
       <c r="C292">
-        <v>95.77292310337991</v>
+        <v>95.77292300000001</v>
       </c>
     </row>
     <row r="293">
@@ -3587,10 +3587,10 @@
         <v>45583</v>
       </c>
       <c r="B293">
-        <v>96.78414461677364</v>
+        <v>96.784145</v>
       </c>
       <c r="C293">
-        <v>97.18176075887777</v>
+        <v>97.18176099999999</v>
       </c>
     </row>
     <row r="294">
@@ -3598,10 +3598,10 @@
         <v>45584</v>
       </c>
       <c r="B294">
-        <v>95.76291263119155</v>
+        <v>95.762913</v>
       </c>
       <c r="C294">
-        <v>96.15725532016481</v>
+        <v>96.15725500000001</v>
       </c>
     </row>
     <row r="295">
@@ -3609,10 +3609,10 @@
         <v>45585</v>
       </c>
       <c r="B295">
-        <v>95.98531960816854</v>
+        <v>95.98532</v>
       </c>
       <c r="C295">
-        <v>96.38150234996078</v>
+        <v>96.381502</v>
       </c>
     </row>
     <row r="296">
@@ -3620,10 +3620,10 @@
         <v>45586</v>
       </c>
       <c r="B296">
-        <v>96.15921348379146</v>
+        <v>96.15921299999999</v>
       </c>
       <c r="C296">
-        <v>96.55703986358164</v>
+        <v>96.55704</v>
       </c>
     </row>
     <row r="297">
@@ -3631,10 +3631,10 @@
         <v>45587</v>
       </c>
       <c r="B297">
-        <v>95.88872863013313</v>
+        <v>95.888729</v>
       </c>
       <c r="C297">
-        <v>96.28635925931231</v>
+        <v>96.286359</v>
       </c>
     </row>
     <row r="298">
@@ -3642,10 +3642,10 @@
         <v>45588</v>
       </c>
       <c r="B298">
-        <v>96.6108613842821</v>
+        <v>96.610861</v>
       </c>
       <c r="C298">
-        <v>97.01241679950407</v>
+        <v>97.012417</v>
       </c>
     </row>
     <row r="299">
@@ -3653,10 +3653,10 @@
         <v>45589</v>
       </c>
       <c r="B299">
-        <v>94.56350755879583</v>
+        <v>94.563508</v>
       </c>
       <c r="C299">
-        <v>94.95746385619547</v>
+        <v>94.957464</v>
       </c>
     </row>
     <row r="300">
@@ -3664,10 +3664,10 @@
         <v>45590</v>
       </c>
       <c r="B300">
-        <v>96.05348153846556</v>
+        <v>96.053482</v>
       </c>
       <c r="C300">
-        <v>96.45457004431334</v>
+        <v>96.45457</v>
       </c>
     </row>
     <row r="301">
@@ -3675,10 +3675,10 @@
         <v>45591</v>
       </c>
       <c r="B301">
-        <v>96.3348801031642</v>
+        <v>96.33488</v>
       </c>
       <c r="C301">
-        <v>96.73807125998286</v>
+        <v>96.73807100000001</v>
       </c>
     </row>
     <row r="302">
@@ -3686,10 +3686,10 @@
         <v>45592</v>
       </c>
       <c r="B302">
-        <v>95.66847306946121</v>
+        <v>95.66847300000001</v>
       </c>
       <c r="C302">
-        <v>96.06979632031261</v>
+        <v>96.069796</v>
       </c>
     </row>
     <row r="303">
@@ -3697,10 +3697,10 @@
         <v>45593</v>
       </c>
       <c r="B303">
-        <v>95.58697313160528</v>
+        <v>95.586973</v>
       </c>
       <c r="C303">
-        <v>95.98887493217678</v>
+        <v>95.98887499999999</v>
       </c>
     </row>
     <row r="304">
@@ -3708,10 +3708,10 @@
         <v>45594</v>
       </c>
       <c r="B304">
-        <v>94.40745260074705</v>
+        <v>94.407453</v>
       </c>
       <c r="C304">
-        <v>94.80530411621575</v>
+        <v>94.80530400000001</v>
       </c>
     </row>
     <row r="305">
@@ -3719,10 +3719,10 @@
         <v>45595</v>
       </c>
       <c r="B305">
-        <v>93.47833841137746</v>
+        <v>93.47833799999999</v>
       </c>
       <c r="C305">
-        <v>93.8731746068966</v>
+        <v>93.873175</v>
       </c>
     </row>
     <row r="306">
@@ -3730,10 +3730,10 @@
         <v>45596</v>
       </c>
       <c r="B306">
-        <v>92.91586954247335</v>
+        <v>92.91587</v>
       </c>
       <c r="C306">
-        <v>93.3092247093052</v>
+        <v>93.309225</v>
       </c>
     </row>
     <row r="307">
@@ -3741,10 +3741,10 @@
         <v>45597</v>
       </c>
       <c r="B307">
-        <v>91.88064468380406</v>
+        <v>91.880645</v>
       </c>
       <c r="C307">
-        <v>92.27050205401615</v>
+        <v>92.27050199999999</v>
       </c>
     </row>
     <row r="308">
@@ -3752,10 +3752,10 @@
         <v>45598</v>
       </c>
       <c r="B308">
-        <v>91.13279895497645</v>
+        <v>91.13279900000001</v>
       </c>
       <c r="C308">
-        <v>91.52036074060925</v>
+        <v>91.52036099999999</v>
       </c>
     </row>
     <row r="309">
@@ -3763,10 +3763,10 @@
         <v>45599</v>
       </c>
       <c r="B309">
-        <v>92.37137526312398</v>
+        <v>92.371375</v>
       </c>
       <c r="C309">
-        <v>92.76509388435163</v>
+        <v>92.765094</v>
       </c>
     </row>
     <row r="310">
@@ -3774,10 +3774,10 @@
         <v>45600</v>
       </c>
       <c r="B310">
-        <v>91.94310930931464</v>
+        <v>91.94310900000001</v>
       </c>
       <c r="C310">
-        <v>92.33588792189796</v>
+        <v>92.335888</v>
       </c>
     </row>
     <row r="311">
@@ -3785,10 +3785,10 @@
         <v>45601</v>
       </c>
       <c r="B311">
-        <v>91.62822403586146</v>
+        <v>91.628224</v>
       </c>
       <c r="C311">
-        <v>92.02053985111385</v>
+        <v>92.02054</v>
       </c>
     </row>
     <row r="312">
@@ -3796,10 +3796,10 @@
         <v>45602</v>
       </c>
       <c r="B312">
-        <v>92.78761515524351</v>
+        <v>92.787615</v>
       </c>
       <c r="C312">
-        <v>93.18578858278798</v>
+        <v>93.185789</v>
       </c>
     </row>
     <row r="313">
@@ -3807,10 +3807,10 @@
         <v>45603</v>
       </c>
       <c r="B313">
-        <v>91.34522700676435</v>
+        <v>91.34522699999999</v>
       </c>
       <c r="C313">
-        <v>91.73809048443584</v>
+        <v>91.73809</v>
       </c>
     </row>
     <row r="314">
@@ -3818,10 +3818,10 @@
         <v>45604</v>
       </c>
       <c r="B314">
-        <v>90.03841747755132</v>
+        <v>90.038417</v>
       </c>
       <c r="C314">
-        <v>90.42652764356215</v>
+        <v>90.426528</v>
       </c>
     </row>
     <row r="315">
@@ -3829,10 +3829,10 @@
         <v>45605</v>
       </c>
       <c r="B315">
-        <v>90.29346033562929</v>
+        <v>90.29346</v>
       </c>
       <c r="C315">
-        <v>90.68353942667183</v>
+        <v>90.683539</v>
       </c>
     </row>
     <row r="316">
@@ -3840,10 +3840,10 @@
         <v>45606</v>
       </c>
       <c r="B316">
-        <v>89.25489799395689</v>
+        <v>89.254898</v>
       </c>
       <c r="C316">
-        <v>89.64134993568952</v>
+        <v>89.64135</v>
       </c>
     </row>
     <row r="317">
@@ -3851,10 +3851,10 @@
         <v>45607</v>
       </c>
       <c r="B317">
-        <v>89.62837516904032</v>
+        <v>89.62837500000001</v>
       </c>
       <c r="C317">
-        <v>90.01730735138224</v>
+        <v>90.017307</v>
       </c>
     </row>
     <row r="318">
@@ -3862,10 +3862,10 @@
         <v>45608</v>
       </c>
       <c r="B318">
-        <v>89.91791331421159</v>
+        <v>89.917913</v>
       </c>
       <c r="C318">
-        <v>90.30896788679257</v>
+        <v>90.30896799999999</v>
       </c>
     </row>
     <row r="319">
@@ -3873,10 +3873,10 @@
         <v>45609</v>
       </c>
       <c r="B319">
-        <v>90.01534608034792</v>
+        <v>90.01534599999999</v>
       </c>
       <c r="C319">
-        <v>90.40769130863831</v>
+        <v>90.407691</v>
       </c>
     </row>
     <row r="320">
@@ -3884,10 +3884,10 @@
         <v>45610</v>
       </c>
       <c r="B320">
-        <v>90.09154558434354</v>
+        <v>90.09154599999999</v>
       </c>
       <c r="C320">
-        <v>90.48509060055896</v>
+        <v>90.485091</v>
       </c>
     </row>
     <row r="321">
@@ -3895,10 +3895,10 @@
         <v>45611</v>
       </c>
       <c r="B321">
-        <v>90.68013540314276</v>
+        <v>90.68013500000001</v>
       </c>
       <c r="C321">
-        <v>91.07712488207187</v>
+        <v>91.077125</v>
       </c>
     </row>
     <row r="322">
@@ -3906,10 +3906,10 @@
         <v>45612</v>
       </c>
       <c r="B322">
-        <v>91.38126418737572</v>
+        <v>91.381264</v>
       </c>
       <c r="C322">
-        <v>91.78232292961542</v>
+        <v>91.78232300000001</v>
       </c>
     </row>
     <row r="323">
@@ -3917,10 +3917,10 @@
         <v>45613</v>
       </c>
       <c r="B323">
-        <v>91.61952129973659</v>
+        <v>91.61952100000001</v>
       </c>
       <c r="C323">
-        <v>92.02250812029622</v>
+        <v>92.022508</v>
       </c>
     </row>
     <row r="324">
@@ -3928,10 +3928,10 @@
         <v>45614</v>
       </c>
       <c r="B324">
-        <v>90.8188862038071</v>
+        <v>90.81888600000001</v>
       </c>
       <c r="C324">
-        <v>91.2192261459771</v>
+        <v>91.21922600000001</v>
       </c>
     </row>
     <row r="325">
@@ -3939,10 +3939,10 @@
         <v>45615</v>
       </c>
       <c r="B325">
-        <v>90.40078243699516</v>
+        <v>90.40078200000001</v>
       </c>
       <c r="C325">
-        <v>90.80015001257615</v>
+        <v>90.80015</v>
       </c>
     </row>
     <row r="326">
@@ -3950,10 +3950,10 @@
         <v>45616</v>
       </c>
       <c r="B326">
-        <v>90.44808599681085</v>
+        <v>90.448086</v>
       </c>
       <c r="C326">
-        <v>90.84853369358787</v>
+        <v>90.848534</v>
       </c>
     </row>
     <row r="327">
@@ -3961,10 +3961,10 @@
         <v>45617</v>
       </c>
       <c r="B327">
-        <v>91.23808729742998</v>
+        <v>91.23808699999999</v>
       </c>
       <c r="C327">
-        <v>91.64291139053677</v>
+        <v>91.642911</v>
       </c>
     </row>
     <row r="328">
@@ -3972,10 +3972,10 @@
         <v>45618</v>
       </c>
       <c r="B328">
-        <v>89.60029170326878</v>
+        <v>89.600292</v>
       </c>
       <c r="C328">
-        <v>89.99871188197203</v>
+        <v>89.998712</v>
       </c>
     </row>
     <row r="329">
@@ -3983,10 +3983,10 @@
         <v>45619</v>
       </c>
       <c r="B329">
-        <v>89.9879888651234</v>
+        <v>89.987989</v>
       </c>
       <c r="C329">
-        <v>90.38899973294188</v>
+        <v>90.389</v>
       </c>
     </row>
     <row r="330">
@@ -3994,10 +3994,10 @@
         <v>45620</v>
       </c>
       <c r="B330">
-        <v>89.80163641224735</v>
+        <v>89.801636</v>
       </c>
       <c r="C330">
-        <v>90.20268179610441</v>
+        <v>90.202682</v>
       </c>
     </row>
     <row r="331">
@@ -4005,10 +4005,10 @@
         <v>45621</v>
       </c>
       <c r="B331">
-        <v>89.72686153221623</v>
+        <v>89.726862</v>
       </c>
       <c r="C331">
-        <v>90.12843721986835</v>
+        <v>90.12843700000001</v>
       </c>
     </row>
     <row r="332">
@@ -4016,10 +4016,10 @@
         <v>45622</v>
       </c>
       <c r="B332">
-        <v>89.50676768403257</v>
+        <v>89.50676799999999</v>
       </c>
       <c r="C332">
-        <v>89.90822046350415</v>
+        <v>89.90822</v>
       </c>
     </row>
     <row r="333">
@@ -4027,10 +4027,10 @@
         <v>45623</v>
       </c>
       <c r="B333">
-        <v>89.76668830998426</v>
+        <v>89.766688</v>
       </c>
       <c r="C333">
-        <v>90.17017151814311</v>
+        <v>90.17017199999999</v>
       </c>
     </row>
     <row r="334">
@@ -4038,10 +4038,10 @@
         <v>45624</v>
       </c>
       <c r="B334">
-        <v>89.92307334720205</v>
+        <v>89.923073</v>
       </c>
       <c r="C334">
-        <v>90.32812563060367</v>
+        <v>90.328126</v>
       </c>
     </row>
     <row r="335">
@@ -4049,10 +4049,10 @@
         <v>45625</v>
       </c>
       <c r="B335">
-        <v>89.36664020264703</v>
+        <v>89.36664</v>
       </c>
       <c r="C335">
-        <v>89.77004687585843</v>
+        <v>89.77004700000001</v>
       </c>
     </row>
     <row r="336">
@@ -4060,10 +4060,10 @@
         <v>45626</v>
       </c>
       <c r="B336">
-        <v>89.50687339721514</v>
+        <v>89.506873</v>
       </c>
       <c r="C336">
-        <v>89.91177525552165</v>
+        <v>89.91177500000001</v>
       </c>
     </row>
     <row r="337">
@@ -4071,10 +4071,10 @@
         <v>45627</v>
       </c>
       <c r="B337">
-        <v>89.72854062155254</v>
+        <v>89.72854100000001</v>
       </c>
       <c r="C337">
-        <v>90.13530954197205</v>
+        <v>90.13531</v>
       </c>
     </row>
     <row r="338">
@@ -4082,10 +4082,10 @@
         <v>45628</v>
       </c>
       <c r="B338">
-        <v>89.36566281190801</v>
+        <v>89.365663</v>
       </c>
       <c r="C338">
-        <v>89.77164750802251</v>
+        <v>89.771648</v>
       </c>
     </row>
     <row r="339">
@@ -4093,10 +4093,10 @@
         <v>45629</v>
       </c>
       <c r="B339">
-        <v>89.12398059335327</v>
+        <v>89.123981</v>
       </c>
       <c r="C339">
-        <v>89.52972583674575</v>
+        <v>89.529726</v>
       </c>
     </row>
     <row r="340">
@@ -4104,10 +4104,10 @@
         <v>45630</v>
       </c>
       <c r="B340">
-        <v>89.32548637861269</v>
+        <v>89.325486</v>
       </c>
       <c r="C340">
-        <v>89.73300944529748</v>
+        <v>89.733009</v>
       </c>
     </row>
     <row r="341">
@@ -4115,10 +4115,10 @@
         <v>45631</v>
       </c>
       <c r="B341">
-        <v>88.54943204909411</v>
+        <v>88.549432</v>
       </c>
       <c r="C341">
-        <v>88.95426756248781</v>
+        <v>88.954268</v>
       </c>
     </row>
     <row r="342">
@@ -4126,10 +4126,10 @@
         <v>45632</v>
       </c>
       <c r="B342">
-        <v>88.37382959832102</v>
+        <v>88.37383</v>
       </c>
       <c r="C342">
-        <v>88.77871358073</v>
+        <v>88.77871399999999</v>
       </c>
     </row>
     <row r="343">
@@ -4137,10 +4137,10 @@
         <v>45633</v>
       </c>
       <c r="B343">
-        <v>88.92262943357946</v>
+        <v>88.922629</v>
       </c>
       <c r="C343">
-        <v>89.33088433138957</v>
+        <v>89.330884</v>
       </c>
     </row>
     <row r="344">
@@ -4148,10 +4148,10 @@
         <v>45634</v>
       </c>
       <c r="B344">
-        <v>89.11900109238505</v>
+        <v>89.119001</v>
       </c>
       <c r="C344">
-        <v>89.5290160503049</v>
+        <v>89.529016</v>
       </c>
     </row>
     <row r="345">
@@ -4159,10 +4159,10 @@
         <v>45635</v>
       </c>
       <c r="B345">
-        <v>88.0178300639369</v>
+        <v>88.01783</v>
       </c>
       <c r="C345">
-        <v>88.42362669415465</v>
+        <v>88.423627</v>
       </c>
     </row>
     <row r="346">
@@ -4170,10 +4170,10 @@
         <v>45636</v>
       </c>
       <c r="B346">
-        <v>88.80939573411501</v>
+        <v>88.80939600000001</v>
       </c>
       <c r="C346">
-        <v>89.21969731898452</v>
+        <v>89.219697</v>
       </c>
     </row>
     <row r="347">
@@ -4181,10 +4181,10 @@
         <v>45637</v>
       </c>
       <c r="B347">
-        <v>90.59463663184532</v>
+        <v>90.59463700000001</v>
       </c>
       <c r="C347">
-        <v>91.01405880678162</v>
+        <v>91.014059</v>
       </c>
     </row>
     <row r="348">
@@ -4192,10 +4192,10 @@
         <v>45638</v>
       </c>
       <c r="B348">
-        <v>90.86584030414186</v>
+        <v>90.86584000000001</v>
       </c>
       <c r="C348">
-        <v>91.28739341367145</v>
+        <v>91.28739299999999</v>
       </c>
     </row>
     <row r="349">
@@ -4203,10 +4203,10 @@
         <v>45639</v>
       </c>
       <c r="B349">
-        <v>89.05000558542486</v>
+        <v>89.050006</v>
       </c>
       <c r="C349">
-        <v>89.46399237838546</v>
+        <v>89.463992</v>
       </c>
     </row>
     <row r="350">
@@ -4214,10 +4214,10 @@
         <v>45640</v>
       </c>
       <c r="B350">
-        <v>87.64420502658919</v>
+        <v>87.644205</v>
       </c>
       <c r="C350">
-        <v>88.05250069325352</v>
+        <v>88.05250100000001</v>
       </c>
     </row>
     <row r="351">
@@ -4225,10 +4225,10 @@
         <v>45641</v>
       </c>
       <c r="B351">
-        <v>89.51819975730928</v>
+        <v>89.51819999999999</v>
       </c>
       <c r="C351">
-        <v>89.93608793498534</v>
+        <v>89.936088</v>
       </c>
     </row>
     <row r="352">
@@ -4236,10 +4236,10 @@
         <v>45642</v>
       </c>
       <c r="B352">
-        <v>89.81609804630139</v>
+        <v>89.816098</v>
       </c>
       <c r="C352">
-        <v>90.23624214538482</v>
+        <v>90.236242</v>
       </c>
     </row>
     <row r="353">
@@ -4247,10 +4247,10 @@
         <v>45643</v>
       </c>
       <c r="B353">
-        <v>88.69898061472611</v>
+        <v>88.698981</v>
       </c>
       <c r="C353">
-        <v>89.11475355352609</v>
+        <v>89.114754</v>
       </c>
     </row>
     <row r="354">
@@ -4258,10 +4258,10 @@
         <v>45644</v>
       </c>
       <c r="B354">
-        <v>88.41574654133963</v>
+        <v>88.415747</v>
       </c>
       <c r="C354">
-        <v>88.83104363214566</v>
+        <v>88.83104400000001</v>
       </c>
     </row>
     <row r="355">
@@ -4269,10 +4269,10 @@
         <v>45645</v>
       </c>
       <c r="B355">
-        <v>88.91977289947398</v>
+        <v>88.91977300000001</v>
       </c>
       <c r="C355">
-        <v>89.33829411403292</v>
+        <v>89.338294</v>
       </c>
     </row>
     <row r="356">
@@ -4280,10 +4280,10 @@
         <v>45646</v>
       </c>
       <c r="B356">
-        <v>88.37867176149416</v>
+        <v>88.37867199999999</v>
       </c>
       <c r="C356">
-        <v>88.79549761958886</v>
+        <v>88.79549799999999</v>
       </c>
     </row>
     <row r="357">
@@ -4291,10 +4291,10 @@
         <v>45647</v>
       </c>
       <c r="B357">
-        <v>88.18355460652076</v>
+        <v>88.183555</v>
       </c>
       <c r="C357">
-        <v>88.60030980931055</v>
+        <v>88.60030999999999</v>
       </c>
     </row>
     <row r="358">
@@ -4302,10 +4302,10 @@
         <v>45648</v>
       </c>
       <c r="B358">
-        <v>89.15305052273791</v>
+        <v>89.153051</v>
       </c>
       <c r="C358">
-        <v>89.57524649679193</v>
+        <v>89.57524600000001</v>
       </c>
     </row>
     <row r="359">
@@ -4313,10 +4313,10 @@
         <v>45649</v>
       </c>
       <c r="B359">
-        <v>88.48345632573859</v>
+        <v>88.483456</v>
       </c>
       <c r="C359">
-        <v>88.90333384220817</v>
+        <v>88.903334</v>
       </c>
     </row>
     <row r="360">
@@ -4324,10 +4324,10 @@
         <v>45650</v>
       </c>
       <c r="B360">
-        <v>88.83010353834091</v>
+        <v>88.83010400000001</v>
       </c>
       <c r="C360">
-        <v>89.25248182957537</v>
+        <v>89.252482</v>
       </c>
     </row>
     <row r="361">
@@ -4335,10 +4335,10 @@
         <v>45651</v>
       </c>
       <c r="B361">
-        <v>90.07546639458796</v>
+        <v>90.07546600000001</v>
       </c>
       <c r="C361">
-        <v>90.50463411061004</v>
+        <v>90.504634</v>
       </c>
     </row>
     <row r="362">
@@ -4346,10 +4346,10 @@
         <v>45652</v>
       </c>
       <c r="B362">
-        <v>90.57946852610679</v>
+        <v>90.579469</v>
       </c>
       <c r="C362">
-        <v>91.01191029070925</v>
+        <v>91.01191</v>
       </c>
     </row>
     <row r="363">
@@ -4357,10 +4357,10 @@
         <v>45653</v>
       </c>
       <c r="B363">
-        <v>90.59201861318782</v>
+        <v>90.59201899999999</v>
       </c>
       <c r="C363">
-        <v>91.0253931360879</v>
+        <v>91.02539299999999</v>
       </c>
     </row>
     <row r="364">
@@ -4368,10 +4368,10 @@
         <v>45654</v>
       </c>
       <c r="B364">
-        <v>89.75718699538886</v>
+        <v>89.757187</v>
       </c>
       <c r="C364">
-        <v>90.18743265373776</v>
+        <v>90.187433</v>
       </c>
     </row>
     <row r="365">
@@ -4379,10 +4379,10 @@
         <v>45655</v>
       </c>
       <c r="B365">
-        <v>89.53764851335696</v>
+        <v>89.537649</v>
       </c>
       <c r="C365">
-        <v>89.96770452712279</v>
+        <v>89.967705</v>
       </c>
     </row>
     <row r="366">
@@ -4390,10 +4390,10 @@
         <v>45656</v>
       </c>
       <c r="B366">
-        <v>91.43698952735875</v>
+        <v>91.43698999999999</v>
       </c>
       <c r="C366">
-        <v>91.87704922646165</v>
+        <v>91.877049</v>
       </c>
     </row>
     <row r="367">
@@ -4401,10 +4401,10 @@
         <v>45657</v>
       </c>
       <c r="B367">
-        <v>91.25676795948013</v>
+        <v>91.25676799999999</v>
       </c>
       <c r="C367">
-        <v>91.69683958501759</v>
+        <v>91.69683999999999</v>
       </c>
     </row>
     <row r="368">
@@ -4412,10 +4412,10 @@
         <v>45658</v>
       </c>
       <c r="B368">
-        <v>92.06432800713344</v>
+        <v>92.064328</v>
       </c>
       <c r="C368">
-        <v>92.50918103597515</v>
+        <v>92.509181</v>
       </c>
     </row>
     <row r="369">
@@ -4423,10 +4423,10 @@
         <v>45659</v>
       </c>
       <c r="B369">
-        <v>92.03967898037315</v>
+        <v>92.03967900000001</v>
       </c>
       <c r="C369">
-        <v>92.48529974668864</v>
+        <v>92.4853</v>
       </c>
     </row>
     <row r="370">
@@ -4434,10 +4434,10 @@
         <v>45660</v>
       </c>
       <c r="B370">
-        <v>92.25455522559461</v>
+        <v>92.254555</v>
       </c>
       <c r="C370">
-        <v>92.70210526017453</v>
+        <v>92.702105</v>
       </c>
     </row>
     <row r="371">
@@ -4445,10 +4445,10 @@
         <v>45661</v>
       </c>
       <c r="B371">
-        <v>92.44099813850698</v>
+        <v>92.44099799999999</v>
       </c>
       <c r="C371">
-        <v>92.89034337956731</v>
+        <v>92.890343</v>
       </c>
     </row>
     <row r="372">
@@ -4456,10 +4456,10 @@
         <v>45662</v>
       </c>
       <c r="B372">
-        <v>92.54813169757004</v>
+        <v>92.548132</v>
       </c>
       <c r="C372">
-        <v>92.99888946864641</v>
+        <v>92.99888900000001</v>
       </c>
     </row>
     <row r="373">
@@ -4467,10 +4467,10 @@
         <v>45663</v>
       </c>
       <c r="B373">
-        <v>91.15644160349319</v>
+        <v>91.156442</v>
       </c>
       <c r="C373">
-        <v>91.601299480867</v>
+        <v>91.601299</v>
       </c>
     </row>
     <row r="374">
@@ -4478,10 +4478,10 @@
         <v>45664</v>
       </c>
       <c r="B374">
-        <v>92.33913918217495</v>
+        <v>92.339139</v>
       </c>
       <c r="C374">
-        <v>92.79065858028554</v>
+        <v>92.79065900000001</v>
       </c>
     </row>
     <row r="375">
@@ -4489,10 +4489,10 @@
         <v>45665</v>
       </c>
       <c r="B375">
-        <v>92.28876979405108</v>
+        <v>92.28877</v>
       </c>
       <c r="C375">
-        <v>92.74093218856011</v>
+        <v>92.740932</v>
       </c>
     </row>
     <row r="376">
@@ -4500,10 +4500,10 @@
         <v>45666</v>
       </c>
       <c r="B376">
-        <v>93.18302852318689</v>
+        <v>93.183029</v>
       </c>
       <c r="C376">
-        <v>93.6404701940158</v>
+        <v>93.64046999999999</v>
       </c>
     </row>
     <row r="377">
@@ -4511,10 +4511,10 @@
         <v>45667</v>
       </c>
       <c r="B377">
-        <v>92.40895836399876</v>
+        <v>92.408958</v>
       </c>
       <c r="C377">
-        <v>92.86349054060513</v>
+        <v>92.863491</v>
       </c>
     </row>
     <row r="378">
@@ -4522,10 +4522,10 @@
         <v>45668</v>
       </c>
       <c r="B378">
-        <v>90.64165607906595</v>
+        <v>90.641656</v>
       </c>
       <c r="C378">
-        <v>91.08836886739007</v>
+        <v>91.088369</v>
       </c>
     </row>
     <row r="379">
@@ -4533,10 +4533,10 @@
         <v>45669</v>
       </c>
       <c r="B379">
-        <v>90.26060278235865</v>
+        <v>90.260603</v>
       </c>
       <c r="C379">
-        <v>90.70630739328416</v>
+        <v>90.706307</v>
       </c>
     </row>
     <row r="380">
@@ -4544,10 +4544,10 @@
         <v>45670</v>
       </c>
       <c r="B380">
-        <v>90.28498740786381</v>
+        <v>90.284987</v>
       </c>
       <c r="C380">
-        <v>90.73168245512379</v>
+        <v>90.73168200000001</v>
       </c>
     </row>
     <row r="381">
@@ -4555,10 +4555,10 @@
         <v>45671</v>
       </c>
       <c r="B381">
-        <v>90.42371202062077</v>
+        <v>90.42371199999999</v>
       </c>
       <c r="C381">
-        <v>90.87196479420535</v>
+        <v>90.871965</v>
       </c>
     </row>
     <row r="382">
@@ -4566,10 +4566,10 @@
         <v>45672</v>
       </c>
       <c r="B382">
-        <v>90.17914334295637</v>
+        <v>90.179143</v>
       </c>
       <c r="C382">
-        <v>90.62705275129773</v>
+        <v>90.627053</v>
       </c>
     </row>
     <row r="383">
@@ -4577,10 +4577,10 @@
         <v>45673</v>
       </c>
       <c r="B383">
-        <v>89.34397688169624</v>
+        <v>89.343977</v>
       </c>
       <c r="C383">
-        <v>89.7885990969485</v>
+        <v>89.788599</v>
       </c>
     </row>
     <row r="384">
@@ -4588,10 +4588,10 @@
         <v>45674</v>
       </c>
       <c r="B384">
-        <v>88.69964013108536</v>
+        <v>88.69964</v>
       </c>
       <c r="C384">
-        <v>89.14191057203811</v>
+        <v>89.14191099999999</v>
       </c>
     </row>
     <row r="385">
@@ -4599,10 +4599,10 @@
         <v>45675</v>
       </c>
       <c r="B385">
-        <v>88.6374192540419</v>
+        <v>88.63741899999999</v>
       </c>
       <c r="C385">
-        <v>89.08023364178206</v>
+        <v>89.080234</v>
       </c>
     </row>
     <row r="386">
@@ -4610,10 +4610,10 @@
         <v>45676</v>
       </c>
       <c r="B386">
-        <v>89.19351300895514</v>
+        <v>89.193513</v>
       </c>
       <c r="C386">
-        <v>89.63996508435763</v>
+        <v>89.639965</v>
       </c>
     </row>
     <row r="387">
@@ -4621,10 +4621,10 @@
         <v>45677</v>
       </c>
       <c r="B387">
-        <v>89.76697885301161</v>
+        <v>89.76697900000001</v>
       </c>
       <c r="C387">
-        <v>90.21716646474191</v>
+        <v>90.21716600000001</v>
       </c>
     </row>
     <row r="388">
@@ -4632,10 +4632,10 @@
         <v>45678</v>
       </c>
       <c r="B388">
-        <v>88.6310768822418</v>
+        <v>88.631077</v>
       </c>
       <c r="C388">
-        <v>89.07642202034894</v>
+        <v>89.07642199999999</v>
       </c>
     </row>
     <row r="389">
@@ -4643,10 +4643,10 @@
         <v>45679</v>
       </c>
       <c r="B389">
-        <v>89.15768831549016</v>
+        <v>89.15768799999999</v>
       </c>
       <c r="C389">
-        <v>89.60653875809244</v>
+        <v>89.606539</v>
       </c>
     </row>
     <row r="390">
@@ -4654,10 +4654,10 @@
         <v>45680</v>
       </c>
       <c r="B390">
-        <v>88.9435462626661</v>
+        <v>88.943546</v>
       </c>
       <c r="C390">
-        <v>89.392175821721</v>
+        <v>89.39217600000001</v>
       </c>
     </row>
     <row r="391">
@@ -4665,10 +4665,10 @@
         <v>45681</v>
       </c>
       <c r="B391">
-        <v>89.5270638067659</v>
+        <v>89.527064</v>
       </c>
       <c r="C391">
-        <v>89.98011573027007</v>
+        <v>89.980116</v>
       </c>
     </row>
     <row r="392">
@@ -4676,10 +4676,10 @@
         <v>45682</v>
       </c>
       <c r="B392">
-        <v>89.04687575606843</v>
+        <v>89.046876</v>
       </c>
       <c r="C392">
-        <v>89.4989688906124</v>
+        <v>89.498969</v>
       </c>
     </row>
     <row r="393">
@@ -4687,10 +4687,10 @@
         <v>45683</v>
       </c>
       <c r="B393">
-        <v>88.24333167725803</v>
+        <v>88.243332</v>
       </c>
       <c r="C393">
-        <v>88.69280315104997</v>
+        <v>88.692803</v>
       </c>
     </row>
     <row r="394">
@@ -4698,10 +4698,10 @@
         <v>45684</v>
       </c>
       <c r="B394">
-        <v>89.27179705609937</v>
+        <v>89.27179700000001</v>
       </c>
       <c r="C394">
-        <v>89.72736746095146</v>
+        <v>89.727367</v>
       </c>
     </row>
     <row r="395">
@@ -4709,10 +4709,10 @@
         <v>45685</v>
       </c>
       <c r="B395">
-        <v>89.92527925768938</v>
+        <v>89.925279</v>
       </c>
       <c r="C395">
-        <v>90.38567028207399</v>
+        <v>90.38567</v>
       </c>
     </row>
     <row r="396">
@@ -4720,10 +4720,10 @@
         <v>45686</v>
       </c>
       <c r="B396">
-        <v>89.00640996752591</v>
+        <v>89.00641</v>
       </c>
       <c r="C396">
-        <v>89.46295451079351</v>
+        <v>89.46295499999999</v>
       </c>
     </row>
     <row r="397">
@@ -4731,10 +4731,10 @@
         <v>45687</v>
       </c>
       <c r="B397">
-        <v>90.91989079865084</v>
+        <v>90.91989100000001</v>
       </c>
       <c r="C397">
-        <v>91.38772653890635</v>
+        <v>91.387727</v>
       </c>
     </row>
     <row r="398">
@@ -4742,10 +4742,10 @@
         <v>45688</v>
       </c>
       <c r="B398">
-        <v>91.74759043697846</v>
+        <v>91.74759</v>
       </c>
       <c r="C398">
-        <v>92.22056947606423</v>
+        <v>92.220569</v>
       </c>
     </row>
     <row r="399">
@@ -4753,10 +4753,10 @@
         <v>45689</v>
       </c>
       <c r="B399">
-        <v>91.35472855664246</v>
+        <v>91.35472900000001</v>
       </c>
       <c r="C399">
-        <v>91.82719178187193</v>
+        <v>91.827192</v>
       </c>
     </row>
     <row r="400">
@@ -4764,10 +4764,10 @@
         <v>45690</v>
       </c>
       <c r="B400">
-        <v>93.0311191798981</v>
+        <v>93.031119</v>
       </c>
       <c r="C400">
-        <v>93.51378946780963</v>
+        <v>93.513789</v>
       </c>
     </row>
     <row r="401">
@@ -4775,10 +4775,10 @@
         <v>45691</v>
       </c>
       <c r="B401">
-        <v>92.38818445486466</v>
+        <v>92.388184</v>
       </c>
       <c r="C401">
-        <v>92.86904562764448</v>
+        <v>92.869046</v>
       </c>
     </row>
     <row r="402">
@@ -4786,10 +4786,10 @@
         <v>45692</v>
       </c>
       <c r="B402">
-        <v>92.55799211180275</v>
+        <v>92.557992</v>
       </c>
       <c r="C402">
-        <v>93.04126653082024</v>
+        <v>93.041267</v>
       </c>
     </row>
     <row r="403">
@@ -4797,10 +4797,10 @@
         <v>45693</v>
       </c>
       <c r="B403">
-        <v>91.58878717546877</v>
+        <v>91.588787</v>
       </c>
       <c r="C403">
-        <v>92.06851451294995</v>
+        <v>92.068515</v>
       </c>
     </row>
     <row r="404">
@@ -4808,10 +4808,10 @@
         <v>45694</v>
       </c>
       <c r="B404">
-        <v>91.22732843152008</v>
+        <v>91.227328</v>
       </c>
       <c r="C404">
-        <v>91.70667000074569</v>
+        <v>91.70667</v>
       </c>
     </row>
     <row r="405">
@@ -4819,10 +4819,10 @@
         <v>45695</v>
       </c>
       <c r="B405">
-        <v>91.55336554977708</v>
+        <v>91.553366</v>
       </c>
       <c r="C405">
-        <v>92.03593314363816</v>
+        <v>92.035933</v>
       </c>
     </row>
     <row r="406">
@@ -4830,10 +4830,10 @@
         <v>45696</v>
       </c>
       <c r="B406">
-        <v>91.16207583190126</v>
+        <v>91.162076</v>
       </c>
       <c r="C406">
-        <v>91.64408744700376</v>
+        <v>91.644087</v>
       </c>
     </row>
     <row r="407">
@@ -4841,10 +4841,10 @@
         <v>45697</v>
       </c>
       <c r="B407">
-        <v>90.49984164607298</v>
+        <v>90.499842</v>
       </c>
       <c r="C407">
-        <v>90.97984730186354</v>
+        <v>90.97984700000001</v>
       </c>
     </row>
     <row r="408">
@@ -4852,10 +4852,10 @@
         <v>45698</v>
       </c>
       <c r="B408">
-        <v>92.36735527397516</v>
+        <v>92.367355</v>
       </c>
       <c r="C408">
-        <v>92.85879254182262</v>
+        <v>92.85879300000001</v>
       </c>
     </row>
     <row r="409">
@@ -4863,10 +4863,10 @@
         <v>45699</v>
       </c>
       <c r="B409">
-        <v>91.67491232747859</v>
+        <v>91.67491200000001</v>
       </c>
       <c r="C409">
-        <v>92.16354923278635</v>
+        <v>92.163549</v>
       </c>
     </row>
     <row r="410">
@@ -4874,10 +4874,10 @@
         <v>45700</v>
       </c>
       <c r="B410">
-        <v>92.77769227281564</v>
+        <v>92.777692</v>
       </c>
       <c r="C410">
-        <v>93.27310150629995</v>
+        <v>93.27310199999999</v>
       </c>
     </row>
     <row r="411">
@@ -4885,10 +4885,10 @@
         <v>45701</v>
       </c>
       <c r="B411">
-        <v>90.43623927389078</v>
+        <v>90.436239</v>
       </c>
       <c r="C411">
-        <v>90.92001757665625</v>
+        <v>90.920018</v>
       </c>
     </row>
     <row r="412">
@@ -4896,10 +4896,10 @@
         <v>45702</v>
       </c>
       <c r="B412">
-        <v>91.92570958540091</v>
+        <v>91.92571</v>
       </c>
       <c r="C412">
-        <v>92.41834183801195</v>
+        <v>92.418342</v>
       </c>
     </row>
     <row r="413">
@@ -4907,10 +4907,10 @@
         <v>45703</v>
       </c>
       <c r="B413">
-        <v>90.53312893716863</v>
+        <v>90.533129</v>
       </c>
       <c r="C413">
-        <v>91.01917109649541</v>
+        <v>91.019171</v>
       </c>
     </row>
     <row r="414">
@@ -4918,10 +4918,10 @@
         <v>45704</v>
       </c>
       <c r="B414">
-        <v>90.17968300835557</v>
+        <v>90.179683</v>
       </c>
       <c r="C414">
-        <v>90.66469701776904</v>
+        <v>90.664697</v>
       </c>
     </row>
     <row r="415">
@@ -4929,10 +4929,10 @@
         <v>45705</v>
       </c>
       <c r="B415">
-        <v>90.29871689793465</v>
+        <v>90.298717</v>
       </c>
       <c r="C415">
-        <v>90.78524164737443</v>
+        <v>90.785242</v>
       </c>
     </row>
     <row r="416">
@@ -4940,10 +4940,10 @@
         <v>45706</v>
       </c>
       <c r="B416">
-        <v>90.16937896351581</v>
+        <v>90.16937900000001</v>
       </c>
       <c r="C416">
-        <v>90.6560761476221</v>
+        <v>90.656076</v>
       </c>
     </row>
     <row r="417">
@@ -4951,10 +4951,10 @@
         <v>45707</v>
       </c>
       <c r="B417">
-        <v>90.77903432901746</v>
+        <v>90.779034</v>
       </c>
       <c r="C417">
-        <v>91.27025386646291</v>
+        <v>91.27025399999999</v>
       </c>
     </row>
     <row r="418">
@@ -4962,10 +4962,10 @@
         <v>45708</v>
       </c>
       <c r="B418">
-        <v>90.92072010661299</v>
+        <v>90.92072</v>
       </c>
       <c r="C418">
-        <v>91.41358289233737</v>
+        <v>91.413583</v>
       </c>
     </row>
     <row r="419">
@@ -4973,10 +4973,10 @@
         <v>45709</v>
       </c>
       <c r="B419">
-        <v>90.8128835846171</v>
+        <v>90.812884</v>
       </c>
       <c r="C419">
-        <v>91.30603734357074</v>
+        <v>91.306037</v>
       </c>
     </row>
     <row r="420">
@@ -4984,10 +4984,10 @@
         <v>45710</v>
       </c>
       <c r="B420">
-        <v>91.56460717077324</v>
+        <v>91.564607</v>
       </c>
       <c r="C420">
-        <v>92.06272590729154</v>
+        <v>92.062726</v>
       </c>
     </row>
     <row r="421">
@@ -4995,10 +4995,10 @@
         <v>45711</v>
       </c>
       <c r="B421">
-        <v>90.02907705156106</v>
+        <v>90.029077</v>
       </c>
       <c r="C421">
-        <v>90.52033037545544</v>
+        <v>90.52033</v>
       </c>
     </row>
     <row r="422">
@@ -5006,10 +5006,10 @@
         <v>45712</v>
       </c>
       <c r="B422">
-        <v>89.406096763356</v>
+        <v>89.406097</v>
       </c>
       <c r="C422">
-        <v>89.89481272934918</v>
+        <v>89.894813</v>
       </c>
     </row>
     <row r="423">
@@ -5017,10 +5017,10 @@
         <v>45713</v>
       </c>
       <c r="B423">
-        <v>88.75142700564689</v>
+        <v>88.75142700000001</v>
       </c>
       <c r="C423">
-        <v>89.23742008107148</v>
+        <v>89.23742</v>
       </c>
     </row>
     <row r="424">
@@ -5028,10 +5028,10 @@
         <v>45714</v>
       </c>
       <c r="B424">
-        <v>89.2469983375328</v>
+        <v>89.246998</v>
       </c>
       <c r="C424">
-        <v>89.73656559068047</v>
+        <v>89.736566</v>
       </c>
     </row>
     <row r="425">
@@ -5039,10 +5039,10 @@
         <v>45715</v>
       </c>
       <c r="B425">
-        <v>88.53215297037328</v>
+        <v>88.53215299999999</v>
       </c>
       <c r="C425">
-        <v>89.01865251590621</v>
+        <v>89.018653</v>
       </c>
     </row>
     <row r="426">
@@ -5050,10 +5050,10 @@
         <v>45716</v>
       </c>
       <c r="B426">
-        <v>90.4084776131872</v>
+        <v>90.408478</v>
       </c>
       <c r="C426">
-        <v>90.90615958699367</v>
+        <v>90.90616</v>
       </c>
     </row>
     <row r="427">
@@ -5061,10 +5061,10 @@
         <v>45717</v>
       </c>
       <c r="B427">
-        <v>90.52243067963954</v>
+        <v>90.522431</v>
       </c>
       <c r="C427">
-        <v>91.02161274983406</v>
+        <v>91.021613</v>
       </c>
     </row>
     <row r="428">
@@ -5072,10 +5072,10 @@
         <v>45718</v>
       </c>
       <c r="B428">
-        <v>89.98818317292336</v>
+        <v>89.98818300000001</v>
       </c>
       <c r="C428">
-        <v>90.48528682107838</v>
+        <v>90.485287</v>
       </c>
     </row>
     <row r="429">
@@ -5083,10 +5083,10 @@
         <v>45719</v>
       </c>
       <c r="B429">
-        <v>89.7220867577299</v>
+        <v>89.722087</v>
       </c>
       <c r="C429">
-        <v>90.21858556847494</v>
+        <v>90.218586</v>
       </c>
     </row>
     <row r="430">
@@ -5094,10 +5094,10 @@
         <v>45720</v>
       </c>
       <c r="B430">
-        <v>91.20929152782563</v>
+        <v>91.209292</v>
       </c>
       <c r="C430">
-        <v>91.71489959864937</v>
+        <v>91.7149</v>
       </c>
     </row>
     <row r="431">
@@ -5105,10 +5105,10 @@
         <v>45721</v>
       </c>
       <c r="B431">
-        <v>92.31411608547087</v>
+        <v>92.314116</v>
       </c>
       <c r="C431">
-        <v>92.82673873753097</v>
+        <v>92.826739</v>
       </c>
     </row>
     <row r="432">
@@ -5116,10 +5116,10 @@
         <v>45722</v>
       </c>
       <c r="B432">
-        <v>92.29988795201639</v>
+        <v>92.299888</v>
       </c>
       <c r="C432">
-        <v>92.81332158137465</v>
+        <v>92.813322</v>
       </c>
     </row>
     <row r="433">
@@ -5127,10 +5127,10 @@
         <v>45723</v>
       </c>
       <c r="B433">
-        <v>91.1474089185246</v>
+        <v>91.147409</v>
       </c>
       <c r="C433">
-        <v>91.6553105720154</v>
+        <v>91.655311</v>
       </c>
     </row>
     <row r="434">
@@ -5138,10 +5138,10 @@
         <v>45724</v>
       </c>
       <c r="B434">
-        <v>90.20958690693797</v>
+        <v>90.209587</v>
       </c>
       <c r="C434">
-        <v>90.71313257287785</v>
+        <v>90.713133</v>
       </c>
     </row>
     <row r="435">
@@ -5149,10 +5149,10 @@
         <v>45725</v>
       </c>
       <c r="B435">
-        <v>90.21146407476587</v>
+        <v>90.21146400000001</v>
       </c>
       <c r="C435">
-        <v>90.71589009319568</v>
+        <v>90.71589</v>
       </c>
     </row>
     <row r="436">
@@ -5160,10 +5160,10 @@
         <v>45726</v>
       </c>
       <c r="B436">
-        <v>90.666059723364</v>
+        <v>90.66606</v>
       </c>
       <c r="C436">
-        <v>91.17390192288693</v>
+        <v>91.173902</v>
       </c>
     </row>
     <row r="437">
@@ -5171,10 +5171,10 @@
         <v>45727</v>
       </c>
       <c r="B437">
-        <v>90.43783290471119</v>
+        <v>90.437833</v>
       </c>
       <c r="C437">
-        <v>90.94526882519234</v>
+        <v>90.945269</v>
       </c>
     </row>
     <row r="438">
@@ -5182,10 +5182,10 @@
         <v>45728</v>
       </c>
       <c r="B438">
-        <v>91.10095762237103</v>
+        <v>91.10095800000001</v>
       </c>
       <c r="C438">
-        <v>91.61362022168781</v>
+        <v>91.61362</v>
       </c>
     </row>
     <row r="439">
@@ -5193,10 +5193,10 @@
         <v>45729</v>
       </c>
       <c r="B439">
-        <v>90.30200263656745</v>
+        <v>90.302003</v>
       </c>
       <c r="C439">
-        <v>90.81159435825803</v>
+        <v>90.811594</v>
       </c>
     </row>
     <row r="440">
@@ -5204,10 +5204,10 @@
         <v>45730</v>
       </c>
       <c r="B440">
-        <v>89.90129177676479</v>
+        <v>89.901292</v>
       </c>
       <c r="C440">
-        <v>90.41010839067312</v>
+        <v>90.41010799999999</v>
       </c>
     </row>
     <row r="441">
@@ -5215,10 +5215,10 @@
         <v>45731</v>
       </c>
       <c r="B441">
-        <v>91.06843945071309</v>
+        <v>91.068439</v>
       </c>
       <c r="C441">
-        <v>91.58536730033202</v>
+        <v>91.58536700000001</v>
       </c>
     </row>
     <row r="442">
@@ -5226,10 +5226,10 @@
         <v>45732</v>
       </c>
       <c r="B442">
-        <v>91.18800948473636</v>
+        <v>91.18800899999999</v>
       </c>
       <c r="C442">
-        <v>91.70712354654439</v>
+        <v>91.70712399999999</v>
       </c>
     </row>
     <row r="443">
@@ -5237,10 +5237,10 @@
         <v>45733</v>
       </c>
       <c r="B443">
-        <v>90.14113044357389</v>
+        <v>90.14113</v>
       </c>
       <c r="C443">
-        <v>90.6557750639703</v>
+        <v>90.65577500000001</v>
       </c>
     </row>
     <row r="444">
@@ -5248,10 +5248,10 @@
         <v>45734</v>
       </c>
       <c r="B444">
-        <v>90.99814157708424</v>
+        <v>90.998142</v>
       </c>
       <c r="C444">
-        <v>91.51918356144063</v>
+        <v>91.519184</v>
       </c>
     </row>
     <row r="445">
@@ -5259,10 +5259,10 @@
         <v>45735</v>
       </c>
       <c r="B445">
-        <v>91.19605760665952</v>
+        <v>91.19605799999999</v>
       </c>
       <c r="C445">
-        <v>91.71974053848294</v>
+        <v>91.719741</v>
       </c>
     </row>
     <row r="446">
@@ -5270,10 +5270,10 @@
         <v>45736</v>
       </c>
       <c r="B446">
-        <v>90.60451965912591</v>
+        <v>90.60451999999999</v>
       </c>
       <c r="C446">
-        <v>91.12630370625691</v>
+        <v>91.126304</v>
       </c>
     </row>
     <row r="447">
@@ -5281,10 +5281,10 @@
         <v>45737</v>
       </c>
       <c r="B447">
-        <v>90.71764725216153</v>
+        <v>90.717647</v>
       </c>
       <c r="C447">
-        <v>91.24158264118914</v>
+        <v>91.24158300000001</v>
       </c>
     </row>
     <row r="448">
@@ -5292,10 +5292,10 @@
         <v>45738</v>
       </c>
       <c r="B448">
-        <v>91.36538705864781</v>
+        <v>91.365387</v>
       </c>
       <c r="C448">
-        <v>91.89399359700542</v>
+        <v>91.89399400000001</v>
       </c>
     </row>
     <row r="449">
@@ -5303,10 +5303,10 @@
         <v>45739</v>
       </c>
       <c r="B449">
-        <v>91.13858600895426</v>
+        <v>91.138586</v>
       </c>
       <c r="C449">
-        <v>91.66675935193163</v>
+        <v>91.666759</v>
       </c>
     </row>
     <row r="450">
@@ -5314,10 +5314,10 @@
         <v>45740</v>
       </c>
       <c r="B450">
-        <v>90.95457673350379</v>
+        <v>90.954577</v>
       </c>
       <c r="C450">
-        <v>91.48256091760651</v>
+        <v>91.482561</v>
       </c>
     </row>
     <row r="451">
@@ -5325,10 +5325,10 @@
         <v>45741</v>
       </c>
       <c r="B451">
-        <v>90.61646969386945</v>
+        <v>90.61647000000001</v>
       </c>
       <c r="C451">
-        <v>91.14336516640972</v>
+        <v>91.143365</v>
       </c>
     </row>
     <row r="452">
@@ -5336,10 +5336,10 @@
         <v>45742</v>
       </c>
       <c r="B452">
-        <v>90.33044195531049</v>
+        <v>90.33044200000001</v>
       </c>
       <c r="C452">
-        <v>90.85654552356786</v>
+        <v>90.85654599999999</v>
       </c>
     </row>
     <row r="453">
@@ -5347,10 +5347,10 @@
         <v>45743</v>
       </c>
       <c r="B453">
-        <v>90.81316897171099</v>
+        <v>90.813169</v>
       </c>
       <c r="C453">
-        <v>91.34295993124236</v>
+        <v>91.34296000000001</v>
       </c>
     </row>
     <row r="454">
@@ -5358,10 +5358,10 @@
         <v>45744</v>
       </c>
       <c r="B454">
-        <v>92.00795427866137</v>
+        <v>92.007954</v>
       </c>
       <c r="C454">
-        <v>92.54560286307515</v>
+        <v>92.545603</v>
       </c>
     </row>
     <row r="455">
@@ -5369,10 +5369,10 @@
         <v>45745</v>
       </c>
       <c r="B455">
-        <v>89.85484909800081</v>
+        <v>89.854849</v>
       </c>
       <c r="C455">
-        <v>90.38078267075142</v>
+        <v>90.38078299999999</v>
       </c>
     </row>
     <row r="456">
@@ -5380,10 +5380,10 @@
         <v>45746</v>
       </c>
       <c r="B456">
-        <v>89.4312476964071</v>
+        <v>89.431248</v>
       </c>
       <c r="C456">
-        <v>89.95556445167252</v>
+        <v>89.955564</v>
       </c>
     </row>
     <row r="457">
@@ -5391,10 +5391,10 @@
         <v>45747</v>
       </c>
       <c r="B457">
-        <v>89.81236468056576</v>
+        <v>89.812365</v>
       </c>
       <c r="C457">
-        <v>90.33978211296115</v>
+        <v>90.339782</v>
       </c>
     </row>
     <row r="458">
@@ -5402,10 +5402,10 @@
         <v>45748</v>
       </c>
       <c r="B458">
-        <v>90.01733210763958</v>
+        <v>90.017332</v>
       </c>
       <c r="C458">
-        <v>90.54682145131868</v>
+        <v>90.54682099999999</v>
       </c>
     </row>
     <row r="459">
@@ -5413,10 +5413,10 @@
         <v>45749</v>
       </c>
       <c r="B459">
-        <v>90.68377594042923</v>
+        <v>90.68377599999999</v>
       </c>
       <c r="C459">
-        <v>91.21806005102356</v>
+        <v>91.21805999999999</v>
       </c>
     </row>
     <row r="460">
@@ -5424,10 +5424,10 @@
         <v>45750</v>
       </c>
       <c r="B460">
-        <v>91.46355419233041</v>
+        <v>91.463554</v>
       </c>
       <c r="C460">
-        <v>92.00331476335288</v>
+        <v>92.003315</v>
       </c>
     </row>
     <row r="461">
@@ -5435,10 +5435,10 @@
         <v>45751</v>
       </c>
       <c r="B461">
-        <v>92.12548033203819</v>
+        <v>92.12548</v>
       </c>
       <c r="C461">
-        <v>92.67003578878854</v>
+        <v>92.670036</v>
       </c>
     </row>
     <row r="462">
@@ -5446,10 +5446,10 @@
         <v>45752</v>
       </c>
       <c r="B462">
-        <v>92.85061606694065</v>
+        <v>92.850616</v>
       </c>
       <c r="C462">
-        <v>93.40035343026894</v>
+        <v>93.400353</v>
       </c>
     </row>
     <row r="463">
@@ -5457,10 +5457,10 @@
         <v>45753</v>
       </c>
       <c r="B463">
-        <v>92.39217862173365</v>
+        <v>92.392179</v>
       </c>
       <c r="C463">
-        <v>92.94009293276851</v>
+        <v>92.940093</v>
       </c>
     </row>
     <row r="464">
@@ -5468,10 +5468,10 @@
         <v>45754</v>
       </c>
       <c r="B464">
-        <v>91.58903891786484</v>
+        <v>91.589039</v>
       </c>
       <c r="C464">
-        <v>92.13307382464119</v>
+        <v>92.13307399999999</v>
       </c>
     </row>
     <row r="465">
@@ -5479,10 +5479,10 @@
         <v>45755</v>
       </c>
       <c r="B465">
-        <v>91.7145494617692</v>
+        <v>91.71454900000001</v>
       </c>
       <c r="C465">
-        <v>92.26021457846373</v>
+        <v>92.260215</v>
       </c>
     </row>
     <row r="466">
@@ -5490,10 +5490,10 @@
         <v>45756</v>
       </c>
       <c r="B466">
-        <v>90.49714007342951</v>
+        <v>90.49714</v>
       </c>
       <c r="C466">
-        <v>91.0364350360629</v>
+        <v>91.036435</v>
       </c>
     </row>
     <row r="467">
@@ -5501,10 +5501,10 @@
         <v>45757</v>
       </c>
       <c r="B467">
-        <v>91.27436231671166</v>
+        <v>91.274362</v>
       </c>
       <c r="C467">
-        <v>91.81916939354066</v>
+        <v>91.819169</v>
       </c>
     </row>
     <row r="468">
@@ -5512,10 +5512,10 @@
         <v>45758</v>
       </c>
       <c r="B468">
-        <v>91.1679546526791</v>
+        <v>91.16795500000001</v>
       </c>
       <c r="C468">
-        <v>91.71300602891101</v>
+        <v>91.71300599999999</v>
       </c>
     </row>
     <row r="469">
@@ -5523,10 +5523,10 @@
         <v>45759</v>
       </c>
       <c r="B469">
-        <v>90.69812103248726</v>
+        <v>90.698121</v>
       </c>
       <c r="C469">
-        <v>91.24123840083701</v>
+        <v>91.241238</v>
       </c>
     </row>
     <row r="470">
@@ -5534,10 +5534,10 @@
         <v>45760</v>
       </c>
       <c r="B470">
-        <v>91.17790478631925</v>
+        <v>91.177905</v>
       </c>
       <c r="C470">
-        <v>91.72477473823635</v>
+        <v>91.72477499999999</v>
       </c>
     </row>
     <row r="471">
@@ -5545,10 +5545,10 @@
         <v>45761</v>
       </c>
       <c r="B471">
-        <v>91.07214636595343</v>
+        <v>91.072146</v>
       </c>
       <c r="C471">
-        <v>91.61926053304647</v>
+        <v>91.61926099999999</v>
       </c>
     </row>
     <row r="472">
@@ -5556,10 +5556,10 @@
         <v>45762</v>
       </c>
       <c r="B472">
-        <v>91.308666028907</v>
+        <v>91.308666</v>
       </c>
       <c r="C472">
-        <v>91.85808191002394</v>
+        <v>91.858082</v>
       </c>
     </row>
     <row r="473">
@@ -5567,10 +5567,10 @@
         <v>45763</v>
       </c>
       <c r="B473">
-        <v>91.60155609119983</v>
+        <v>91.601556</v>
       </c>
       <c r="C473">
-        <v>92.15361798974479</v>
+        <v>92.15361799999999</v>
       </c>
     </row>
     <row r="474">
@@ -5578,10 +5578,10 @@
         <v>45764</v>
       </c>
       <c r="B474">
-        <v>92.09648929781925</v>
+        <v>92.09648900000001</v>
       </c>
       <c r="C474">
-        <v>92.65242249069135</v>
+        <v>92.652422</v>
       </c>
     </row>
     <row r="475">
@@ -5589,10 +5589,10 @@
         <v>45765</v>
       </c>
       <c r="B475">
-        <v>92.68738840988972</v>
+        <v>92.687388</v>
       </c>
       <c r="C475">
-        <v>93.24778267117351</v>
+        <v>93.247783</v>
       </c>
     </row>
     <row r="476">
@@ -5600,10 +5600,10 @@
         <v>45766</v>
       </c>
       <c r="B476">
-        <v>91.76298176867577</v>
+        <v>91.76298199999999</v>
       </c>
       <c r="C476">
-        <v>92.31867224776296</v>
+        <v>92.31867200000001</v>
       </c>
     </row>
     <row r="477">
@@ -5611,10 +5611,10 @@
         <v>45767</v>
       </c>
       <c r="B477">
-        <v>93.26887157989339</v>
+        <v>93.268872</v>
       </c>
       <c r="C477">
-        <v>93.83458107806774</v>
+        <v>93.834581</v>
       </c>
     </row>
     <row r="478">
@@ -5622,10 +5622,10 @@
         <v>45768</v>
       </c>
       <c r="B478">
-        <v>94.78964567623761</v>
+        <v>94.789646</v>
       </c>
       <c r="C478">
-        <v>95.36549367954828</v>
+        <v>95.365494</v>
       </c>
     </row>
     <row r="479">
@@ -5633,10 +5633,10 @@
         <v>45769</v>
       </c>
       <c r="B479">
-        <v>95.99714085005945</v>
+        <v>95.997141</v>
       </c>
       <c r="C479">
-        <v>96.58125051523011</v>
+        <v>96.58125099999999</v>
       </c>
     </row>
     <row r="480">
@@ -5644,10 +5644,10 @@
         <v>45770</v>
       </c>
       <c r="B480">
-        <v>98.103517178492</v>
+        <v>98.103517</v>
       </c>
       <c r="C480">
-        <v>98.70138986806315</v>
+        <v>98.70139</v>
       </c>
     </row>
     <row r="481">
@@ -5655,10 +5655,10 @@
         <v>45771</v>
       </c>
       <c r="B481">
-        <v>98.35060928446454</v>
+        <v>98.35060900000001</v>
       </c>
       <c r="C481">
-        <v>98.95093666857608</v>
+        <v>98.950937</v>
       </c>
     </row>
     <row r="482">
@@ -5666,10 +5666,10 @@
         <v>45772</v>
       </c>
       <c r="B482">
-        <v>97.96063158111112</v>
+        <v>97.960632</v>
       </c>
       <c r="C482">
-        <v>98.55952364688775</v>
+        <v>98.559524</v>
       </c>
     </row>
     <row r="483">
@@ -5677,10 +5677,10 @@
         <v>45773</v>
       </c>
       <c r="B483">
-        <v>98.41960475115603</v>
+        <v>98.419605</v>
       </c>
       <c r="C483">
-        <v>99.02225231895834</v>
+        <v>99.02225199999999</v>
       </c>
     </row>
     <row r="484">
@@ -5688,10 +5688,10 @@
         <v>45774</v>
       </c>
       <c r="B484">
-        <v>99.20949526574599</v>
+        <v>99.209495</v>
       </c>
       <c r="C484">
-        <v>99.81793668212656</v>
+        <v>99.817937</v>
       </c>
     </row>
     <row r="485">
@@ -5699,10 +5699,10 @@
         <v>45775</v>
       </c>
       <c r="B485">
-        <v>99.70456863619523</v>
+        <v>99.70456900000001</v>
       </c>
       <c r="C485">
-        <v>100.3170082248711</v>
+        <v>100.317008</v>
       </c>
     </row>
     <row r="486">
@@ -5710,10 +5710,10 @@
         <v>45776</v>
       </c>
       <c r="B486">
-        <v>100.3692295637061</v>
+        <v>100.36923</v>
       </c>
       <c r="C486">
-        <v>100.9867202218007</v>
+        <v>100.98672</v>
       </c>
     </row>
     <row r="487">
@@ -5721,10 +5721,10 @@
         <v>45777</v>
       </c>
       <c r="B487">
-        <v>100.8189801221151</v>
+        <v>100.81898</v>
       </c>
       <c r="C487">
-        <v>101.4402104411734</v>
+        <v>101.44021</v>
       </c>
     </row>
     <row r="488">
@@ -5732,10 +5732,10 @@
         <v>45778</v>
       </c>
       <c r="B488">
-        <v>100.4192335825598</v>
+        <v>100.419234</v>
       </c>
       <c r="C488">
-        <v>101.0389695900053</v>
+        <v>101.03897</v>
       </c>
     </row>
     <row r="489">
@@ -5743,10 +5743,10 @@
         <v>45779</v>
       </c>
       <c r="B489">
-        <v>101.224303655183</v>
+        <v>101.224304</v>
       </c>
       <c r="C489">
-        <v>101.8499847812258</v>
+        <v>101.849985</v>
       </c>
     </row>
     <row r="490">
@@ -5754,10 +5754,10 @@
         <v>45780</v>
       </c>
       <c r="B490">
-        <v>101.1233470923658</v>
+        <v>101.123347</v>
       </c>
       <c r="C490">
-        <v>101.7493798665321</v>
+        <v>101.74938</v>
       </c>
     </row>
     <row r="491">
@@ -5765,10 +5765,10 @@
         <v>45781</v>
       </c>
       <c r="B491">
-        <v>100.8442434955242</v>
+        <v>100.844243</v>
       </c>
       <c r="C491">
-        <v>101.4700184786182</v>
+        <v>101.470018</v>
       </c>
     </row>
     <row r="492">
@@ -5776,10 +5776,10 @@
         <v>45782</v>
       </c>
       <c r="B492">
-        <v>102.3354329543934</v>
+        <v>102.335433</v>
       </c>
       <c r="C492">
-        <v>102.9721539861303</v>
+        <v>102.972154</v>
       </c>
     </row>
     <row r="493">
@@ -5787,10 +5787,10 @@
         <v>45783</v>
       </c>
       <c r="B493">
-        <v>103.0210152901265</v>
+        <v>103.021015</v>
       </c>
       <c r="C493">
-        <v>103.6637059948621</v>
+        <v>103.663706</v>
       </c>
     </row>
     <row r="494">
@@ -5798,10 +5798,10 @@
         <v>45784</v>
       </c>
       <c r="B494">
-        <v>101.6195229011922</v>
+        <v>101.619523</v>
       </c>
       <c r="C494">
-        <v>102.2551513686935</v>
+        <v>102.255151</v>
       </c>
     </row>
     <row r="495">
@@ -5809,10 +5809,10 @@
         <v>45785</v>
       </c>
       <c r="B495">
-        <v>100.0222361425411</v>
+        <v>100.022236</v>
       </c>
       <c r="C495">
-        <v>100.6495281064668</v>
+        <v>100.649528</v>
       </c>
     </row>
     <row r="496">
@@ -5820,10 +5820,10 @@
         <v>45786</v>
       </c>
       <c r="B496">
-        <v>101.4549014549852</v>
+        <v>101.454901</v>
       </c>
       <c r="C496">
-        <v>102.0928566403148</v>
+        <v>102.092857</v>
       </c>
     </row>
     <row r="497">
@@ -5831,10 +5831,10 @@
         <v>45787</v>
       </c>
       <c r="B497">
-        <v>100.5597498807304</v>
+        <v>100.55975</v>
       </c>
       <c r="C497">
-        <v>101.1930466329031</v>
+        <v>101.193047</v>
       </c>
     </row>
     <row r="498">
@@ -5842,10 +5842,10 @@
         <v>45788</v>
       </c>
       <c r="B498">
-        <v>100.4045399699833</v>
+        <v>100.40454</v>
       </c>
       <c r="C498">
-        <v>101.0385201477372</v>
+        <v>101.03852</v>
       </c>
     </row>
     <row r="499">
@@ -5853,10 +5853,10 @@
         <v>45789</v>
       </c>
       <c r="B499">
-        <v>100.1799004943001</v>
+        <v>100.1799</v>
       </c>
       <c r="C499">
-        <v>100.8141194452106</v>
+        <v>100.814119</v>
       </c>
     </row>
     <row r="500">
@@ -5864,10 +5864,10 @@
         <v>45790</v>
       </c>
       <c r="B500">
-        <v>99.28882753653419</v>
+        <v>99.288828</v>
       </c>
       <c r="C500">
-        <v>99.9190477738307</v>
+        <v>99.919048</v>
       </c>
     </row>
     <row r="501">
@@ -5875,10 +5875,10 @@
         <v>45791</v>
       </c>
       <c r="B501">
-        <v>99.1989482204701</v>
+        <v>99.198948</v>
       </c>
       <c r="C501">
-        <v>99.83023899446202</v>
+        <v>99.83023900000001</v>
       </c>
     </row>
     <row r="502">
@@ -5886,10 +5886,10 @@
         <v>45792</v>
       </c>
       <c r="B502">
-        <v>99.13815124631986</v>
+        <v>99.13815099999999</v>
       </c>
       <c r="C502">
-        <v>99.77069516805574</v>
+        <v>99.770695</v>
       </c>
     </row>
     <row r="503">
@@ -5897,10 +5897,10 @@
         <v>45793</v>
       </c>
       <c r="B503">
-        <v>98.56789569059819</v>
+        <v>98.567896</v>
       </c>
       <c r="C503">
-        <v>99.19832540318822</v>
+        <v>99.198325</v>
       </c>
     </row>
     <row r="504">
@@ -5908,10 +5908,10 @@
         <v>45794</v>
       </c>
       <c r="B504">
-        <v>98.16010936619803</v>
+        <v>98.16010900000001</v>
       </c>
       <c r="C504">
-        <v>98.78955484563697</v>
+        <v>98.78955499999999</v>
       </c>
     </row>
     <row r="505">
@@ -5919,10 +5919,10 @@
         <v>45795</v>
       </c>
       <c r="B505">
-        <v>98.4418530235485</v>
+        <v>98.44185299999999</v>
       </c>
       <c r="C505">
-        <v>99.07473377870674</v>
+        <v>99.07473400000001</v>
       </c>
     </row>
     <row r="506">
@@ -5930,10 +5930,10 @@
         <v>45796</v>
       </c>
       <c r="B506">
-        <v>98.82807712404286</v>
+        <v>98.82807699999999</v>
       </c>
       <c r="C506">
-        <v>99.46507593532394</v>
+        <v>99.465076</v>
       </c>
     </row>
     <row r="507">
@@ -5941,10 +5941,10 @@
         <v>45797</v>
       </c>
       <c r="B507">
-        <v>98.84002788977334</v>
+        <v>98.840028</v>
       </c>
       <c r="C507">
-        <v>99.47873898351175</v>
+        <v>99.478739</v>
       </c>
     </row>
     <row r="508">
@@ -5952,10 +5952,10 @@
         <v>45798</v>
       </c>
       <c r="B508">
-        <v>98.55764650478085</v>
+        <v>98.557647</v>
       </c>
       <c r="C508">
-        <v>99.19616343894884</v>
+        <v>99.196163</v>
       </c>
     </row>
     <row r="509">
@@ -5963,10 +5963,10 @@
         <v>45799</v>
       </c>
       <c r="B509">
-        <v>97.75792274997937</v>
+        <v>97.75792300000001</v>
       </c>
       <c r="C509">
-        <v>98.39285287487571</v>
+        <v>98.392853</v>
       </c>
     </row>
     <row r="510">
@@ -5974,10 +5974,10 @@
         <v>45800</v>
       </c>
       <c r="B510">
-        <v>98.32000677677919</v>
+        <v>98.320007</v>
       </c>
       <c r="C510">
-        <v>98.96021432370587</v>
+        <v>98.96021399999999</v>
       </c>
     </row>
     <row r="511">
@@ -5985,10 +5985,10 @@
         <v>45801</v>
       </c>
       <c r="B511">
-        <v>97.97431053457004</v>
+        <v>97.974311</v>
       </c>
       <c r="C511">
-        <v>98.61388812847889</v>
+        <v>98.613888</v>
       </c>
     </row>
     <row r="512">
@@ -5996,10 +5996,10 @@
         <v>45802</v>
       </c>
       <c r="B512">
-        <v>96.19764479543127</v>
+        <v>96.19764499999999</v>
       </c>
       <c r="C512">
-        <v>96.82721595909634</v>
+        <v>96.82721600000001</v>
       </c>
     </row>
     <row r="513">
@@ -6007,10 +6007,10 @@
         <v>45803</v>
       </c>
       <c r="B513">
-        <v>96.19785919989505</v>
+        <v>96.19785899999999</v>
       </c>
       <c r="C513">
-        <v>96.82902346363504</v>
+        <v>96.82902300000001</v>
       </c>
     </row>
     <row r="514">
@@ -6018,10 +6018,10 @@
         <v>45804</v>
       </c>
       <c r="B514">
-        <v>96.56237332728993</v>
+        <v>96.56237299999999</v>
       </c>
       <c r="C514">
-        <v>97.19752696096113</v>
+        <v>97.19752699999999</v>
       </c>
     </row>
     <row r="515">
@@ -6029,10 +6029,10 @@
         <v>45805</v>
       </c>
       <c r="B515">
-        <v>96.40069431856297</v>
+        <v>96.400694</v>
       </c>
       <c r="C515">
-        <v>97.03637958952818</v>
+        <v>97.03637999999999</v>
       </c>
     </row>
     <row r="516">
@@ -6040,10 +6040,10 @@
         <v>45806</v>
       </c>
       <c r="B516">
-        <v>94.58104425018708</v>
+        <v>94.58104400000001</v>
       </c>
       <c r="C516">
-        <v>95.20629541034067</v>
+        <v>95.206295</v>
       </c>
     </row>
     <row r="517">
@@ -6051,10 +6051,10 @@
         <v>45807</v>
       </c>
       <c r="B517">
-        <v>94.59562563741763</v>
+        <v>94.595626</v>
       </c>
       <c r="C517">
-        <v>95.22253848054014</v>
+        <v>95.222538</v>
       </c>
     </row>
     <row r="518">
@@ -6062,10 +6062,10 @@
         <v>45808</v>
       </c>
       <c r="B518">
-        <v>95.80834859514781</v>
+        <v>95.80834900000001</v>
       </c>
       <c r="C518">
-        <v>96.44488388987683</v>
+        <v>96.444884</v>
       </c>
     </row>
     <row r="519">
@@ -6073,10 +6073,10 @@
         <v>45809</v>
       </c>
       <c r="B519">
-        <v>94.37622196535348</v>
+        <v>94.376222</v>
       </c>
       <c r="C519">
-        <v>95.00480415052407</v>
+        <v>95.00480399999999</v>
       </c>
     </row>
     <row r="520">
@@ -6084,10 +6084,10 @@
         <v>45810</v>
       </c>
       <c r="B520">
-        <v>93.98136456976907</v>
+        <v>93.981365</v>
       </c>
       <c r="C520">
-        <v>94.60887205333046</v>
+        <v>94.60887200000001</v>
       </c>
     </row>
     <row r="521">
@@ -6095,10 +6095,10 @@
         <v>45811</v>
       </c>
       <c r="B521">
-        <v>93.90505730942851</v>
+        <v>93.905057</v>
       </c>
       <c r="C521">
-        <v>94.53360925872158</v>
+        <v>94.533609</v>
       </c>
     </row>
     <row r="522">
@@ -6106,10 +6106,10 @@
         <v>45812</v>
       </c>
       <c r="B522">
-        <v>93.5498694883272</v>
+        <v>93.549869</v>
       </c>
       <c r="C522">
-        <v>94.17759210588682</v>
+        <v>94.177592</v>
       </c>
     </row>
     <row r="523">
@@ -6117,10 +6117,10 @@
         <v>45813</v>
       </c>
       <c r="B523">
-        <v>93.27082898943297</v>
+        <v>93.27082900000001</v>
       </c>
       <c r="C523">
-        <v>93.89822275605897</v>
+        <v>93.898223</v>
       </c>
     </row>
     <row r="524">
@@ -6128,10 +6128,10 @@
         <v>45814</v>
       </c>
       <c r="B524">
-        <v>93.38334164442283</v>
+        <v>93.383342</v>
       </c>
       <c r="C524">
-        <v>94.01303764360748</v>
+        <v>94.01303799999999</v>
       </c>
     </row>
     <row r="525">
@@ -6139,10 +6139,10 @@
         <v>45815</v>
       </c>
       <c r="B525">
-        <v>91.60850921247278</v>
+        <v>91.608509</v>
       </c>
       <c r="C525">
-        <v>92.22775334629141</v>
+        <v>92.22775300000001</v>
       </c>
     </row>
     <row r="526">
@@ -6150,10 +6150,10 @@
         <v>45816</v>
       </c>
       <c r="B526">
-        <v>91.46501705739338</v>
+        <v>91.465017</v>
       </c>
       <c r="C526">
-        <v>92.08480494065611</v>
+        <v>92.084805</v>
       </c>
     </row>
     <row r="527">
@@ -6161,10 +6161,10 @@
         <v>45817</v>
       </c>
       <c r="B527">
-        <v>90.50427189548475</v>
+        <v>90.504272</v>
       </c>
       <c r="C527">
-        <v>91.11904738475005</v>
+        <v>91.11904699999999</v>
       </c>
     </row>
     <row r="528">
@@ -6172,10 +6172,10 @@
         <v>45818</v>
       </c>
       <c r="B528">
-        <v>90.31971860145347</v>
+        <v>90.31971900000001</v>
       </c>
       <c r="C528">
-        <v>90.93473526631627</v>
+        <v>90.934735</v>
       </c>
     </row>
     <row r="529">
@@ -6183,10 +6183,10 @@
         <v>45819</v>
       </c>
       <c r="B529">
-        <v>90.9630881489238</v>
+        <v>90.963088</v>
       </c>
       <c r="C529">
-        <v>91.58399120649476</v>
+        <v>91.583991</v>
       </c>
     </row>
     <row r="530">
@@ -6194,10 +6194,10 @@
         <v>45820</v>
       </c>
       <c r="B530">
-        <v>91.11876762799406</v>
+        <v>91.118768</v>
       </c>
       <c r="C530">
-        <v>91.74224141413816</v>
+        <v>91.74224100000001</v>
       </c>
     </row>
     <row r="531">
@@ -6205,10 +6205,10 @@
         <v>45821</v>
       </c>
       <c r="B531">
-        <v>91.77246095396173</v>
+        <v>91.77246100000001</v>
       </c>
       <c r="C531">
-        <v>92.40192651420244</v>
+        <v>92.401927</v>
       </c>
     </row>
     <row r="532">
@@ -6216,10 +6216,10 @@
         <v>45822</v>
       </c>
       <c r="B532">
-        <v>91.66677402445629</v>
+        <v>91.666774</v>
       </c>
       <c r="C532">
-        <v>92.29703187907499</v>
+        <v>92.297032</v>
       </c>
     </row>
     <row r="533">
@@ -6227,10 +6227,10 @@
         <v>45823</v>
       </c>
       <c r="B533">
-        <v>90.44679647438059</v>
+        <v>90.44679600000001</v>
       </c>
       <c r="C533">
-        <v>91.07016336557214</v>
+        <v>91.07016299999999</v>
       </c>
     </row>
     <row r="534">
@@ -6238,10 +6238,10 @@
         <v>45824</v>
       </c>
       <c r="B534">
-        <v>90.93438169937981</v>
+        <v>90.934382</v>
       </c>
       <c r="C534">
-        <v>91.56261419524274</v>
+        <v>91.562614</v>
       </c>
     </row>
     <row r="535">
@@ -6249,10 +6249,10 @@
         <v>45825</v>
       </c>
       <c r="B535">
-        <v>89.89422284502456</v>
+        <v>89.894223</v>
       </c>
       <c r="C535">
-        <v>90.5167571969843</v>
+        <v>90.516757</v>
       </c>
     </row>
     <row r="536">
@@ -6260,10 +6260,10 @@
         <v>45826</v>
       </c>
       <c r="B536">
-        <v>89.34890733677162</v>
+        <v>89.348907</v>
       </c>
       <c r="C536">
-        <v>89.96914420924892</v>
+        <v>89.969144</v>
       </c>
     </row>
     <row r="537">
@@ -6271,10 +6271,10 @@
         <v>45827</v>
       </c>
       <c r="B537">
-        <v>88.93533436395994</v>
+        <v>88.935334</v>
       </c>
       <c r="C537">
-        <v>89.55417243172525</v>
+        <v>89.55417199999999</v>
       </c>
     </row>
     <row r="538">
@@ -6282,10 +6282,10 @@
         <v>45828</v>
       </c>
       <c r="B538">
-        <v>88.86711151485224</v>
+        <v>88.86711200000001</v>
       </c>
       <c r="C538">
-        <v>89.48694587427789</v>
+        <v>89.486946</v>
       </c>
     </row>
     <row r="539">
@@ -6293,10 +6293,10 @@
         <v>45829</v>
       </c>
       <c r="B539">
-        <v>88.46296832752618</v>
+        <v>88.462968</v>
       </c>
       <c r="C539">
-        <v>89.0814481912587</v>
+        <v>89.08144799999999</v>
       </c>
     </row>
     <row r="540">
@@ -6304,10 +6304,10 @@
         <v>45830</v>
       </c>
       <c r="B540">
-        <v>88.33130253399915</v>
+        <v>88.33130300000001</v>
       </c>
       <c r="C540">
-        <v>88.95032405479057</v>
+        <v>88.95032399999999</v>
       </c>
     </row>
     <row r="541">
@@ -6315,10 +6315,10 @@
         <v>45831</v>
       </c>
       <c r="B541">
-        <v>88.00248447538564</v>
+        <v>88.002484</v>
       </c>
       <c r="C541">
-        <v>88.62065842100655</v>
+        <v>88.62065800000001</v>
       </c>
     </row>
     <row r="542">
@@ -6326,10 +6326,10 @@
         <v>45832</v>
       </c>
       <c r="B542">
-        <v>88.27101423434152</v>
+        <v>88.27101399999999</v>
       </c>
       <c r="C542">
-        <v>88.8925357039119</v>
+        <v>88.89253600000001</v>
       </c>
     </row>
     <row r="543">
@@ -6337,10 +6337,10 @@
         <v>45833</v>
       </c>
       <c r="B543">
-        <v>88.64746778246054</v>
+        <v>88.647468</v>
       </c>
       <c r="C543">
-        <v>89.27310737496205</v>
+        <v>89.273107</v>
       </c>
     </row>
     <row r="544">
@@ -6348,10 +6348,10 @@
         <v>45834</v>
       </c>
       <c r="B544">
-        <v>89.7585896749073</v>
+        <v>89.75859</v>
       </c>
       <c r="C544">
-        <v>90.39355704588998</v>
+        <v>90.393557</v>
       </c>
     </row>
     <row r="545">
@@ -6359,10 +6359,10 @@
         <v>45835</v>
       </c>
       <c r="B545">
-        <v>88.51658210018661</v>
+        <v>88.516582</v>
       </c>
       <c r="C545">
-        <v>89.14422867307525</v>
+        <v>89.144229</v>
       </c>
     </row>
     <row r="546">
@@ -6370,10 +6370,10 @@
         <v>45836</v>
       </c>
       <c r="B546">
-        <v>90.26368823498288</v>
+        <v>90.263688</v>
       </c>
       <c r="C546">
-        <v>90.90521737374725</v>
+        <v>90.90521699999999</v>
       </c>
     </row>
     <row r="547">
@@ -6381,10 +6381,10 @@
         <v>45837</v>
       </c>
       <c r="B547">
-        <v>89.67612490167672</v>
+        <v>89.676125</v>
       </c>
       <c r="C547">
-        <v>90.31496268172408</v>
+        <v>90.31496300000001</v>
       </c>
     </row>
     <row r="548">
@@ -6392,10 +6392,10 @@
         <v>45838</v>
       </c>
       <c r="B548">
-        <v>91.06403070546686</v>
+        <v>91.064031</v>
       </c>
       <c r="C548">
-        <v>91.71426331466698</v>
+        <v>91.714263</v>
       </c>
     </row>
     <row r="549">
@@ -6403,10 +6403,10 @@
         <v>45839</v>
       </c>
       <c r="B549">
-        <v>91.41637625606607</v>
+        <v>91.416376</v>
       </c>
       <c r="C549">
-        <v>92.0706382270872</v>
+        <v>92.070638</v>
       </c>
     </row>
     <row r="550">
@@ -6414,10 +6414,10 @@
         <v>45840</v>
       </c>
       <c r="B550">
-        <v>92.25918356294621</v>
+        <v>92.259184</v>
       </c>
       <c r="C550">
-        <v>92.92100491547296</v>
+        <v>92.92100499999999</v>
       </c>
     </row>
     <row r="551">
@@ -6425,10 +6425,10 @@
         <v>45841</v>
       </c>
       <c r="B551">
-        <v>90.94629198987295</v>
+        <v>90.946292</v>
       </c>
       <c r="C551">
-        <v>91.59971187874808</v>
+        <v>91.599712</v>
       </c>
     </row>
     <row r="552">
@@ -6436,10 +6436,10 @@
         <v>45842</v>
       </c>
       <c r="B552">
-        <v>90.27809649849064</v>
+        <v>90.27809600000001</v>
       </c>
       <c r="C552">
-        <v>90.92758752163004</v>
+        <v>90.927588</v>
       </c>
     </row>
     <row r="553">
@@ -6447,10 +6447,10 @@
         <v>45843</v>
       </c>
       <c r="B553">
-        <v>90.77982597222832</v>
+        <v>90.779826</v>
       </c>
       <c r="C553">
-        <v>91.43380336443012</v>
+        <v>91.433803</v>
       </c>
     </row>
     <row r="554">
@@ -6458,10 +6458,10 @@
         <v>45844</v>
       </c>
       <c r="B554">
-        <v>92.55176809793794</v>
+        <v>92.551768</v>
       </c>
       <c r="C554">
-        <v>93.21940443237359</v>
+        <v>93.219404</v>
       </c>
     </row>
     <row r="555">
@@ -6469,10 +6469,10 @@
         <v>45845</v>
       </c>
       <c r="B555">
-        <v>92.56259784969345</v>
+        <v>92.56259799999999</v>
       </c>
       <c r="C555">
-        <v>93.23120629978209</v>
+        <v>93.231206</v>
       </c>
     </row>
     <row r="556">
@@ -6480,10 +6480,10 @@
         <v>45846</v>
       </c>
       <c r="B556">
-        <v>92.63146692512045</v>
+        <v>92.631467</v>
       </c>
       <c r="C556">
-        <v>93.30206135687675</v>
+        <v>93.30206099999999</v>
       </c>
     </row>
     <row r="557">
@@ -6491,10 +6491,10 @@
         <v>45847</v>
       </c>
       <c r="B557">
-        <v>93.62759941905128</v>
+        <v>93.627599</v>
       </c>
       <c r="C557">
-        <v>94.306309535663</v>
+        <v>94.30631</v>
       </c>
     </row>
     <row r="558">
@@ -6502,10 +6502,10 @@
         <v>45848</v>
       </c>
       <c r="B558">
-        <v>93.86082735040756</v>
+        <v>93.860827</v>
       </c>
       <c r="C558">
-        <v>94.54213470945044</v>
+        <v>94.542135</v>
       </c>
     </row>
     <row r="559">
@@ -6513,10 +6513,10 @@
         <v>45849</v>
       </c>
       <c r="B559">
-        <v>94.36773609476499</v>
+        <v>94.36773599999999</v>
       </c>
       <c r="C559">
-        <v>95.05363441991351</v>
+        <v>95.053634</v>
       </c>
     </row>
     <row r="560">
@@ -6524,10 +6524,10 @@
         <v>45850</v>
       </c>
       <c r="B560">
-        <v>94.43499891607873</v>
+        <v>94.434999</v>
       </c>
       <c r="C560">
-        <v>95.12264648199704</v>
+        <v>95.122646</v>
       </c>
     </row>
     <row r="561">
@@ -6535,10 +6535,10 @@
         <v>45851</v>
       </c>
       <c r="B561">
-        <v>93.44401688617243</v>
+        <v>93.444017</v>
       </c>
       <c r="C561">
-        <v>94.1253509833161</v>
+        <v>94.12535099999999</v>
       </c>
     </row>
     <row r="562">
@@ -6546,10 +6546,10 @@
         <v>45852</v>
       </c>
       <c r="B562">
-        <v>93.05048764843673</v>
+        <v>93.050488</v>
       </c>
       <c r="C562">
-        <v>93.72985115677477</v>
+        <v>93.729851</v>
       </c>
     </row>
     <row r="563">
@@ -6557,10 +6557,10 @@
         <v>45853</v>
       </c>
       <c r="B563">
-        <v>92.74944040667324</v>
+        <v>92.74944000000001</v>
       </c>
       <c r="C563">
-        <v>93.4275018388178</v>
+        <v>93.427502</v>
       </c>
     </row>
     <row r="564">
@@ -6568,10 +6568,10 @@
         <v>45854</v>
       </c>
       <c r="B564">
-        <v>92.32759576513581</v>
+        <v>92.327596</v>
       </c>
       <c r="C564">
-        <v>93.00346503608193</v>
+        <v>93.00346500000001</v>
       </c>
     </row>
     <row r="565">
@@ -6579,10 +6579,10 @@
         <v>45855</v>
       </c>
       <c r="B565">
-        <v>92.97775110581884</v>
+        <v>92.977751</v>
       </c>
       <c r="C565">
-        <v>93.65927783241462</v>
+        <v>93.659278</v>
       </c>
     </row>
     <row r="566">
@@ -6590,10 +6590,10 @@
         <v>45856</v>
       </c>
       <c r="B566">
-        <v>92.12912001316931</v>
+        <v>92.12912</v>
       </c>
       <c r="C566">
-        <v>92.80531618530523</v>
+        <v>92.805316</v>
       </c>
     </row>
     <row r="567">
@@ -6601,10 +6601,10 @@
         <v>45857</v>
       </c>
       <c r="B567">
-        <v>92.65107396917752</v>
+        <v>92.65107399999999</v>
       </c>
       <c r="C567">
-        <v>93.33199606455388</v>
+        <v>93.331996</v>
       </c>
     </row>
     <row r="568">
@@ -6612,10 +6612,10 @@
         <v>45858</v>
       </c>
       <c r="B568">
-        <v>91.8689119204226</v>
+        <v>91.86891199999999</v>
       </c>
       <c r="C568">
-        <v>92.54497307240126</v>
+        <v>92.544973</v>
       </c>
     </row>
     <row r="569">
@@ -6623,10 +6623,10 @@
         <v>45859</v>
       </c>
       <c r="B569">
-        <v>91.98465538983017</v>
+        <v>91.984655</v>
       </c>
       <c r="C569">
-        <v>92.66245683511171</v>
+        <v>92.662457</v>
       </c>
     </row>
     <row r="570">
@@ -6634,10 +6634,10 @@
         <v>45860</v>
       </c>
       <c r="B570">
-        <v>92.69187683025626</v>
+        <v>92.69187700000001</v>
       </c>
       <c r="C570">
-        <v>93.37578491286602</v>
+        <v>93.37578499999999</v>
       </c>
     </row>
     <row r="571">
@@ -6645,10 +6645,10 @@
         <v>45861</v>
       </c>
       <c r="B571">
-        <v>93.19356280513784</v>
+        <v>93.193563</v>
       </c>
       <c r="C571">
-        <v>93.88207270999047</v>
+        <v>93.88207300000001</v>
       </c>
     </row>
     <row r="572">
@@ -6656,10 +6656,10 @@
         <v>45862</v>
       </c>
       <c r="B572">
-        <v>92.70958170609333</v>
+        <v>92.709582</v>
       </c>
       <c r="C572">
-        <v>93.39541154821733</v>
+        <v>93.39541199999999</v>
       </c>
     </row>
     <row r="573">
@@ -6667,10 +6667,10 @@
         <v>45863</v>
       </c>
       <c r="B573">
-        <v>94.58198179768023</v>
+        <v>94.581982</v>
       </c>
       <c r="C573">
-        <v>95.28271461207633</v>
+        <v>95.282715</v>
       </c>
     </row>
     <row r="574">
@@ -6678,10 +6678,10 @@
         <v>45864</v>
       </c>
       <c r="B574">
-        <v>95.35621001296776</v>
+        <v>95.35621</v>
       </c>
       <c r="C574">
-        <v>96.0636000322318</v>
+        <v>96.06359999999999</v>
       </c>
     </row>
     <row r="575">
@@ -6689,10 +6689,10 @@
         <v>45865</v>
       </c>
       <c r="B575">
-        <v>95.58448104899271</v>
+        <v>95.584481</v>
       </c>
       <c r="C575">
-        <v>96.29448784031366</v>
+        <v>96.294488</v>
       </c>
     </row>
     <row r="576">
@@ -6700,10 +6700,10 @@
         <v>45866</v>
       </c>
       <c r="B576">
-        <v>96.09121030868164</v>
+        <v>96.09121</v>
       </c>
       <c r="C576">
-        <v>96.80590938425385</v>
+        <v>96.805909</v>
       </c>
     </row>
     <row r="577">
@@ -6711,10 +6711,10 @@
         <v>45867</v>
       </c>
       <c r="B577">
-        <v>96.16354228446289</v>
+        <v>96.16354200000001</v>
       </c>
       <c r="C577">
-        <v>96.87970832373639</v>
+        <v>96.87970799999999</v>
       </c>
     </row>
     <row r="578">
@@ -6722,10 +6722,10 @@
         <v>45868</v>
       </c>
       <c r="B578">
-        <v>96.88960227902606</v>
+        <v>96.889602</v>
       </c>
       <c r="C578">
-        <v>97.61211156200619</v>
+        <v>97.612112</v>
       </c>
     </row>
     <row r="579">
@@ -6733,10 +6733,10 @@
         <v>45869</v>
       </c>
       <c r="B579">
-        <v>97.90910229189645</v>
+        <v>97.909102</v>
       </c>
       <c r="C579">
-        <v>98.64015988351009</v>
+        <v>98.64015999999999</v>
       </c>
     </row>
     <row r="580">
@@ -6744,10 +6744,10 @@
         <v>45870</v>
       </c>
       <c r="B580">
-        <v>98.72353704993742</v>
+        <v>98.72353699999999</v>
       </c>
       <c r="C580">
-        <v>99.4616295161231</v>
+        <v>99.46163</v>
       </c>
     </row>
     <row r="581">
@@ -6755,10 +6755,10 @@
         <v>45871</v>
       </c>
       <c r="B581">
-        <v>99.5824136700403</v>
+        <v>99.582414</v>
       </c>
       <c r="C581">
-        <v>100.3278894486116</v>
+        <v>100.327889</v>
       </c>
     </row>
     <row r="582">
@@ -6766,10 +6766,10 @@
         <v>45872</v>
       </c>
       <c r="B582">
-        <v>97.86156443639116</v>
+        <v>97.861564</v>
       </c>
       <c r="C582">
-        <v>98.59510333394347</v>
+        <v>98.59510299999999</v>
       </c>
     </row>
     <row r="583">
@@ -6777,10 +6777,10 @@
         <v>45873</v>
       </c>
       <c r="B583">
-        <v>98.70197150448541</v>
+        <v>98.701972</v>
       </c>
       <c r="C583">
-        <v>99.44276338002933</v>
+        <v>99.442763</v>
       </c>
     </row>
     <row r="584">
@@ -6788,10 +6788,10 @@
         <v>45874</v>
       </c>
       <c r="B584">
-        <v>99.27880270948185</v>
+        <v>99.278803</v>
       </c>
       <c r="C584">
-        <v>100.0248830375785</v>
+        <v>100.024883</v>
       </c>
     </row>
     <row r="585">
@@ -6799,10 +6799,10 @@
         <v>45875</v>
       </c>
       <c r="B585">
-        <v>98.99841706089815</v>
+        <v>98.998417</v>
       </c>
       <c r="C585">
-        <v>99.74334672895573</v>
+        <v>99.743347</v>
       </c>
     </row>
     <row r="586">
@@ -6810,10 +6810,10 @@
         <v>45876</v>
       </c>
       <c r="B586">
-        <v>98.08145892938327</v>
+        <v>98.081459</v>
       </c>
       <c r="C586">
-        <v>98.82043638573438</v>
+        <v>98.820436</v>
       </c>
     </row>
     <row r="587">
@@ -6821,10 +6821,10 @@
         <v>45877</v>
       </c>
       <c r="B587">
-        <v>100.1211658010989</v>
+        <v>100.121166</v>
       </c>
       <c r="C587">
-        <v>100.8764783732464</v>
+        <v>100.876478</v>
       </c>
     </row>
     <row r="588">
@@ -6832,10 +6832,10 @@
         <v>45878</v>
       </c>
       <c r="B588">
-        <v>100.2318583488196</v>
+        <v>100.231858</v>
       </c>
       <c r="C588">
-        <v>100.9889743666683</v>
+        <v>100.988974</v>
       </c>
     </row>
     <row r="589">
@@ -6843,10 +6843,10 @@
         <v>45879</v>
       </c>
       <c r="B589">
-        <v>99.42949685159141</v>
+        <v>99.429497</v>
       </c>
       <c r="C589">
-        <v>100.1815127544272</v>
+        <v>100.181513</v>
       </c>
     </row>
     <row r="590">
@@ -6854,10 +6854,10 @@
         <v>45880</v>
       </c>
       <c r="B590">
-        <v>98.51497109675202</v>
+        <v>98.514971</v>
       </c>
       <c r="C590">
-        <v>99.26102197314189</v>
+        <v>99.261022</v>
       </c>
     </row>
     <row r="591">
@@ -6865,10 +6865,10 @@
         <v>45881</v>
       </c>
       <c r="B591">
-        <v>98.19017595456889</v>
+        <v>98.19017599999999</v>
       </c>
       <c r="C591">
-        <v>98.93471585174446</v>
+        <v>98.93471599999999</v>
       </c>
     </row>
     <row r="592">
@@ -6876,10 +6876,10 @@
         <v>45882</v>
       </c>
       <c r="B592">
-        <v>96.84340272929531</v>
+        <v>96.843403</v>
       </c>
       <c r="C592">
-        <v>97.57866622307318</v>
+        <v>97.578666</v>
       </c>
     </row>
     <row r="593">
@@ -6887,10 +6887,10 @@
         <v>45883</v>
       </c>
       <c r="B593">
-        <v>97.04613851482219</v>
+        <v>97.046139</v>
       </c>
       <c r="C593">
-        <v>97.78387888723373</v>
+        <v>97.783879</v>
       </c>
     </row>
     <row r="594">
@@ -6898,10 +6898,10 @@
         <v>45884</v>
       </c>
       <c r="B594">
-        <v>97.68099419700438</v>
+        <v>97.680994</v>
       </c>
       <c r="C594">
-        <v>98.42450450580087</v>
+        <v>98.424505</v>
       </c>
     </row>
     <row r="595">
@@ -6909,10 +6909,10 @@
         <v>45885</v>
       </c>
       <c r="B595">
-        <v>97.93773123580112</v>
+        <v>97.937731</v>
       </c>
       <c r="C595">
-        <v>98.68481793143965</v>
+        <v>98.68481800000001</v>
       </c>
     </row>
     <row r="596">
@@ -6920,10 +6920,10 @@
         <v>45886</v>
       </c>
       <c r="B596">
-        <v>98.74461922997132</v>
+        <v>98.744619</v>
       </c>
       <c r="C596">
-        <v>99.49949660762586</v>
+        <v>99.49949700000001</v>
       </c>
     </row>
     <row r="597">
@@ -6931,10 +6931,10 @@
         <v>45887</v>
       </c>
       <c r="B597">
-        <v>98.57837686740072</v>
+        <v>98.578377</v>
       </c>
       <c r="C597">
-        <v>99.33361623262216</v>
+        <v>99.33361600000001</v>
       </c>
     </row>
     <row r="598">
@@ -6942,10 +6942,10 @@
         <v>45888</v>
       </c>
       <c r="B598">
-        <v>98.42707728908894</v>
+        <v>98.427077</v>
       </c>
       <c r="C598">
-        <v>99.18278789014401</v>
+        <v>99.182788</v>
       </c>
     </row>
     <row r="599">
@@ -6953,10 +6953,10 @@
         <v>45889</v>
       </c>
       <c r="B599">
-        <v>96.91107090330067</v>
+        <v>96.91107100000001</v>
       </c>
       <c r="C599">
-        <v>97.65674710302612</v>
+        <v>97.656747</v>
       </c>
     </row>
     <row r="600">
@@ -6964,10 +6964,10 @@
         <v>45890</v>
       </c>
       <c r="B600">
-        <v>95.55700119428121</v>
+        <v>95.557001</v>
       </c>
       <c r="C600">
-        <v>96.29384148841079</v>
+        <v>96.293841</v>
       </c>
     </row>
     <row r="601">
@@ -6975,10 +6975,10 @@
         <v>45891</v>
       </c>
       <c r="B601">
-        <v>97.12166805691766</v>
+        <v>97.121668</v>
       </c>
       <c r="C601">
-        <v>97.87218234601683</v>
+        <v>97.872182</v>
       </c>
     </row>
     <row r="602">
@@ -6986,10 +6986,10 @@
         <v>45892</v>
       </c>
       <c r="B602">
-        <v>96.47303677764093</v>
+        <v>96.47303700000001</v>
       </c>
       <c r="C602">
-        <v>97.22013685055711</v>
+        <v>97.22013699999999</v>
       </c>
     </row>
     <row r="603">
@@ -6997,10 +6997,10 @@
         <v>45893</v>
       </c>
       <c r="B603">
-        <v>95.7868420532663</v>
+        <v>95.78684199999999</v>
       </c>
       <c r="C603">
-        <v>96.53021492766305</v>
+        <v>96.530215</v>
       </c>
     </row>
     <row r="604">
@@ -7008,10 +7008,10 @@
         <v>45894</v>
       </c>
       <c r="B604">
-        <v>95.71994716195213</v>
+        <v>95.719947</v>
       </c>
       <c r="C604">
-        <v>96.46438658812596</v>
+        <v>96.464387</v>
       </c>
     </row>
     <row r="605">
@@ -7019,10 +7019,10 @@
         <v>45895</v>
       </c>
       <c r="B605">
-        <v>95.68005420926613</v>
+        <v>95.680054</v>
       </c>
       <c r="C605">
-        <v>96.42576844545938</v>
+        <v>96.42576800000001</v>
       </c>
     </row>
     <row r="606">
@@ -7030,10 +7030,10 @@
         <v>45896</v>
       </c>
       <c r="B606">
-        <v>95.05868851926745</v>
+        <v>95.058689</v>
       </c>
       <c r="C606">
-        <v>95.80113473610065</v>
+        <v>95.801135</v>
       </c>
     </row>
     <row r="607">
@@ -7041,10 +7041,10 @@
         <v>45897</v>
       </c>
       <c r="B607">
-        <v>95.10454648640844</v>
+        <v>95.104546</v>
       </c>
       <c r="C607">
-        <v>95.84892645807014</v>
+        <v>95.84892600000001</v>
       </c>
     </row>
     <row r="608">
@@ -7052,10 +7052,10 @@
         <v>45898</v>
       </c>
       <c r="B608">
-        <v>95.90872029295608</v>
+        <v>95.90872</v>
       </c>
       <c r="C608">
-        <v>96.66098343959534</v>
+        <v>96.660983</v>
       </c>
     </row>
     <row r="609">
@@ -7063,10 +7063,10 @@
         <v>45899</v>
       </c>
       <c r="B609">
-        <v>95.97437110494295</v>
+        <v>95.974371</v>
       </c>
       <c r="C609">
-        <v>96.7287392342453</v>
+        <v>96.728739</v>
       </c>
     </row>
     <row r="610">
@@ -7074,10 +7074,10 @@
         <v>45900</v>
       </c>
       <c r="B610">
-        <v>95.5512121377496</v>
+        <v>95.55121200000001</v>
       </c>
       <c r="C610">
-        <v>96.30383725912957</v>
+        <v>96.303837</v>
       </c>
     </row>
     <row r="611">
@@ -7085,10 +7085,10 @@
         <v>45901</v>
       </c>
       <c r="B611">
-        <v>94.39983156499115</v>
+        <v>94.399832</v>
       </c>
       <c r="C611">
-        <v>95.1449516582517</v>
+        <v>95.144952</v>
       </c>
     </row>
     <row r="612">
@@ -7096,10 +7096,10 @@
         <v>45902</v>
       </c>
       <c r="B612">
-        <v>94.15560080957344</v>
+        <v>94.155601</v>
       </c>
       <c r="C612">
-        <v>94.9003531249699</v>
+        <v>94.900353</v>
       </c>
     </row>
     <row r="613">
@@ -7107,10 +7107,10 @@
         <v>45903</v>
       </c>
       <c r="B613">
-        <v>95.09793676836587</v>
+        <v>95.097937</v>
       </c>
       <c r="C613">
-        <v>95.85171840790886</v>
+        <v>95.85171800000001</v>
       </c>
     </row>
     <row r="614">
@@ -7118,10 +7118,10 @@
         <v>45904</v>
       </c>
       <c r="B614">
-        <v>94.52323695662788</v>
+        <v>94.52323699999999</v>
       </c>
       <c r="C614">
-        <v>95.27402944713319</v>
+        <v>95.274029</v>
       </c>
     </row>
     <row r="615">
@@ -7129,10 +7129,10 @@
         <v>45905</v>
       </c>
       <c r="B615">
-        <v>96.04083185537003</v>
+        <v>96.04083199999999</v>
       </c>
       <c r="C615">
-        <v>96.80526981898203</v>
+        <v>96.80526999999999</v>
       </c>
     </row>
     <row r="616">
@@ -7140,10 +7140,10 @@
         <v>45906</v>
       </c>
       <c r="B616">
-        <v>96.41745060921183</v>
+        <v>96.417451</v>
       </c>
       <c r="C616">
-        <v>97.18648384647433</v>
+        <v>97.18648399999999</v>
       </c>
     </row>
     <row r="617">
@@ -7151,10 +7151,10 @@
         <v>45907</v>
       </c>
       <c r="B617">
-        <v>97.37171496908533</v>
+        <v>97.37171499999999</v>
       </c>
       <c r="C617">
-        <v>98.14997290555898</v>
+        <v>98.149973</v>
       </c>
     </row>
     <row r="618">
@@ -7162,10 +7162,10 @@
         <v>45908</v>
       </c>
       <c r="B618">
-        <v>96.67352767315721</v>
+        <v>96.673528</v>
       </c>
       <c r="C618">
-        <v>97.44780711226019</v>
+        <v>97.447807</v>
       </c>
     </row>
     <row r="619">
@@ -7173,10 +7173,10 @@
         <v>45909</v>
       </c>
       <c r="B619">
-        <v>96.03173861510101</v>
+        <v>96.031739</v>
       </c>
       <c r="C619">
-        <v>96.80246908557486</v>
+        <v>96.802469</v>
       </c>
     </row>
     <row r="620">
@@ -7184,10 +7184,10 @@
         <v>45910</v>
       </c>
       <c r="B620">
-        <v>96.59428642637447</v>
+        <v>96.594286</v>
       </c>
       <c r="C620">
-        <v>97.37113239507714</v>
+        <v>97.371132</v>
       </c>
     </row>
     <row r="621">
@@ -7195,10 +7195,10 @@
         <v>45911</v>
       </c>
       <c r="B621">
-        <v>95.83984837546495</v>
+        <v>95.839848</v>
       </c>
       <c r="C621">
-        <v>96.61221501515428</v>
+        <v>96.61221500000001</v>
       </c>
     </row>
     <row r="622">
@@ -7206,10 +7206,10 @@
         <v>45912</v>
       </c>
       <c r="B622">
-        <v>94.7660912136289</v>
+        <v>94.766091</v>
       </c>
       <c r="C622">
-        <v>95.53137488525533</v>
+        <v>95.531375</v>
       </c>
     </row>
     <row r="623">
@@ -7217,10 +7217,10 @@
         <v>45913</v>
       </c>
       <c r="B623">
-        <v>93.93676507667963</v>
+        <v>93.93676499999999</v>
       </c>
       <c r="C623">
-        <v>94.69690817290403</v>
+        <v>94.69690799999999</v>
       </c>
     </row>
     <row r="624">
@@ -7228,10 +7228,10 @@
         <v>45914</v>
       </c>
       <c r="B624">
-        <v>93.47987233151919</v>
+        <v>93.479872</v>
       </c>
       <c r="C624">
-        <v>94.23786732150346</v>
+        <v>94.23786699999999</v>
       </c>
     </row>
     <row r="625">
@@ -7239,10 +7239,10 @@
         <v>45915</v>
       </c>
       <c r="B625">
-        <v>92.32602201692922</v>
+        <v>92.32602199999999</v>
       </c>
       <c r="C625">
-        <v>93.07619085267989</v>
+        <v>93.07619099999999</v>
       </c>
     </row>
     <row r="626">
@@ -7250,10 +7250,10 @@
         <v>45916</v>
       </c>
       <c r="B626">
-        <v>92.26338981014722</v>
+        <v>92.26339</v>
       </c>
       <c r="C626">
-        <v>93.01457873992005</v>
+        <v>93.014579</v>
       </c>
     </row>
     <row r="627">
@@ -7261,10 +7261,10 @@
         <v>45917</v>
       </c>
       <c r="B627">
-        <v>91.9815040493455</v>
+        <v>91.981504</v>
       </c>
       <c r="C627">
-        <v>92.73192227294321</v>
+        <v>92.731922</v>
       </c>
     </row>
     <row r="628">
@@ -7272,10 +7272,10 @@
         <v>45918</v>
       </c>
       <c r="B628">
-        <v>92.1019917509943</v>
+        <v>92.101992</v>
       </c>
       <c r="C628">
-        <v>92.85491932632789</v>
+        <v>92.854919</v>
       </c>
     </row>
     <row r="629">
@@ -7283,10 +7283,10 @@
         <v>45919</v>
       </c>
       <c r="B629">
-        <v>91.51414083608158</v>
+        <v>91.514141</v>
       </c>
       <c r="C629">
-        <v>92.26377942220562</v>
+        <v>92.263779</v>
       </c>
     </row>
     <row r="630">
@@ -7294,10 +7294,10 @@
         <v>45920</v>
       </c>
       <c r="B630">
-        <v>91.11626106187141</v>
+        <v>91.11626099999999</v>
       </c>
       <c r="C630">
-        <v>91.86415049685769</v>
+        <v>91.86415</v>
       </c>
     </row>
     <row r="631">
@@ -7305,10 +7305,10 @@
         <v>45921</v>
       </c>
       <c r="B631">
-        <v>90.38331745077961</v>
+        <v>90.38331700000001</v>
       </c>
       <c r="C631">
-        <v>91.12668878763131</v>
+        <v>91.126689</v>
       </c>
     </row>
     <row r="632">
@@ -7316,10 +7316,10 @@
         <v>45922</v>
       </c>
       <c r="B632">
-        <v>88.78290832039053</v>
+        <v>88.78290800000001</v>
       </c>
       <c r="C632">
-        <v>89.51458830960284</v>
+        <v>89.514588</v>
       </c>
     </row>
     <row r="633">
@@ -7327,10 +7327,10 @@
         <v>45923</v>
       </c>
       <c r="B633">
-        <v>88.43992739123244</v>
+        <v>88.439927</v>
       </c>
       <c r="C633">
-        <v>89.17024659740861</v>
+        <v>89.170247</v>
       </c>
     </row>
     <row r="634">
@@ -7338,10 +7338,10 @@
         <v>45924</v>
       </c>
       <c r="B634">
-        <v>88.55084936327864</v>
+        <v>88.550849</v>
       </c>
       <c r="C634">
-        <v>89.28355220365039</v>
+        <v>89.283552</v>
       </c>
     </row>
     <row r="635">
@@ -7349,10 +7349,10 @@
         <v>45925</v>
       </c>
       <c r="B635">
-        <v>88.99336074292366</v>
+        <v>88.99336099999999</v>
       </c>
       <c r="C635">
-        <v>89.73120010922642</v>
+        <v>89.7312</v>
       </c>
     </row>
     <row r="636">
@@ -7360,10 +7360,10 @@
         <v>45926</v>
       </c>
       <c r="B636">
-        <v>90.03844725662957</v>
+        <v>90.03844700000001</v>
       </c>
       <c r="C636">
-        <v>90.78644374897434</v>
+        <v>90.786444</v>
       </c>
     </row>
     <row r="637">
@@ -7371,10 +7371,10 @@
         <v>45927</v>
       </c>
       <c r="B637">
-        <v>92.03196768767484</v>
+        <v>92.03196800000001</v>
       </c>
       <c r="C637">
-        <v>92.79805083218677</v>
+        <v>92.798051</v>
       </c>
     </row>
     <row r="638">
@@ -7382,10 +7382,10 @@
         <v>45928</v>
       </c>
       <c r="B638">
-        <v>90.91623135345455</v>
+        <v>90.916231</v>
       </c>
       <c r="C638">
-        <v>91.67453396531333</v>
+        <v>91.67453399999999</v>
       </c>
     </row>
     <row r="639">
@@ -7393,10 +7393,10 @@
         <v>45929</v>
       </c>
       <c r="B639">
-        <v>90.12146979203888</v>
+        <v>90.12147</v>
       </c>
       <c r="C639">
-        <v>90.87463737449107</v>
+        <v>90.87463700000001</v>
       </c>
     </row>
     <row r="640">
@@ -7404,10 +7404,10 @@
         <v>45930</v>
       </c>
       <c r="B640">
-        <v>90.19518371332019</v>
+        <v>90.195184</v>
       </c>
       <c r="C640">
-        <v>90.95046240518909</v>
+        <v>90.950462</v>
       </c>
     </row>
     <row r="641">
@@ -7415,10 +7415,10 @@
         <v>45931</v>
       </c>
       <c r="B641">
-        <v>91.48595929792094</v>
+        <v>91.48595899999999</v>
       </c>
       <c r="C641">
-        <v>92.25356320322355</v>
+        <v>92.253563</v>
       </c>
     </row>
     <row r="642">
@@ -7426,10 +7426,10 @@
         <v>45932</v>
       </c>
       <c r="B642">
-        <v>90.99056053258916</v>
+        <v>90.990561</v>
       </c>
       <c r="C642">
-        <v>91.75551614093979</v>
+        <v>91.755516</v>
       </c>
     </row>
     <row r="643">
@@ -7437,10 +7437,10 @@
         <v>45933</v>
       </c>
       <c r="B643">
-        <v>91.97238363772117</v>
+        <v>91.97238400000001</v>
       </c>
       <c r="C643">
-        <v>92.74711800859657</v>
+        <v>92.747118</v>
       </c>
     </row>
     <row r="644">
@@ -7448,10 +7448,10 @@
         <v>45934</v>
       </c>
       <c r="B644">
-        <v>91.35160892198127</v>
+        <v>91.351609</v>
       </c>
       <c r="C644">
-        <v>92.12262849544037</v>
+        <v>92.12262800000001</v>
       </c>
     </row>
     <row r="645">
@@ -7459,10 +7459,10 @@
         <v>45935</v>
       </c>
       <c r="B645">
-        <v>93.24903393056996</v>
+        <v>93.24903399999999</v>
       </c>
       <c r="C645">
-        <v>94.03761383131071</v>
+        <v>94.037614</v>
       </c>
     </row>
     <row r="646">
@@ -7470,10 +7470,10 @@
         <v>45936</v>
       </c>
       <c r="B646">
-        <v>92.56337148982865</v>
+        <v>92.563371</v>
       </c>
       <c r="C646">
-        <v>93.34768741307815</v>
+        <v>93.34768699999999</v>
       </c>
     </row>
     <row r="647">
@@ -7481,10 +7481,10 @@
         <v>45937</v>
       </c>
       <c r="B647">
-        <v>93.27146668280473</v>
+        <v>93.271467</v>
       </c>
       <c r="C647">
-        <v>94.06332873295717</v>
+        <v>94.063329</v>
       </c>
     </row>
     <row r="648">
@@ -7492,10 +7492,10 @@
         <v>45938</v>
       </c>
       <c r="B648">
-        <v>94.42993627941712</v>
+        <v>94.429936</v>
       </c>
       <c r="C648">
-        <v>95.23319904305865</v>
+        <v>95.233199</v>
       </c>
     </row>
     <row r="649">
@@ -7503,10 +7503,10 @@
         <v>45939</v>
       </c>
       <c r="B649">
-        <v>95.20242749875885</v>
+        <v>95.202427</v>
       </c>
       <c r="C649">
-        <v>96.01383971077347</v>
+        <v>96.01384</v>
       </c>
     </row>
     <row r="650">
@@ -7514,10 +7514,10 @@
         <v>45940</v>
       </c>
       <c r="B650">
-        <v>94.0261049578817</v>
+        <v>94.026105</v>
       </c>
       <c r="C650">
-        <v>94.82905017001586</v>
+        <v>94.82905</v>
       </c>
     </row>
     <row r="651">
@@ -7525,10 +7525,10 @@
         <v>45941</v>
       </c>
       <c r="B651">
-        <v>93.27112092952878</v>
+        <v>93.27112099999999</v>
       </c>
       <c r="C651">
-        <v>94.06916521070011</v>
+        <v>94.069165</v>
       </c>
     </row>
     <row r="652">
@@ -7536,10 +7536,10 @@
         <v>45942</v>
       </c>
       <c r="B652">
-        <v>93.54176832803725</v>
+        <v>93.541768</v>
       </c>
       <c r="C652">
-        <v>94.34367915868648</v>
+        <v>94.34367899999999</v>
       </c>
     </row>
     <row r="653">
@@ -7547,10 +7547,10 @@
         <v>45943</v>
       </c>
       <c r="B653">
-        <v>94.38302677794309</v>
+        <v>94.383027</v>
       </c>
       <c r="C653">
-        <v>95.19371432800969</v>
+        <v>95.193714</v>
       </c>
     </row>
     <row r="654">
@@ -7558,10 +7558,10 @@
         <v>45944</v>
       </c>
       <c r="B654">
-        <v>94.46778658085579</v>
+        <v>94.467787</v>
       </c>
       <c r="C654">
-        <v>95.28076840770059</v>
+        <v>95.28076799999999</v>
       </c>
     </row>
     <row r="655">
@@ -7569,10 +7569,10 @@
         <v>45945</v>
       </c>
       <c r="B655">
-        <v>94.06956892770003</v>
+        <v>94.069569</v>
       </c>
       <c r="C655">
-        <v>94.88068339655831</v>
+        <v>94.880683</v>
       </c>
     </row>
     <row r="656">
@@ -7580,10 +7580,10 @@
         <v>45946</v>
       </c>
       <c r="B656">
-        <v>94.27823206991573</v>
+        <v>94.278232</v>
       </c>
       <c r="C656">
-        <v>95.09270889082389</v>
+        <v>95.092709</v>
       </c>
     </row>
     <row r="657">
@@ -7591,10 +7591,10 @@
         <v>45947</v>
       </c>
       <c r="B657">
-        <v>93.44215420996734</v>
+        <v>93.442154</v>
       </c>
       <c r="C657">
-        <v>94.25095740869503</v>
+        <v>94.250957</v>
       </c>
     </row>
     <row r="658">
@@ -7602,10 +7602,10 @@
         <v>45948</v>
       </c>
       <c r="B658">
-        <v>93.19608951005991</v>
+        <v>93.19609</v>
       </c>
       <c r="C658">
-        <v>94.00430812084107</v>
+        <v>94.00430799999999</v>
       </c>
     </row>
     <row r="659">
@@ -7613,10 +7613,10 @@
         <v>45949</v>
       </c>
       <c r="B659">
-        <v>93.88658285454062</v>
+        <v>93.886583</v>
       </c>
       <c r="C659">
-        <v>94.7023463256153</v>
+        <v>94.70234600000001</v>
       </c>
     </row>
     <row r="660">
@@ -7624,10 +7624,10 @@
         <v>45950</v>
       </c>
       <c r="B660">
-        <v>93.81725458719717</v>
+        <v>93.817255</v>
       </c>
       <c r="C660">
-        <v>94.63397129168453</v>
+        <v>94.633971</v>
       </c>
     </row>
     <row r="661">
@@ -7635,10 +7635,10 @@
         <v>45951</v>
       </c>
       <c r="B661">
-        <v>93.77276458919877</v>
+        <v>93.77276500000001</v>
       </c>
       <c r="C661">
-        <v>94.590648892465</v>
+        <v>94.590649</v>
       </c>
     </row>
     <row r="662">
@@ -7646,10 +7646,10 @@
         <v>45952</v>
       </c>
       <c r="B662">
-        <v>93.88731343906123</v>
+        <v>93.88731300000001</v>
       </c>
       <c r="C662">
-        <v>94.70775366224923</v>
+        <v>94.70775399999999</v>
       </c>
     </row>
     <row r="663">
@@ -7657,10 +7657,10 @@
         <v>45953</v>
       </c>
       <c r="B663">
-        <v>95.81340824862305</v>
+        <v>95.813408</v>
       </c>
       <c r="C663">
-        <v>96.65226856441073</v>
+        <v>96.652269</v>
       </c>
     </row>
     <row r="664">
@@ -7668,10 +7668,10 @@
         <v>45954</v>
       </c>
       <c r="B664">
-        <v>94.88826996651504</v>
+        <v>94.88827000000001</v>
       </c>
       <c r="C664">
-        <v>95.72060403862187</v>
+        <v>95.72060399999999</v>
       </c>
     </row>
     <row r="665">
@@ -7679,10 +7679,10 @@
         <v>45955</v>
       </c>
       <c r="B665">
-        <v>93.667732539246</v>
+        <v>93.667733</v>
       </c>
       <c r="C665">
-        <v>94.49091365184186</v>
+        <v>94.490914</v>
       </c>
     </row>
     <row r="666">
@@ -7690,10 +7690,10 @@
         <v>45956</v>
       </c>
       <c r="B666">
-        <v>92.70483275433786</v>
+        <v>92.70483299999999</v>
       </c>
       <c r="C666">
-        <v>93.52108892502588</v>
+        <v>93.521089</v>
       </c>
     </row>
     <row r="667">
@@ -7701,10 +7701,10 @@
         <v>45957</v>
       </c>
       <c r="B667">
-        <v>91.8969020070645</v>
+        <v>91.896902</v>
       </c>
       <c r="C667">
-        <v>92.70756838114534</v>
+        <v>92.70756799999999</v>
       </c>
     </row>
     <row r="668">
@@ -7712,10 +7712,10 @@
         <v>45958</v>
       </c>
       <c r="B668">
-        <v>90.42202262204893</v>
+        <v>90.422023</v>
       </c>
       <c r="C668">
-        <v>91.22117789597944</v>
+        <v>91.22117799999999</v>
       </c>
     </row>
     <row r="669">
@@ -7723,10 +7723,10 @@
         <v>45959</v>
       </c>
       <c r="B669">
-        <v>90.14231131823645</v>
+        <v>90.14231100000001</v>
       </c>
       <c r="C669">
-        <v>90.9404893867094</v>
+        <v>90.940489</v>
       </c>
     </row>
     <row r="670">
@@ -7734,10 +7734,10 @@
         <v>45960</v>
       </c>
       <c r="B670">
-        <v>88.7548177548436</v>
+        <v>88.754818</v>
       </c>
       <c r="C670">
-        <v>89.54218197605829</v>
+        <v>89.542182</v>
       </c>
     </row>
     <row r="671">
@@ -7745,10 +7745,10 @@
         <v>45961</v>
       </c>
       <c r="B671">
-        <v>88.93499675953863</v>
+        <v>88.934997</v>
       </c>
       <c r="C671">
-        <v>89.7254343163019</v>
+        <v>89.72543400000001</v>
       </c>
     </row>
     <row r="672">
@@ -7756,10 +7756,10 @@
         <v>45962</v>
       </c>
       <c r="B672">
-        <v>89.72385012267971</v>
+        <v>89.72385</v>
       </c>
       <c r="C672">
-        <v>90.52278689363644</v>
+        <v>90.52278699999999</v>
       </c>
     </row>
     <row r="673">
@@ -7767,10 +7767,10 @@
         <v>45963</v>
       </c>
       <c r="B673">
-        <v>91.54680340194247</v>
+        <v>91.546803</v>
       </c>
       <c r="C673">
-        <v>92.36349076386729</v>
+        <v>92.363491</v>
       </c>
     </row>
     <row r="674">
@@ -7778,10 +7778,10 @@
         <v>45964</v>
       </c>
       <c r="B674">
-        <v>91.23472741601476</v>
+        <v>91.23472700000001</v>
       </c>
       <c r="C674">
-        <v>92.0501438943797</v>
+        <v>92.050144</v>
       </c>
     </row>
     <row r="675">
@@ -7789,10 +7789,10 @@
         <v>45965</v>
       </c>
       <c r="B675">
-        <v>92.18895080623309</v>
+        <v>92.188951</v>
       </c>
       <c r="C675">
-        <v>93.01442471164452</v>
+        <v>93.014425</v>
       </c>
     </row>
     <row r="676">
@@ -7800,10 +7800,10 @@
         <v>45966</v>
       </c>
       <c r="B676">
-        <v>92.61724675008246</v>
+        <v>92.61724700000001</v>
       </c>
       <c r="C676">
-        <v>93.44809180299259</v>
+        <v>93.448092</v>
       </c>
     </row>
     <row r="677">
@@ -7811,10 +7811,10 @@
         <v>45967</v>
       </c>
       <c r="B677">
-        <v>93.39610558100713</v>
+        <v>93.396106</v>
       </c>
       <c r="C677">
-        <v>94.23548663617251</v>
+        <v>94.23548700000001</v>
       </c>
     </row>
     <row r="678">
@@ -7822,10 +7822,10 @@
         <v>45968</v>
       </c>
       <c r="B678">
-        <v>93.58985783522496</v>
+        <v>93.58985800000001</v>
       </c>
       <c r="C678">
-        <v>94.43253250750641</v>
+        <v>94.43253300000001</v>
       </c>
     </row>
     <row r="679">
@@ -7833,10 +7833,10 @@
         <v>45969</v>
       </c>
       <c r="B679">
-        <v>92.74172167603885</v>
+        <v>92.741722</v>
       </c>
       <c r="C679">
-        <v>93.5782980672851</v>
+        <v>93.578298</v>
       </c>
     </row>
     <row r="680">
@@ -7844,10 +7844,10 @@
         <v>45970</v>
       </c>
       <c r="B680">
-        <v>92.40690852340597</v>
+        <v>92.406909</v>
       </c>
       <c r="C680">
-        <v>93.24199746629091</v>
+        <v>93.241997</v>
       </c>
     </row>
     <row r="681">
@@ -7855,10 +7855,10 @@
         <v>45971</v>
       </c>
       <c r="B681">
-        <v>93.01215799393712</v>
+        <v>93.012158</v>
       </c>
       <c r="C681">
-        <v>93.85425942385351</v>
+        <v>93.854259</v>
       </c>
     </row>
     <row r="682">
@@ -7866,10 +7866,10 @@
         <v>45972</v>
       </c>
       <c r="B682">
-        <v>93.4572220083256</v>
+        <v>93.457222</v>
       </c>
       <c r="C682">
-        <v>94.30490310601847</v>
+        <v>94.304903</v>
       </c>
     </row>
     <row r="683">
@@ -7877,10 +7877,10 @@
         <v>45973</v>
       </c>
       <c r="B683">
-        <v>94.4396163712268</v>
+        <v>94.439616</v>
       </c>
       <c r="C683">
-        <v>95.2977745649453</v>
+        <v>95.297775</v>
       </c>
     </row>
     <row r="684">
@@ -7888,10 +7888,10 @@
         <v>45974</v>
       </c>
       <c r="B684">
-        <v>94.42484990166081</v>
+        <v>94.42485000000001</v>
       </c>
       <c r="C684">
-        <v>95.28444022144473</v>
+        <v>95.28444</v>
       </c>
     </row>
     <row r="685">
@@ -7899,10 +7899,10 @@
         <v>45975</v>
       </c>
       <c r="B685">
-        <v>96.34329822151864</v>
+        <v>96.343298</v>
       </c>
       <c r="C685">
-        <v>97.22195116348237</v>
+        <v>97.221951</v>
       </c>
     </row>
     <row r="686">
@@ -7910,10 +7910,10 @@
         <v>45976</v>
       </c>
       <c r="B686">
-        <v>97.03626196173101</v>
+        <v>97.03626199999999</v>
       </c>
       <c r="C686">
-        <v>97.92284442520108</v>
+        <v>97.922844</v>
       </c>
     </row>
     <row r="687">
@@ -7921,10 +7921,10 @@
         <v>45977</v>
       </c>
       <c r="B687">
-        <v>97.32349449137384</v>
+        <v>97.323494</v>
       </c>
       <c r="C687">
-        <v>98.21431575502666</v>
+        <v>98.214316</v>
       </c>
     </row>
     <row r="688">
@@ -7932,10 +7932,10 @@
         <v>45978</v>
       </c>
       <c r="B688">
-        <v>96.98760767238917</v>
+        <v>96.98760799999999</v>
       </c>
       <c r="C688">
-        <v>97.87696342047573</v>
+        <v>97.876963</v>
       </c>
     </row>
     <row r="689">
@@ -7943,10 +7943,10 @@
         <v>45979</v>
       </c>
       <c r="B689">
-        <v>96.4933934407822</v>
+        <v>96.493393</v>
       </c>
       <c r="C689">
-        <v>97.37981810038413</v>
+        <v>97.379818</v>
       </c>
     </row>
     <row r="690">
@@ -7954,10 +7954,10 @@
         <v>45980</v>
       </c>
       <c r="B690">
-        <v>96.85470669751444</v>
+        <v>96.854707</v>
       </c>
       <c r="C690">
-        <v>97.7460572880904</v>
+        <v>97.74605699999999</v>
       </c>
     </row>
     <row r="691">
@@ -7965,10 +7965,10 @@
         <v>45981</v>
       </c>
       <c r="B691">
-        <v>97.42346883145311</v>
+        <v>97.423469</v>
       </c>
       <c r="C691">
-        <v>98.32166995406013</v>
+        <v>98.32167</v>
       </c>
     </row>
     <row r="692">
@@ -7976,10 +7976,10 @@
         <v>45982</v>
       </c>
       <c r="B692">
-        <v>96.05026858535936</v>
+        <v>96.050269</v>
       </c>
       <c r="C692">
-        <v>96.93740288991189</v>
+        <v>96.937403</v>
       </c>
     </row>
     <row r="693">
@@ -7987,10 +7987,10 @@
         <v>45983</v>
       </c>
       <c r="B693">
-        <v>95.58238036164543</v>
+        <v>95.58238</v>
       </c>
       <c r="C693">
-        <v>96.46677892448582</v>
+        <v>96.466779</v>
       </c>
     </row>
     <row r="694">
@@ -7998,10 +7998,10 @@
         <v>45984</v>
       </c>
       <c r="B694">
-        <v>96.20831231977239</v>
+        <v>96.20831200000001</v>
       </c>
       <c r="C694">
-        <v>97.10009861886455</v>
+        <v>97.100099</v>
       </c>
     </row>
     <row r="695">
@@ -8009,10 +8009,10 @@
         <v>45985</v>
       </c>
       <c r="B695">
-        <v>96.19504453182765</v>
+        <v>96.19504499999999</v>
       </c>
       <c r="C695">
-        <v>97.08830380645573</v>
+        <v>97.08830399999999</v>
       </c>
     </row>
     <row r="696">
@@ -8020,10 +8020,10 @@
         <v>45986</v>
       </c>
       <c r="B696">
-        <v>96.94128185634298</v>
+        <v>96.941282</v>
       </c>
       <c r="C696">
-        <v>97.84307899557419</v>
+        <v>97.843079</v>
       </c>
     </row>
     <row r="697">
@@ -8031,10 +8031,10 @@
         <v>45987</v>
       </c>
       <c r="B697">
-        <v>97.30941638931299</v>
+        <v>97.309416</v>
       </c>
       <c r="C697">
-        <v>98.21625260379261</v>
+        <v>98.21625299999999</v>
       </c>
     </row>
     <row r="698">
@@ -8042,10 +8042,10 @@
         <v>45988</v>
       </c>
       <c r="B698">
-        <v>97.15560561527523</v>
+        <v>97.15560600000001</v>
       </c>
       <c r="C698">
-        <v>98.06262042675145</v>
+        <v>98.06262</v>
       </c>
     </row>
     <row r="699">
@@ -8053,10 +8053,10 @@
         <v>45989</v>
       </c>
       <c r="B699">
-        <v>97.01227940691696</v>
+        <v>97.01227900000001</v>
       </c>
       <c r="C699">
-        <v>97.91956579252253</v>
+        <v>97.919566</v>
       </c>
     </row>
     <row r="700">
@@ -8064,10 +8064,10 @@
         <v>45990</v>
       </c>
       <c r="B700">
-        <v>96.96295090694818</v>
+        <v>96.962951</v>
       </c>
       <c r="C700">
-        <v>97.87138478987238</v>
+        <v>97.871385</v>
       </c>
     </row>
     <row r="701">
@@ -8075,10 +8075,10 @@
         <v>45991</v>
       </c>
       <c r="B701">
-        <v>97.21835277625665</v>
+        <v>97.21835299999999</v>
       </c>
       <c r="C701">
-        <v>98.13079258333619</v>
+        <v>98.130793</v>
       </c>
     </row>
     <row r="702">
@@ -8086,10 +8086,10 @@
         <v>45992</v>
       </c>
       <c r="B702">
-        <v>95.60961366171925</v>
+        <v>95.60961399999999</v>
       </c>
       <c r="C702">
-        <v>96.50854112692507</v>
+        <v>96.50854099999999</v>
       </c>
     </row>
     <row r="703">
@@ -8097,10 +8097,10 @@
         <v>45993</v>
       </c>
       <c r="B703">
-        <v>95.1997640991198</v>
+        <v>95.199764</v>
       </c>
       <c r="C703">
-        <v>96.09641778770096</v>
+        <v>96.096418</v>
       </c>
     </row>
     <row r="704">
@@ -8108,10 +8108,10 @@
         <v>45994</v>
       </c>
       <c r="B704">
-        <v>96.19378306171245</v>
+        <v>96.193783</v>
       </c>
       <c r="C704">
-        <v>97.10139524568996</v>
+        <v>97.101395</v>
       </c>
     </row>
     <row r="705">
@@ -8119,10 +8119,10 @@
         <v>45995</v>
       </c>
       <c r="B705">
-        <v>96.29232185071415</v>
+        <v>96.292322</v>
       </c>
       <c r="C705">
-        <v>97.2024616081389</v>
+        <v>97.202462</v>
       </c>
     </row>
     <row r="706">
@@ -8130,10 +8130,10 @@
         <v>45996</v>
       </c>
       <c r="B706">
-        <v>95.73229319920694</v>
+        <v>95.732293</v>
       </c>
       <c r="C706">
-        <v>96.6387282233963</v>
+        <v>96.638728</v>
       </c>
     </row>
     <row r="707">
@@ -8141,10 +8141,10 @@
         <v>45997</v>
       </c>
       <c r="B707">
-        <v>95.23106910424607</v>
+        <v>95.23106900000001</v>
       </c>
       <c r="C707">
-        <v>96.13433859803084</v>
+        <v>96.134339</v>
       </c>
     </row>
     <row r="708">
@@ -8152,10 +8152,10 @@
         <v>45998</v>
       </c>
       <c r="B708">
-        <v>95.00015236920454</v>
+        <v>95.000152</v>
       </c>
       <c r="C708">
-        <v>95.90280808251902</v>
+        <v>95.90280799999999</v>
       </c>
     </row>
     <row r="709">
@@ -8163,10 +8163,10 @@
         <v>45999</v>
       </c>
       <c r="B709">
-        <v>94.73262668196121</v>
+        <v>94.73262699999999</v>
       </c>
       <c r="C709">
-        <v>95.63431252479558</v>
+        <v>95.63431300000001</v>
       </c>
     </row>
     <row r="710">
@@ -8174,10 +8174,10 @@
         <v>46000</v>
       </c>
       <c r="B710">
-        <v>95.18349721674207</v>
+        <v>95.183497</v>
       </c>
       <c r="C710">
-        <v>96.09105410984485</v>
+        <v>96.091054</v>
       </c>
     </row>
     <row r="711">
@@ -8185,10 +8185,10 @@
         <v>46001</v>
       </c>
       <c r="B711">
-        <v>94.56591005818542</v>
+        <v>94.56591</v>
       </c>
       <c r="C711">
-        <v>95.46914771587286</v>
+        <v>95.469148</v>
       </c>
     </row>
     <row r="712">
@@ -8196,10 +8196,10 @@
         <v>46002</v>
       </c>
       <c r="B712">
-        <v>95.69282669567689</v>
+        <v>95.69282699999999</v>
       </c>
       <c r="C712">
-        <v>96.6084160652584</v>
+        <v>96.60841600000001</v>
       </c>
     </row>
     <row r="713">
@@ -8207,10 +8207,10 @@
         <v>46003</v>
       </c>
       <c r="B713">
-        <v>95.25926922405317</v>
+        <v>95.259269</v>
       </c>
       <c r="C713">
-        <v>96.17187921511142</v>
+        <v>96.171879</v>
       </c>
     </row>
     <row r="714">
@@ -8218,10 +8218,10 @@
         <v>46004</v>
       </c>
       <c r="B714">
-        <v>96.11832289405457</v>
+        <v>96.118323</v>
       </c>
       <c r="C714">
-        <v>97.04009337245336</v>
+        <v>97.040093</v>
       </c>
     </row>
     <row r="715">
@@ -8229,10 +8229,10 @@
         <v>46005</v>
       </c>
       <c r="B715">
-        <v>95.37881815130426</v>
+        <v>95.378818</v>
       </c>
       <c r="C715">
-        <v>96.29442017855241</v>
+        <v>96.29442</v>
       </c>
     </row>
     <row r="716">
@@ -8240,10 +8240,10 @@
         <v>46006</v>
       </c>
       <c r="B716">
-        <v>96.68917363370517</v>
+        <v>96.68917399999999</v>
       </c>
       <c r="C716">
-        <v>97.61829065917647</v>
+        <v>97.618291</v>
       </c>
     </row>
     <row r="717">
@@ -8251,10 +8251,10 @@
         <v>46007</v>
       </c>
       <c r="B717">
-        <v>97.84988728956749</v>
+        <v>97.849887</v>
       </c>
       <c r="C717">
-        <v>98.79110528919801</v>
+        <v>98.791105</v>
       </c>
     </row>
     <row r="718">
@@ -8262,10 +8262,10 @@
         <v>46008</v>
       </c>
       <c r="B718">
-        <v>97.408615998168</v>
+        <v>97.40861599999999</v>
       </c>
       <c r="C718">
-        <v>98.34720606265856</v>
+        <v>98.347206</v>
       </c>
     </row>
     <row r="719">
@@ -8273,10 +8273,10 @@
         <v>46009</v>
       </c>
       <c r="B719">
-        <v>97.66944238749747</v>
+        <v>97.669442</v>
       </c>
       <c r="C719">
-        <v>98.61149125479369</v>
+        <v>98.611491</v>
       </c>
     </row>
     <row r="720">
@@ -8284,10 +8284,10 @@
         <v>46010</v>
       </c>
       <c r="B720">
-        <v>97.57445015929939</v>
+        <v>97.57445</v>
       </c>
       <c r="C720">
-        <v>98.51652747470321</v>
+        <v>98.516527</v>
       </c>
     </row>
     <row r="721">
@@ -8295,10 +8295,10 @@
         <v>46011</v>
       </c>
       <c r="B721">
-        <v>97.28683924578124</v>
+        <v>97.286839</v>
       </c>
       <c r="C721">
-        <v>98.22708158861417</v>
+        <v>98.227082</v>
       </c>
     </row>
     <row r="722">
@@ -8306,10 +8306,10 @@
         <v>46012</v>
       </c>
       <c r="B722">
-        <v>98.82417963551853</v>
+        <v>98.82418</v>
       </c>
       <c r="C722">
-        <v>99.78049294110565</v>
+        <v>99.78049300000001</v>
       </c>
     </row>
     <row r="723">
@@ -8317,10 +8317,10 @@
         <v>46013</v>
       </c>
       <c r="B723">
-        <v>96.85236271333589</v>
+        <v>96.852363</v>
       </c>
       <c r="C723">
-        <v>97.79053262473116</v>
+        <v>97.790533</v>
       </c>
     </row>
     <row r="724">
@@ -8328,10 +8328,10 @@
         <v>46014</v>
       </c>
       <c r="B724">
-        <v>98.37649665912657</v>
+        <v>98.376497</v>
       </c>
       <c r="C724">
-        <v>99.33038272204101</v>
+        <v>99.330383</v>
       </c>
     </row>
     <row r="725">
@@ -8339,10 +8339,10 @@
         <v>46015</v>
       </c>
       <c r="B725">
-        <v>98.13785974341678</v>
+        <v>98.13786</v>
       </c>
       <c r="C725">
-        <v>99.09038209315433</v>
+        <v>99.09038200000001</v>
       </c>
     </row>
     <row r="726">
@@ -8350,10 +8350,10 @@
         <v>46016</v>
       </c>
       <c r="B726">
-        <v>98.73773488115867</v>
+        <v>98.737735</v>
       </c>
       <c r="C726">
-        <v>99.69703559065097</v>
+        <v>99.697036</v>
       </c>
     </row>
     <row r="727">
@@ -8361,10 +8361,10 @@
         <v>46017</v>
       </c>
       <c r="B727">
-        <v>98.15885249205232</v>
+        <v>98.158852</v>
       </c>
       <c r="C727">
-        <v>99.11347938484019</v>
+        <v>99.113479</v>
       </c>
     </row>
     <row r="728">
@@ -8372,10 +8372,10 @@
         <v>46018</v>
       </c>
       <c r="B728">
-        <v>98.0282063482577</v>
+        <v>98.028206</v>
       </c>
       <c r="C728">
-        <v>98.98251180745943</v>
+        <v>98.982512</v>
       </c>
     </row>
     <row r="729">
@@ -8383,10 +8383,10 @@
         <v>46019</v>
       </c>
       <c r="B729">
-        <v>99.28463070831287</v>
+        <v>99.284631</v>
       </c>
       <c r="C729">
-        <v>100.2521287869895</v>
+        <v>100.252129</v>
       </c>
     </row>
     <row r="730">
@@ -8394,10 +8394,10 @@
         <v>46020</v>
       </c>
       <c r="B730">
-        <v>98.98721662585515</v>
+        <v>98.987217</v>
       </c>
       <c r="C730">
-        <v>99.95277494277644</v>
+        <v>99.952775</v>
       </c>
     </row>
     <row r="731">
@@ -8405,10 +8405,10 @@
         <v>46021</v>
       </c>
       <c r="B731">
-        <v>99.78512216634813</v>
+        <v>99.785122</v>
       </c>
       <c r="C731">
-        <v>100.7594297338851</v>
+        <v>100.75943</v>
       </c>
     </row>
   </sheetData>
